--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4EFB14-398D-4DC9-9F06-6A863D8C1EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC9B188-7AEA-486B-924F-88B01E0839EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="645" windowWidth="25635" windowHeight="15555" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="645" windowWidth="25635" windowHeight="15555" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="2869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3204" uniqueCount="2871">
   <si>
     <t>English</t>
   </si>
@@ -24743,6 +24743,17 @@
   </si>
   <si>
     <t>真爱无法跟随原阵营获胜</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打工仔可以在行动阶段选择一位玩家打工，胜利条件和打工对象一致。
+若在打工仔存活时，打工对象死亡，打工仔可以寻找一名其他玩家打工。
+若打工仔一段时间内没有选择玩家打工，打工仔会穷死。
+打工仔死亡后，打工对象不会再发生变化，仍然可以跟随打工对象获胜。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartTimerFullDesc</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -25520,9 +25531,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1674"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A391" sqref="A391:XFD391"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O255" sqref="O255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="24.95" customHeight="1"/>
@@ -37255,8 +37266,8 @@
   <dimension ref="A1:Q412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B361" sqref="B361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -39857,7 +39868,7 @@
       <c r="A372" s="2" t="s">
         <v>2483</v>
       </c>
-      <c r="O372" s="2" t="s">
+      <c r="O372" s="23" t="s">
         <v>2484</v>
       </c>
     </row>
@@ -40139,11 +40150,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Q102"/>
+  <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O49" sqref="O49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="60" customHeight="1"/>
@@ -40422,566 +40433,574 @@
     </row>
     <row r="30" spans="1:15" ht="60" customHeight="1">
       <c r="A30" s="21" t="s">
-        <v>1800</v>
+        <v>2870</v>
       </c>
       <c r="O30" s="21" t="s">
-        <v>2595</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="60" customHeight="1">
       <c r="A31" s="21" t="s">
-        <v>2678</v>
+        <v>1800</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="60" customHeight="1">
       <c r="A32" s="21" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="60" customHeight="1">
       <c r="A33" s="21" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="O33" s="21" t="s">
-        <v>1815</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="60" customHeight="1">
       <c r="A34" s="21" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="O34" s="21" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="60" customHeight="1">
       <c r="A35" s="21" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="O35" s="21" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="60" customHeight="1">
       <c r="A36" s="21" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>2598</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="60" customHeight="1">
       <c r="A37" s="21" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="O37" s="21" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="60" customHeight="1">
       <c r="A38" s="21" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="60" customHeight="1">
       <c r="A39" s="21" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="60" customHeight="1">
       <c r="A40" s="21" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="60" customHeight="1">
       <c r="A41" s="21" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="60" customHeight="1">
       <c r="A42" s="21" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="60" customHeight="1">
       <c r="A43" s="21" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="60" customHeight="1">
       <c r="A44" s="21" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="O44" s="21" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="60" customHeight="1">
       <c r="A45" s="21" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="60" customHeight="1">
       <c r="A46" s="21" t="s">
+        <v>2692</v>
+      </c>
+      <c r="O46" s="21" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="60" customHeight="1">
+      <c r="A47" s="21" t="s">
         <v>2693</v>
       </c>
-      <c r="O46" s="21" t="s">
+      <c r="O47" s="21" t="s">
         <v>2572</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="60" customHeight="1">
-      <c r="A48" s="21" t="s">
-        <v>2694</v>
-      </c>
-      <c r="O48" s="21" t="s">
-        <v>2608</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="60" customHeight="1">
       <c r="A49" s="21" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="O49" s="21" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="60" customHeight="1">
       <c r="A50" s="21" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="O50" s="21" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="60" customHeight="1">
       <c r="A51" s="21" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>2769</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="60" customHeight="1">
       <c r="A52" s="21" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="O52" s="21" t="s">
-        <v>2611</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="60" customHeight="1">
       <c r="A53" s="21" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="O53" s="21" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="60" customHeight="1">
       <c r="A54" s="21" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="O54" s="21" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="60" customHeight="1">
       <c r="A55" s="21" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="O55" s="21" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="60" customHeight="1">
       <c r="A56" s="21" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="60" customHeight="1">
       <c r="A57" s="21" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="O57" s="21" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="60" customHeight="1">
       <c r="A58" s="21" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="60" customHeight="1">
       <c r="A59" s="21" t="s">
-        <v>2705</v>
+        <v>2704</v>
+      </c>
+      <c r="O59" s="21" t="s">
+        <v>2617</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="60" customHeight="1">
       <c r="A60" s="21" t="s">
-        <v>2706</v>
-      </c>
-      <c r="O60" s="21" t="s">
-        <v>2618</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="60" customHeight="1">
       <c r="A61" s="21" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>1817</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="60" customHeight="1">
       <c r="A62" s="21" t="s">
-        <v>1769</v>
+        <v>2707</v>
       </c>
       <c r="O62" s="21" t="s">
-        <v>2619</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="60" customHeight="1">
       <c r="A63" s="21" t="s">
-        <v>2708</v>
+        <v>1769</v>
       </c>
       <c r="O63" s="21" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="60" customHeight="1">
       <c r="A64" s="21" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="O64" s="21" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="60" customHeight="1">
       <c r="A65" s="21" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="O65" s="21" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="60" customHeight="1">
       <c r="A66" s="21" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="O66" s="21" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="60" customHeight="1">
       <c r="A67" s="21" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="O67" s="21" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="60" customHeight="1">
       <c r="A68" s="21" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="O68" s="21" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="60" customHeight="1">
       <c r="A69" s="21" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="O69" s="21" t="s">
-        <v>1816</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="60" customHeight="1">
       <c r="A70" s="21" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="O70" s="21" t="s">
-        <v>2626</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="60" customHeight="1">
       <c r="A71" s="21" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="O71" s="21" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="60" customHeight="1">
       <c r="A72" s="21" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="O72" s="21" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="60" customHeight="1">
       <c r="A73" s="21" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="O73" s="21" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="60" customHeight="1">
       <c r="A74" s="21" t="s">
+        <v>2718</v>
+      </c>
+      <c r="O74" s="21" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="60" customHeight="1">
+      <c r="A75" s="21" t="s">
         <v>1955</v>
       </c>
-      <c r="O74" s="21" t="s">
+      <c r="O75" s="21" t="s">
         <v>1956</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="60" customHeight="1">
-      <c r="A76" s="21" t="s">
-        <v>2719</v>
-      </c>
-      <c r="O76" s="21" t="s">
-        <v>2571</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="60" customHeight="1">
       <c r="A77" s="21" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="O77" s="21" t="s">
-        <v>2630</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="60" customHeight="1">
       <c r="A78" s="21" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="O78" s="21" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="60" customHeight="1">
       <c r="A79" s="21" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="O79" s="21" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="60" customHeight="1">
       <c r="A80" s="21" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="O80" s="21" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="60" customHeight="1">
       <c r="A81" s="21" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="O81" s="21" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="60" customHeight="1">
       <c r="A82" s="21" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="O82" s="21" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="60" customHeight="1">
       <c r="A83" s="21" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="O83" s="21" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="60" customHeight="1">
       <c r="A84" s="21" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="O84" s="21" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="60" customHeight="1">
       <c r="A85" s="21" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="O85" s="21" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="60" customHeight="1">
       <c r="A86" s="21" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="O86" s="21" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="60" customHeight="1">
       <c r="A87" s="21" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="O87" s="21" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="60" customHeight="1">
       <c r="A88" s="21" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="O88" s="21" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="60" customHeight="1">
       <c r="A89" s="21" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="O89" s="21" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="60" customHeight="1">
       <c r="A90" s="21" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="O90" s="21" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="60" customHeight="1">
       <c r="A91" s="21" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="O91" s="21" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="60" customHeight="1">
       <c r="A92" s="21" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="O92" s="21" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="60" customHeight="1">
       <c r="A93" s="21" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="O93" s="21" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="60" customHeight="1">
       <c r="A94" s="21" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="O94" s="21" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="60" customHeight="1">
       <c r="A95" s="21" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="O95" s="21" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="60" customHeight="1">
       <c r="A96" s="21" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="O96" s="21" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="60" customHeight="1">
       <c r="A97" s="21" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="O97" s="21" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="60" customHeight="1">
       <c r="A98" s="21" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="O98" s="21" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="60" customHeight="1">
       <c r="A99" s="21" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="O99" s="21" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="60" customHeight="1">
       <c r="A100" s="21" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="O100" s="21" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="60" customHeight="1">
       <c r="A101" s="21" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="O101" s="21" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="60" customHeight="1">
       <c r="A102" s="21" t="s">
+        <v>2744</v>
+      </c>
+      <c r="O102" s="21" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="60" customHeight="1">
+      <c r="A103" s="21" t="s">
         <v>2745</v>
       </c>
-      <c r="O102" s="21" t="s">
+      <c r="O103" s="21" t="s">
         <v>2655</v>
       </c>
     </row>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733352C8-D9CA-4534-84A9-3D915ECE8171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90252311-6A99-4AC4-8C9D-FAB936235083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="570" windowWidth="25635" windowHeight="15555" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="645" windowWidth="25635" windowHeight="15555" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Role Description" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Options!$O$1:$O$1389</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Options!$O$1:$O$1390</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="2907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3250" uniqueCount="2913">
   <si>
     <t>English</t>
   </si>
@@ -24902,6 +24902,28 @@
   </si>
   <si>
     <t>隐身豺狼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CursedWeaponsTaskScoreText</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Destroyed : ({0}/{1})</t>
+  </si>
+  <si>
+    <t>破坏 : ({0}/{1})</t>
+  </si>
+  <si>
+    <t>Cursed Tasks</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableCursedTasks</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>诅咒模式</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -25674,11 +25696,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1686"/>
+  <dimension ref="A1:Q1687"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O152" sqref="O152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="24.95" customHeight="1"/>
@@ -27284,5072 +27306,5080 @@
       </c>
     </row>
     <row r="152" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A152" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="O152" s="3" t="s">
-        <v>306</v>
+      <c r="A152" s="16" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B152" s="16" t="s">
+        <v>2910</v>
+      </c>
+      <c r="O152" s="16" t="s">
+        <v>2912</v>
       </c>
     </row>
     <row r="153" spans="1:15" ht="24.95" customHeight="1">
       <c r="A153" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="O153" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="154" spans="1:15" ht="24.95" customHeight="1">
       <c r="A154" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O154" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="155" spans="1:15" ht="24.95" customHeight="1">
       <c r="A155" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="O155" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="O155" s="3" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="156" spans="1:15" ht="24.95" customHeight="1">
       <c r="A156" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="O156" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
+      </c>
+      <c r="O156" s="7" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="157" spans="1:15" ht="24.95" customHeight="1">
       <c r="A157" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O157" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="158" spans="1:15" ht="24.95" customHeight="1">
       <c r="A158" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="O158" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="159" spans="1:15" ht="24.95" customHeight="1">
       <c r="A159" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="O159" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="160" spans="1:15" ht="24.95" customHeight="1">
       <c r="A160" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="O160" s="16" t="s">
-        <v>1853</v>
+        <v>326</v>
+      </c>
+      <c r="O160" s="3" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="161" spans="1:15" ht="24.95" customHeight="1">
       <c r="A161" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="O161" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
+      </c>
+      <c r="O161" s="16" t="s">
+        <v>1853</v>
       </c>
     </row>
     <row r="162" spans="1:15" ht="24.95" customHeight="1">
       <c r="A162" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="O162" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A163" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B163" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="O162" s="3" t="s">
+      <c r="O163" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O163" s="3"/>
-    </row>
     <row r="164" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A164" s="3" t="s">
+      <c r="O164" s="3"/>
+    </row>
+    <row r="165" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A165" s="3" t="s">
         <v>1896</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B165" s="3" t="s">
         <v>1897</v>
       </c>
-      <c r="O164" s="16" t="s">
+      <c r="O165" s="16" t="s">
         <v>1898</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A165" s="16" t="s">
+    <row r="166" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A166" s="16" t="s">
         <v>2885</v>
       </c>
-      <c r="B165" s="16" t="s">
+      <c r="B166" s="16" t="s">
         <v>2884</v>
       </c>
-      <c r="O165" s="16" t="s">
+      <c r="O166" s="16" t="s">
         <v>2886</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O166" s="3"/>
-    </row>
     <row r="167" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A167" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>1816</v>
-      </c>
-      <c r="O167" s="3" t="s">
-        <v>337</v>
-      </c>
+      <c r="O167" s="3"/>
     </row>
     <row r="168" spans="1:15" ht="24.95" customHeight="1">
       <c r="A168" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="O168" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="169" spans="1:15" ht="24.95" customHeight="1">
       <c r="A169" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="O169" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="170" spans="1:15" ht="24.95" customHeight="1">
       <c r="A170" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="O170" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="171" spans="1:15" ht="24.95" customHeight="1">
       <c r="A171" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="O171" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A172" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B172" s="3" t="s">
         <v>1820</v>
       </c>
-      <c r="O171" s="16" t="s">
+      <c r="O172" s="16" t="s">
         <v>1918</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A172" s="16" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B172" s="16" t="s">
-        <v>1822</v>
-      </c>
-      <c r="O172" s="16" t="s">
-        <v>1708</v>
       </c>
     </row>
     <row r="173" spans="1:15" ht="24.95" customHeight="1">
       <c r="A173" s="16" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B173" s="16" t="s">
+        <v>1822</v>
+      </c>
+      <c r="O173" s="16" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A174" s="16" t="s">
         <v>2549</v>
       </c>
-      <c r="B173" s="16" t="s">
+      <c r="B174" s="16" t="s">
         <v>2551</v>
       </c>
-      <c r="O173" s="16" t="s">
+      <c r="O174" s="16" t="s">
         <v>2550</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A174" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>1821</v>
-      </c>
-      <c r="O174" s="3" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="175" spans="1:15" ht="24.95" customHeight="1">
       <c r="A175" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="O175" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="176" spans="1:15" ht="24.95" customHeight="1">
       <c r="A176" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="B176" s="16" t="s">
-        <v>1823</v>
+        <v>347</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>1827</v>
       </c>
       <c r="O176" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="177" spans="1:15" ht="24.95" customHeight="1">
       <c r="A177" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>1824</v>
+        <v>349</v>
+      </c>
+      <c r="B177" s="16" t="s">
+        <v>1823</v>
       </c>
       <c r="O177" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="178" spans="1:15" ht="24.95" customHeight="1">
       <c r="A178" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>533</v>
+        <v>1824</v>
       </c>
       <c r="O178" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="179" spans="1:15" ht="24.95" customHeight="1">
       <c r="A179" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>1825</v>
+        <v>533</v>
       </c>
       <c r="O179" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="180" spans="1:15" ht="24.95" customHeight="1">
       <c r="A180" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>1825</v>
+      </c>
+      <c r="O180" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A181" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B181" s="3" t="s">
         <v>1826</v>
       </c>
-      <c r="O180" s="3" t="s">
+      <c r="O181" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O181" s="3"/>
-    </row>
     <row r="182" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A182" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B182" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="O182" s="3" t="s">
-        <v>361</v>
-      </c>
+      <c r="O182" s="3"/>
     </row>
     <row r="183" spans="1:15" ht="24.95" customHeight="1">
       <c r="A183" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="O183" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="184" spans="1:15" ht="24.95" customHeight="1">
       <c r="A184" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="O184" s="3" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="185" spans="1:15" ht="24.95" customHeight="1">
       <c r="A185" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="O185" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="186" spans="1:15" ht="24.95" customHeight="1">
       <c r="A186" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="O186" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="187" spans="1:15" ht="24.95" customHeight="1">
       <c r="A187" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="O187" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="188" spans="1:15" ht="24.95" customHeight="1">
       <c r="A188" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O188" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="189" spans="1:15" ht="24.95" customHeight="1">
       <c r="A189" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="O189" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="190" spans="1:15" ht="24.95" customHeight="1">
       <c r="A190" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="O190" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="191" spans="1:15" ht="24.95" customHeight="1">
       <c r="A191" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O191" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="192" spans="1:15" ht="24.95" customHeight="1">
       <c r="A192" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="O192" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="193" spans="1:15" ht="24.95" customHeight="1">
       <c r="A193" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="O193" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="194" spans="1:15" ht="24.95" customHeight="1">
       <c r="A194" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>393</v>
       </c>
       <c r="O194" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="195" spans="1:15" ht="24.95" customHeight="1">
       <c r="A195" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="O195" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A196" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B196" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="O195" s="3" t="s">
+      <c r="O196" s="3" t="s">
         <v>400</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A197" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="B197" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="O197" s="3" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="198" spans="1:15" ht="24.95" customHeight="1">
       <c r="A198" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="O198" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="199" spans="1:15" ht="24.95" customHeight="1">
       <c r="A199" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="O199" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="200" spans="1:15" ht="24.95" customHeight="1">
       <c r="A200" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="O200" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="201" spans="1:15" ht="24.95" customHeight="1">
       <c r="A201" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="O201" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="202" spans="1:15" ht="24.95" customHeight="1">
       <c r="A202" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="O202" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="203" spans="1:15" ht="24.95" customHeight="1">
       <c r="A203" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O203" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="204" spans="1:15" ht="24.95" customHeight="1">
       <c r="A204" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="O204" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="205" spans="1:15" ht="24.95" customHeight="1">
       <c r="A205" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="O205" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="206" spans="1:15" ht="24.95" customHeight="1">
       <c r="A206" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="O206" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="207" spans="1:15" ht="24.95" customHeight="1">
       <c r="A207" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="O207" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A208" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="B207" s="10" t="s">
+      <c r="B208" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="O207" s="3" t="s">
+      <c r="O208" s="3" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O208" s="3"/>
-    </row>
     <row r="209" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A209" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="B209" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="O209" s="3" t="s">
-        <v>436</v>
-      </c>
+      <c r="O209" s="3"/>
     </row>
     <row r="210" spans="1:15" ht="24.95" customHeight="1">
       <c r="A210" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="O210" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="211" spans="1:15" ht="24.95" customHeight="1">
       <c r="A211" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="O211" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="212" spans="1:15" ht="24.95" customHeight="1">
       <c r="A212" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="O212" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A213" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B212" s="10" t="s">
+      <c r="B213" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="O212" s="3" t="s">
+      <c r="O213" s="3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B213" s="10"/>
-      <c r="O213" s="3"/>
-    </row>
     <row r="214" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A214" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="O214" s="3" t="s">
-        <v>385</v>
-      </c>
+      <c r="B214" s="10"/>
+      <c r="O214" s="3"/>
     </row>
     <row r="215" spans="1:15" ht="24.95" customHeight="1">
       <c r="A215" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="B215" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="O215" s="3" t="s">
-        <v>449</v>
+        <v>385</v>
       </c>
     </row>
     <row r="216" spans="1:15" ht="24.95" customHeight="1">
       <c r="A216" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O216" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="217" spans="1:15" ht="24.95" customHeight="1">
       <c r="A217" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>369</v>
+        <v>451</v>
       </c>
       <c r="O217" s="3" t="s">
-        <v>370</v>
+        <v>452</v>
       </c>
     </row>
     <row r="218" spans="1:15" ht="24.95" customHeight="1">
       <c r="A218" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>455</v>
+        <v>369</v>
       </c>
       <c r="O218" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="219" spans="1:15" ht="24.95" customHeight="1">
       <c r="A219" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>396</v>
+        <v>454</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>455</v>
       </c>
       <c r="O219" s="3" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
     </row>
     <row r="220" spans="1:15" ht="24.95" customHeight="1">
       <c r="A220" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="O220" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A221" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B221" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="O220" s="3" t="s">
+      <c r="O221" s="3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O221" s="3"/>
-    </row>
     <row r="222" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A222" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="O222" s="3" t="s">
-        <v>461</v>
-      </c>
+      <c r="O222" s="3"/>
     </row>
     <row r="223" spans="1:15" ht="24.95" customHeight="1">
       <c r="A223" s="3" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="O223" s="3" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="224" spans="1:15" ht="24.95" customHeight="1">
       <c r="A224" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="O224" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A225" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B225" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="O224" s="3" t="s">
+      <c r="O225" s="3" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O225" s="3"/>
-    </row>
     <row r="226" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A226" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="B226" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="O226" s="3" t="s">
-        <v>364</v>
-      </c>
+      <c r="O226" s="3"/>
     </row>
     <row r="227" spans="1:15" ht="24.95" customHeight="1">
       <c r="A227" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>464</v>
+        <v>366</v>
       </c>
       <c r="O227" s="3" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
     </row>
     <row r="228" spans="1:15" ht="24.95" customHeight="1">
       <c r="A228" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="O228" s="3" t="s">
-        <v>467</v>
+        <v>403</v>
       </c>
     </row>
     <row r="229" spans="1:15" ht="24.95" customHeight="1">
       <c r="A229" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B229" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="O229" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A230" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B229" s="10" t="s">
+      <c r="B230" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="O229" s="3" t="s">
+      <c r="O230" s="3" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O230" s="3"/>
-    </row>
     <row r="231" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A231" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="B231" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="O231" s="3" t="s">
-        <v>473</v>
-      </c>
+      <c r="O231" s="3"/>
     </row>
     <row r="232" spans="1:15" ht="24.95" customHeight="1">
       <c r="A232" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="O232" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="233" spans="1:15" ht="24.95" customHeight="1">
       <c r="A233" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O233" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="234" spans="1:15" ht="24.95" customHeight="1">
       <c r="A234" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>417</v>
+        <v>478</v>
       </c>
       <c r="O234" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="235" spans="1:15" ht="24.95" customHeight="1">
       <c r="A235" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B235" s="10" t="s">
         <v>417</v>
       </c>
       <c r="O235" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="236" spans="1:15" ht="24.95" customHeight="1">
       <c r="A236" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="O236" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A237" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B236" s="10" t="s">
+      <c r="B237" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="O236" s="3" t="s">
+      <c r="O237" s="3" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O237" s="3"/>
-    </row>
     <row r="238" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A238" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="B238" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="O238" s="3" t="s">
-        <v>489</v>
-      </c>
+      <c r="O238" s="3"/>
     </row>
     <row r="239" spans="1:15" ht="24.95" customHeight="1">
       <c r="A239" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="O239" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="240" spans="1:15" ht="24.95" customHeight="1">
       <c r="A240" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="O240" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="241" spans="1:15" ht="24.95" customHeight="1">
       <c r="A241" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="O241" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="242" spans="1:15" ht="24.95" customHeight="1">
       <c r="A242" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="O242" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="243" spans="1:15" ht="24.95" customHeight="1">
       <c r="A243" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O243" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="244" spans="1:15" ht="24.95" customHeight="1">
       <c r="A244" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="O244" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="245" spans="1:15" ht="24.95" customHeight="1">
       <c r="A245" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="O245" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A246" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="B245" s="10" t="s">
+      <c r="B246" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="O245" s="3" t="s">
+      <c r="O246" s="3" t="s">
         <v>510</v>
-      </c>
-    </row>
-    <row r="247" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A247" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="O247" s="3" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="248" spans="1:15" ht="24.95" customHeight="1">
       <c r="A248" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="O248" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="249" spans="1:15" ht="24.95" customHeight="1">
       <c r="A249" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="O249" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="250" spans="1:15" ht="24.95" customHeight="1">
       <c r="A250" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="O250" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="251" spans="1:15" ht="24.95" customHeight="1">
       <c r="A251" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="O251" s="11" t="s">
-        <v>525</v>
+        <v>521</v>
+      </c>
+      <c r="O251" s="3" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="252" spans="1:15" ht="24.95" customHeight="1">
       <c r="A252" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="O252" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
+      </c>
+      <c r="O252" s="11" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="253" spans="1:15" ht="24.95" customHeight="1">
       <c r="A253" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="O253" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="254" spans="1:15" ht="24.95" customHeight="1">
       <c r="A254" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="O254" s="11" t="s">
-        <v>534</v>
+        <v>530</v>
+      </c>
+      <c r="O254" s="3" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="255" spans="1:15" ht="24.95" customHeight="1">
       <c r="A255" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="O255" s="11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A256" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B256" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="O255" s="11" t="s">
+      <c r="O256" s="11" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="256" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O256" s="11"/>
-    </row>
     <row r="257" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A257" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="B257" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="O257" s="11" t="s">
-        <v>540</v>
-      </c>
+      <c r="O257" s="11"/>
     </row>
     <row r="258" spans="1:15" ht="24.95" customHeight="1">
       <c r="A258" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B258" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="O258" s="11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A259" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="B258" s="10" t="s">
+      <c r="B259" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="O258" s="11" t="s">
+      <c r="O259" s="11" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="259" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O259" s="3"/>
-    </row>
     <row r="260" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A260" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="B260" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="O260" s="3" t="s">
-        <v>546</v>
-      </c>
+      <c r="O260" s="3"/>
     </row>
     <row r="261" spans="1:15" ht="24.95" customHeight="1">
       <c r="A261" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="O261" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="262" spans="1:15" ht="24.95" customHeight="1">
       <c r="A262" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B262" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="O262" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A263" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="B262" s="10" t="s">
+      <c r="B263" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="O262" s="3" t="s">
+      <c r="O263" s="3" t="s">
         <v>552</v>
-      </c>
-    </row>
-    <row r="263" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A263" s="16" t="s">
-        <v>2821</v>
-      </c>
-      <c r="B263" s="16" t="s">
-        <v>2829</v>
-      </c>
-      <c r="O263" s="16" t="s">
-        <v>2822</v>
       </c>
     </row>
     <row r="264" spans="1:15" ht="24.95" customHeight="1">
       <c r="A264" s="16" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B264" s="16" t="s">
+        <v>2829</v>
+      </c>
+      <c r="O264" s="16" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A265" s="16" t="s">
         <v>2824</v>
       </c>
-      <c r="B264" s="16" t="s">
+      <c r="B265" s="16" t="s">
         <v>2830</v>
       </c>
-      <c r="O264" s="16" t="s">
+      <c r="O265" s="16" t="s">
         <v>2825</v>
       </c>
     </row>
-    <row r="265" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A265" s="3" t="s">
+    <row r="266" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A266" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="B265" s="10" t="s">
+      <c r="B266" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="O265" s="3" t="s">
+      <c r="O266" s="3" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="266" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O266" s="3"/>
-    </row>
     <row r="267" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A267" s="3" t="s">
+      <c r="O267" s="3"/>
+    </row>
+    <row r="268" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A268" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="B267" s="10" t="s">
+      <c r="B268" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="O267" s="3" t="s">
+      <c r="O268" s="3" t="s">
         <v>558</v>
-      </c>
-    </row>
-    <row r="268" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A268" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="B268" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="O268" s="3" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="269" spans="1:15" ht="24.95" customHeight="1">
       <c r="A269" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="B269" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="O269" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A270" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="B269" s="10" t="s">
+      <c r="B270" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="O269" s="3" t="s">
+      <c r="O270" s="3" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="270" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O270" s="3"/>
-    </row>
     <row r="271" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A271" s="10" t="s">
+      <c r="O271" s="3"/>
+    </row>
+    <row r="272" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A272" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B272" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="O271" s="3" t="s">
+      <c r="O272" s="3" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="272" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A272" s="3" t="s">
+    <row r="273" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A273" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="B272" s="10" t="s">
+      <c r="B273" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="O272" s="3" t="s">
+      <c r="O273" s="3" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="273" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O273" s="3"/>
-    </row>
     <row r="274" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A274" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="O274" s="3" t="s">
-        <v>573</v>
-      </c>
+      <c r="O274" s="3"/>
     </row>
     <row r="275" spans="1:15" ht="24.95" customHeight="1">
       <c r="A275" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="B275" s="10" t="s">
-        <v>575</v>
+        <v>571</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>572</v>
       </c>
       <c r="O275" s="3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="276" spans="1:15" ht="24.95" customHeight="1">
       <c r="A276" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="O276" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="277" spans="1:15" ht="24.95" customHeight="1">
       <c r="A277" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="O277" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A278" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="B277" s="10" t="s">
+      <c r="B278" s="10" t="s">
         <v>581</v>
       </c>
-      <c r="O277" s="3" t="s">
+      <c r="O278" s="3" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="278" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O278" s="3"/>
-    </row>
     <row r="279" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A279" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="O279" s="3" t="s">
-        <v>585</v>
-      </c>
+      <c r="O279" s="3"/>
     </row>
     <row r="280" spans="1:15" ht="24.95" customHeight="1">
       <c r="A280" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="O280" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A281" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="B280" s="10" t="s">
+      <c r="B281" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="O280" s="3" t="s">
+      <c r="O281" s="3" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="281" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A281" s="10" t="s">
+    <row r="282" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A282" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="B281" s="10" t="s">
+      <c r="B282" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="O281" s="10" t="s">
+      <c r="O282" s="10" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="282" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O282" s="3"/>
-    </row>
     <row r="283" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A283" s="10" t="s">
+      <c r="O283" s="3"/>
+    </row>
+    <row r="284" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A284" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="B283" s="10" t="s">
+      <c r="B284" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="O283" s="10" t="s">
+      <c r="O284" s="10" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="284" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A284" s="10"/>
-      <c r="B284" s="10"/>
-      <c r="O284" s="10"/>
-    </row>
     <row r="285" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A285" s="16" t="s">
-        <v>1909</v>
-      </c>
-      <c r="B285" s="16" t="s">
-        <v>1916</v>
-      </c>
-      <c r="O285" s="16" t="s">
-        <v>1915</v>
-      </c>
+      <c r="A285" s="10"/>
+      <c r="B285" s="10"/>
+      <c r="O285" s="10"/>
     </row>
     <row r="286" spans="1:15" ht="24.95" customHeight="1">
       <c r="A286" s="16" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="B286" s="16" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="O286" s="16" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="287" spans="1:15" ht="24.95" customHeight="1">
       <c r="A287" s="16" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B287" s="16" t="s">
+        <v>1917</v>
+      </c>
+      <c r="O287" s="16" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A288" s="16" t="s">
         <v>1910</v>
       </c>
-      <c r="B287" s="16" t="s">
+      <c r="B288" s="16" t="s">
         <v>1911</v>
       </c>
-      <c r="O287" s="16" t="s">
+      <c r="O288" s="16" t="s">
         <v>1912</v>
       </c>
     </row>
-    <row r="288" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A288" s="10"/>
-      <c r="B288" s="10"/>
-      <c r="O288" s="10"/>
-    </row>
     <row r="289" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A289" s="10" t="s">
+      <c r="A289" s="10"/>
+      <c r="B289" s="10"/>
+      <c r="O289" s="10"/>
+    </row>
+    <row r="290" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A290" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="B289" s="10" t="s">
+      <c r="B290" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="O289" s="3" t="s">
+      <c r="O290" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="290" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A290" s="3" t="s">
+    <row r="291" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A291" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="B290" s="10" t="s">
+      <c r="B291" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="O290" s="10" t="s">
+      <c r="O291" s="10" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="291" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A291" s="10" t="s">
+    <row r="292" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A292" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="B291" s="10" t="s">
+      <c r="B292" s="10" t="s">
         <v>602</v>
       </c>
-      <c r="O291" s="11" t="s">
+      <c r="O292" s="11" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="293" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A293" s="3" t="s">
+    <row r="294" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A294" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="B293" s="10" t="s">
+      <c r="B294" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="O293" s="11" t="s">
+      <c r="O294" s="11" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="294" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A294" s="10" t="s">
+    <row r="295" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A295" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B295" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="O294" s="7" t="s">
+      <c r="O295" s="7" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="295" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A295" s="3" t="s">
+    <row r="296" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A296" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="B295" s="3" t="s">
+      <c r="B296" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="O295" s="11" t="s">
+      <c r="O296" s="11" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="296" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O296" s="3"/>
-    </row>
     <row r="297" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A297" s="3" t="s">
+      <c r="O297" s="3"/>
+    </row>
+    <row r="298" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A298" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B298" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="O297" s="7" t="s">
+      <c r="O298" s="7" t="s">
         <v>616</v>
-      </c>
-    </row>
-    <row r="299" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A299" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="B299" s="10" t="s">
-        <v>618</v>
-      </c>
-      <c r="O299" s="7" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="300" spans="1:15" ht="24.95" customHeight="1">
       <c r="A300" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B300" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="O300" s="7" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A301" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B301" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="O300" s="7" t="s">
+      <c r="O301" s="7" t="s">
         <v>622</v>
-      </c>
-    </row>
-    <row r="302" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A302" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="B302" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="O302" s="7" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="303" spans="1:15" ht="24.95" customHeight="1">
       <c r="A303" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="O303" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="304" spans="1:15" ht="24.95" customHeight="1">
       <c r="A304" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="O304" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="305" spans="1:15" ht="24.95" customHeight="1">
       <c r="A305" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="O305" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="306" spans="1:15" ht="24.95" customHeight="1">
       <c r="A306" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="O306" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A307" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B307" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="O306" s="7" t="s">
+      <c r="O307" s="7" t="s">
         <v>637</v>
-      </c>
-    </row>
-    <row r="308" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A308" s="10" t="s">
-        <v>638</v>
-      </c>
-      <c r="B308" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="O308" s="12" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="309" spans="1:15" ht="24.95" customHeight="1">
       <c r="A309" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="O309" s="12" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A310" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="B309" s="3" t="s">
+      <c r="B310" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="O309" s="12" t="s">
+      <c r="O310" s="12" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="310" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A310" s="3" t="s">
+    <row r="311" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A311" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="B310" s="3" t="s">
+      <c r="B311" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="O310" s="13" t="s">
+      <c r="O311" s="13" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="311" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A311" s="10" t="s">
+    <row r="312" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A312" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="B312" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="O311" s="10" t="s">
+      <c r="O312" s="10" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="312" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A312" s="16" t="s">
+    <row r="313" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A313" s="16" t="s">
         <v>2820</v>
       </c>
-      <c r="B312" s="16" t="s">
+      <c r="B313" s="16" t="s">
         <v>2829</v>
       </c>
-      <c r="O312" s="16" t="s">
+      <c r="O313" s="16" t="s">
         <v>2823</v>
       </c>
     </row>
-    <row r="313" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A313" s="3" t="s">
+    <row r="314" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A314" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="B313" s="3" t="s">
+      <c r="B314" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="O313" s="10" t="s">
+      <c r="O314" s="10" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="314" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B314" s="7"/>
-      <c r="M314" s="7"/>
-    </row>
     <row r="315" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A315" s="3" t="s">
+      <c r="B315" s="7"/>
+      <c r="M315" s="7"/>
+    </row>
+    <row r="316" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A316" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="B315" s="3" t="s">
+      <c r="B316" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="O315" s="3" t="s">
+      <c r="O316" s="3" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="316" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A316" s="10" t="s">
+    <row r="317" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A317" s="10" t="s">
         <v>656</v>
       </c>
-      <c r="B316" s="7" t="s">
+      <c r="B317" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="M316" s="7"/>
-      <c r="O316" s="12" t="s">
+      <c r="M317" s="7"/>
+      <c r="O317" s="12" t="s">
         <v>658</v>
-      </c>
-    </row>
-    <row r="317" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A317" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="B317" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="O317" s="10" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="318" spans="1:15" ht="24.95" customHeight="1">
       <c r="A318" s="3" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="O318" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="319" spans="1:15" ht="24.95" customHeight="1">
       <c r="A319" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="O319" s="10" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A320" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="B320" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="O319" s="10" t="s">
+      <c r="O320" s="10" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="320" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O320" s="3"/>
-    </row>
     <row r="321" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A321" s="10" t="s">
+      <c r="O321" s="3"/>
+    </row>
+    <row r="322" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A322" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="B321" s="3" t="s">
+      <c r="B322" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="O321" s="10" t="s">
+      <c r="O322" s="10" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="322" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O322" s="3"/>
-    </row>
     <row r="323" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A323" s="10" t="s">
+      <c r="O323" s="3"/>
+    </row>
+    <row r="324" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A324" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B324" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="O323" s="10" t="s">
+      <c r="O324" s="10" t="s">
         <v>673</v>
-      </c>
-    </row>
-    <row r="324" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A324" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="B324" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="O324" s="3" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="325" spans="1:15" ht="24.95" customHeight="1">
       <c r="A325" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="O325" s="12" t="s">
-        <v>679</v>
+        <v>675</v>
+      </c>
+      <c r="O325" s="3" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="326" spans="1:15" ht="24.95" customHeight="1">
       <c r="A326" s="3" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="O326" s="10" t="s">
-        <v>682</v>
+        <v>678</v>
+      </c>
+      <c r="O326" s="12" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="327" spans="1:15" ht="24.95" customHeight="1">
       <c r="A327" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="O327" s="10" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="328" spans="1:15" ht="24.95" customHeight="1">
       <c r="A328" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="O328" s="10" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A329" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="B328" s="3" t="s">
+      <c r="B329" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="O328" s="3" t="s">
+      <c r="O329" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="329" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O329" s="3"/>
-    </row>
     <row r="330" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A330" s="10" t="s">
+      <c r="O330" s="3"/>
+    </row>
+    <row r="331" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A331" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="B330" s="3" t="s">
+      <c r="B331" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="O330" s="10" t="s">
+      <c r="O331" s="10" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="331" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A331" s="10"/>
-      <c r="O331" s="10"/>
-    </row>
     <row r="332" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A332" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="B332" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="O332" s="10" t="s">
-        <v>655</v>
-      </c>
+      <c r="A332" s="10"/>
+      <c r="O332" s="10"/>
     </row>
     <row r="333" spans="1:15" ht="24.95" customHeight="1">
       <c r="A333" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="O333" s="10" t="s">
-        <v>695</v>
+        <v>655</v>
       </c>
     </row>
     <row r="334" spans="1:15" ht="24.95" customHeight="1">
       <c r="A334" s="10" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="O334" s="10" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="335" spans="1:15" ht="24.95" customHeight="1">
       <c r="A335" s="10" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="O335" s="10" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="336" spans="1:15" ht="24.95" customHeight="1">
       <c r="A336" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="B336" s="3" t="s">
-        <v>703</v>
+        <v>699</v>
+      </c>
+      <c r="B336" s="10" t="s">
+        <v>700</v>
       </c>
       <c r="O336" s="10" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="337" spans="1:15" ht="24.95" customHeight="1">
       <c r="A337" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="O337" s="10" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A338" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="B337" s="10" t="s">
+      <c r="B338" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="O337" s="10" t="s">
+      <c r="O338" s="10" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="338" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A338" s="10"/>
-      <c r="B338" s="10"/>
-      <c r="O338" s="10"/>
-    </row>
     <row r="339" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A339" s="10" t="s">
-        <v>708</v>
-      </c>
-      <c r="B339" s="10" t="s">
-        <v>1828</v>
-      </c>
-      <c r="O339" s="10" t="s">
-        <v>709</v>
-      </c>
+      <c r="A339" s="10"/>
+      <c r="B339" s="10"/>
+      <c r="O339" s="10"/>
     </row>
     <row r="340" spans="1:15" ht="24.95" customHeight="1">
       <c r="A340" s="10" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="O340" s="10" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="341" spans="1:15" ht="24.95" customHeight="1">
       <c r="A341" s="10" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B341" s="10" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="O341" s="10" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="342" spans="1:15" ht="24.95" customHeight="1">
       <c r="A342" s="10" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B342" s="10" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="O342" s="10" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="343" spans="1:15" ht="24.95" customHeight="1">
       <c r="A343" s="10" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B343" s="10" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="O343" s="10" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="344" spans="1:15" ht="24.95" customHeight="1">
       <c r="A344" s="10" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="O344" s="10" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="345" spans="1:15" ht="24.95" customHeight="1">
       <c r="A345" s="10" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="O345" s="10" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="346" spans="1:15" ht="24.95" customHeight="1">
       <c r="A346" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="B346" s="10" t="s">
+        <v>1834</v>
+      </c>
+      <c r="O346" s="10" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A347" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="B346" s="10" t="s">
+      <c r="B347" s="10" t="s">
         <v>1835</v>
       </c>
-      <c r="O346" s="10" t="s">
+      <c r="O347" s="10" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="347" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A347" s="10"/>
-      <c r="B347" s="10"/>
-    </row>
     <row r="348" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A348" s="10" t="s">
-        <v>2540</v>
-      </c>
-      <c r="B348" s="16" t="s">
-        <v>2547</v>
-      </c>
-      <c r="O348" s="7" t="s">
-        <v>2545</v>
-      </c>
+      <c r="A348" s="10"/>
+      <c r="B348" s="10"/>
     </row>
     <row r="349" spans="1:15" ht="24.95" customHeight="1">
       <c r="A349" s="10" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="B349" s="16" t="s">
-        <v>2548</v>
-      </c>
-      <c r="O349" s="16" t="s">
-        <v>2544</v>
+        <v>2547</v>
+      </c>
+      <c r="O349" s="7" t="s">
+        <v>2545</v>
       </c>
     </row>
     <row r="350" spans="1:15" ht="24.95" customHeight="1">
       <c r="A350" s="10" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B350" s="16" t="s">
+        <v>2548</v>
+      </c>
+      <c r="O350" s="16" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A351" s="10" t="s">
         <v>2542</v>
       </c>
-      <c r="B350" s="10" t="s">
+      <c r="B351" s="10" t="s">
         <v>2546</v>
       </c>
-      <c r="O350" s="16" t="s">
+      <c r="O351" s="16" t="s">
         <v>2543</v>
       </c>
     </row>
-    <row r="351" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A351" s="10"/>
-      <c r="B351" s="10"/>
-      <c r="O351" s="10"/>
-    </row>
     <row r="352" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A352" s="16" t="s">
+      <c r="A352" s="10"/>
+      <c r="B352" s="10"/>
+      <c r="O352" s="10"/>
+    </row>
+    <row r="353" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A353" s="16" t="s">
         <v>2533</v>
       </c>
-      <c r="B352" s="16" t="s">
+      <c r="B353" s="16" t="s">
         <v>2532</v>
       </c>
-      <c r="O352" s="3" t="s">
+      <c r="O353" s="3" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="353" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B353" s="10"/>
-      <c r="O353" s="3"/>
-    </row>
     <row r="354" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A354" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="B354" s="10" t="s">
-        <v>725</v>
-      </c>
-      <c r="O354" s="3" t="s">
-        <v>726</v>
-      </c>
+      <c r="B354" s="10"/>
+      <c r="O354" s="3"/>
     </row>
     <row r="355" spans="1:15" ht="24.95" customHeight="1">
       <c r="A355" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="O355" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="356" spans="1:15" ht="24.95" customHeight="1">
       <c r="A356" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="B356" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="O356" s="3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A357" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="B356" s="10" t="s">
+      <c r="B357" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="O356" s="16" t="s">
+      <c r="O357" s="16" t="s">
         <v>1854</v>
       </c>
     </row>
-    <row r="357" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O357" s="3"/>
-    </row>
     <row r="358" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A358" s="16" t="s">
-        <v>1760</v>
-      </c>
-      <c r="O358" s="16" t="s">
-        <v>1767</v>
-      </c>
+      <c r="O358" s="3"/>
     </row>
     <row r="359" spans="1:15" ht="24.95" customHeight="1">
       <c r="A359" s="16" t="s">
+        <v>1760</v>
+      </c>
+      <c r="O359" s="16" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A360" s="16" t="s">
         <v>1761</v>
       </c>
-      <c r="B359" s="16" t="s">
+      <c r="B360" s="16" t="s">
         <v>1734</v>
       </c>
-      <c r="O359" s="16" t="s">
+      <c r="O360" s="16" t="s">
         <v>1768</v>
-      </c>
-    </row>
-    <row r="360" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A360" s="3" t="s">
-        <v>1762</v>
-      </c>
-      <c r="B360" s="16" t="s">
-        <v>1730</v>
-      </c>
-      <c r="O360" s="16" t="s">
-        <v>1772</v>
       </c>
     </row>
     <row r="361" spans="1:15" ht="24.95" customHeight="1">
       <c r="A361" s="3" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B361" s="16" t="s">
+        <v>1730</v>
+      </c>
+      <c r="O361" s="16" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A362" s="3" t="s">
         <v>1763</v>
       </c>
-      <c r="B361" s="16" t="s">
+      <c r="B362" s="16" t="s">
         <v>1731</v>
       </c>
-      <c r="O361" s="16" t="s">
+      <c r="O362" s="16" t="s">
         <v>1736</v>
       </c>
     </row>
-    <row r="362" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A362" s="16" t="s">
+    <row r="363" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A363" s="16" t="s">
         <v>1773</v>
       </c>
-      <c r="B362" s="16" t="s">
+      <c r="B363" s="16" t="s">
         <v>1740</v>
       </c>
-      <c r="O362" s="16" t="s">
+      <c r="O363" s="16" t="s">
         <v>1774</v>
-      </c>
-    </row>
-    <row r="363" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A363" s="3" t="s">
-        <v>1764</v>
-      </c>
-      <c r="O363" s="16" t="s">
-        <v>1769</v>
       </c>
     </row>
     <row r="364" spans="1:15" ht="24.95" customHeight="1">
       <c r="A364" s="3" t="s">
-        <v>1765</v>
-      </c>
-      <c r="B364" s="16" t="s">
-        <v>1735</v>
+        <v>1764</v>
       </c>
       <c r="O364" s="16" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="365" spans="1:15" ht="24.95" customHeight="1">
       <c r="A365" s="3" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B365" s="16" t="s">
+        <v>1735</v>
+      </c>
+      <c r="O365" s="16" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A366" s="3" t="s">
         <v>1766</v>
       </c>
-      <c r="B365" s="16" t="s">
+      <c r="B366" s="16" t="s">
         <v>1733</v>
       </c>
-      <c r="O365" s="16" t="s">
+      <c r="O366" s="16" t="s">
         <v>1770</v>
       </c>
     </row>
-    <row r="366" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O366" s="3"/>
-    </row>
     <row r="367" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A367" s="3" t="s">
+      <c r="O367" s="3"/>
+    </row>
+    <row r="368" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A368" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="B367" s="3" t="s">
+      <c r="B368" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="O367" s="3" t="s">
+      <c r="O368" s="3" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="368" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A368" s="10" t="s">
+    <row r="369" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A369" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="B368" s="3" t="s">
+      <c r="B369" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="O368" s="3" t="s">
+      <c r="O369" s="3" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="369" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O369" s="3"/>
-    </row>
     <row r="370" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A370" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="B370" s="16" t="s">
-        <v>2741</v>
-      </c>
-      <c r="O370" s="3" t="s">
-        <v>739</v>
-      </c>
+      <c r="O370" s="3"/>
     </row>
     <row r="371" spans="1:15" ht="24.95" customHeight="1">
       <c r="A371" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B371" s="16" t="s">
+        <v>2741</v>
+      </c>
+      <c r="O371" s="3" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A372" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="B371" s="16" t="s">
+      <c r="B372" s="16" t="s">
         <v>2742</v>
       </c>
-      <c r="O371" s="3" t="s">
+      <c r="O372" s="3" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="372" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O372" s="3"/>
-    </row>
     <row r="373" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A373" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="B373" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="O373" s="3" t="s">
-        <v>744</v>
-      </c>
+      <c r="O373" s="3"/>
     </row>
     <row r="374" spans="1:15" ht="24.95" customHeight="1">
       <c r="A374" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="B374" s="10" t="s">
-        <v>746</v>
+        <v>742</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>743</v>
       </c>
       <c r="O374" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="375" spans="1:15" ht="24.95" customHeight="1">
       <c r="A375" s="3" t="s">
-        <v>1670</v>
+        <v>745</v>
       </c>
       <c r="B375" s="10" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="O375" s="3" t="s">
-        <v>495</v>
+        <v>747</v>
       </c>
     </row>
     <row r="376" spans="1:15" ht="24.95" customHeight="1">
       <c r="A376" s="3" t="s">
-        <v>1671</v>
-      </c>
-      <c r="B376" s="3" t="s">
-        <v>749</v>
+        <v>1670</v>
+      </c>
+      <c r="B376" s="10" t="s">
+        <v>748</v>
       </c>
       <c r="O376" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="377" spans="1:15" ht="24.95" customHeight="1">
       <c r="A377" s="3" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="O377" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A378" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="B377" s="3" t="s">
+      <c r="B378" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="O377" s="3" t="s">
+      <c r="O378" s="3" t="s">
         <v>752</v>
-      </c>
-    </row>
-    <row r="378" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A378" s="10" t="s">
-        <v>753</v>
-      </c>
-      <c r="B378" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="O378" s="3" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="379" spans="1:15" ht="24.95" customHeight="1">
       <c r="A379" s="10" t="s">
-        <v>756</v>
-      </c>
-      <c r="B379" s="16" t="s">
-        <v>1713</v>
-      </c>
-      <c r="O379" s="16" t="s">
-        <v>1855</v>
+        <v>753</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="O379" s="3" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="380" spans="1:15" ht="24.95" customHeight="1">
       <c r="A380" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="B380" s="16" t="s">
+        <v>1713</v>
+      </c>
+      <c r="O380" s="16" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A381" s="10" t="s">
         <v>757</v>
       </c>
-      <c r="B380" s="3" t="s">
+      <c r="B381" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="O380" s="3" t="s">
+      <c r="O381" s="3" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="381" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A381" s="3" t="s">
+    <row r="382" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A382" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="B381" s="3" t="s">
+      <c r="B382" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="O381" s="3" t="s">
+      <c r="O382" s="3" t="s">
         <v>762</v>
-      </c>
-    </row>
-    <row r="382" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A382" s="16" t="s">
-        <v>2737</v>
-      </c>
-      <c r="B382" s="16" t="s">
-        <v>2738</v>
-      </c>
-      <c r="O382" s="16" t="s">
-        <v>2739</v>
       </c>
     </row>
     <row r="383" spans="1:15" ht="24.95" customHeight="1">
       <c r="A383" s="16" t="s">
+        <v>2737</v>
+      </c>
+      <c r="B383" s="16" t="s">
+        <v>2738</v>
+      </c>
+      <c r="O383" s="16" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A384" s="16" t="s">
         <v>1808</v>
       </c>
-      <c r="B383" s="3" t="s">
+      <c r="B384" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="O383" s="3" t="s">
+      <c r="O384" s="3" t="s">
         <v>764</v>
-      </c>
-    </row>
-    <row r="384" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A384" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="B384" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="O384" s="3" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="385" spans="1:15" ht="24.95" customHeight="1">
       <c r="A385" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="O385" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="386" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A386" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="B385" s="3" t="s">
+      <c r="B386" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="O385" s="3" t="s">
+      <c r="O386" s="3" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="386" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A386" s="16" t="s">
+    <row r="387" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A387" s="16" t="s">
         <v>2732</v>
       </c>
-      <c r="B386" s="3" t="s">
+      <c r="B387" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="O386" s="3" t="s">
+      <c r="O387" s="3" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="387" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A387" s="3" t="s">
+    <row r="388" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A388" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="B387" s="3" t="s">
+      <c r="B388" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="O387" s="3" t="s">
+      <c r="O388" s="3" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="388" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O388" s="3"/>
-    </row>
     <row r="389" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A389" s="3" t="s">
-        <v>1676</v>
-      </c>
-      <c r="O389" s="16" t="s">
-        <v>2562</v>
-      </c>
+      <c r="O389" s="3"/>
     </row>
     <row r="390" spans="1:15" ht="24.95" customHeight="1">
       <c r="A390" s="3" t="s">
-        <v>1677</v>
-      </c>
-      <c r="B390" s="16"/>
-      <c r="O390" s="3" t="s">
-        <v>810</v>
+        <v>1676</v>
+      </c>
+      <c r="O390" s="16" t="s">
+        <v>2562</v>
       </c>
     </row>
     <row r="391" spans="1:15" ht="24.95" customHeight="1">
       <c r="A391" s="3" t="s">
-        <v>1678</v>
-      </c>
+        <v>1677</v>
+      </c>
+      <c r="B391" s="16"/>
       <c r="O391" s="3" t="s">
-        <v>1704</v>
+        <v>810</v>
       </c>
     </row>
     <row r="392" spans="1:15" ht="24.95" customHeight="1">
       <c r="A392" s="3" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="O392" s="3" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="393" spans="1:15" ht="24.95" customHeight="1">
       <c r="A393" s="3" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="O393" s="3" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="394" spans="1:15" ht="24.95" customHeight="1">
       <c r="A394" s="3" t="s">
+        <v>1680</v>
+      </c>
+      <c r="O394" s="3" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="395" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A395" s="3" t="s">
         <v>1681</v>
       </c>
-      <c r="B394" s="3" t="s">
+      <c r="B395" s="3" t="s">
         <v>1714</v>
       </c>
-      <c r="O394" s="16" t="s">
+      <c r="O395" s="16" t="s">
         <v>1854</v>
-      </c>
-    </row>
-    <row r="395" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A395" s="16" t="s">
-        <v>1682</v>
-      </c>
-      <c r="O395" s="3" t="s">
-        <v>1700</v>
       </c>
     </row>
     <row r="396" spans="1:15" ht="24.95" customHeight="1">
       <c r="A396" s="16" t="s">
+        <v>1682</v>
+      </c>
+      <c r="O396" s="3" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="397" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A397" s="16" t="s">
         <v>1686</v>
       </c>
-      <c r="O396" s="3" t="s">
+      <c r="O397" s="3" t="s">
         <v>1701</v>
-      </c>
-    </row>
-    <row r="397" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A397" s="3" t="s">
-        <v>1683</v>
-      </c>
-      <c r="O397" s="3" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="398" spans="1:15" ht="24.95" customHeight="1">
       <c r="A398" s="3" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="O398" s="3" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="399" spans="1:15" ht="24.95" customHeight="1">
       <c r="A399" s="3" t="s">
+        <v>1684</v>
+      </c>
+      <c r="O399" s="3" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="400" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A400" s="3" t="s">
         <v>1685</v>
       </c>
-      <c r="O399" s="3" t="s">
+      <c r="O400" s="3" t="s">
         <v>1697</v>
       </c>
     </row>
-    <row r="400" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O400" s="3"/>
-    </row>
     <row r="401" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A401" s="3" t="s">
-        <v>1687</v>
-      </c>
-      <c r="B401" s="16" t="s">
-        <v>1712</v>
-      </c>
-      <c r="O401" s="3" t="s">
-        <v>810</v>
-      </c>
+      <c r="O401" s="3"/>
     </row>
     <row r="402" spans="1:15" ht="24.95" customHeight="1">
       <c r="A402" s="3" t="s">
-        <v>1688</v>
-      </c>
-      <c r="B402" s="10" t="s">
-        <v>748</v>
+        <v>1687</v>
+      </c>
+      <c r="B402" s="16" t="s">
+        <v>1712</v>
       </c>
       <c r="O402" s="3" t="s">
-        <v>1696</v>
+        <v>810</v>
       </c>
     </row>
     <row r="403" spans="1:15" ht="24.95" customHeight="1">
       <c r="A403" s="3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B403" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="O403" s="3" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="404" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A404" s="3" t="s">
         <v>1689</v>
       </c>
-      <c r="B403" s="3" t="s">
+      <c r="B404" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="O403" s="3" t="s">
+      <c r="O404" s="3" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="404" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A404" s="16" t="s">
+    <row r="405" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A405" s="16" t="s">
         <v>2529</v>
       </c>
-      <c r="B404" s="16" t="s">
+      <c r="B405" s="16" t="s">
         <v>2530</v>
       </c>
-      <c r="O404" s="16" t="s">
+      <c r="O405" s="16" t="s">
         <v>2531</v>
       </c>
     </row>
-    <row r="405" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A405" s="3" t="s">
+    <row r="406" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A406" s="3" t="s">
         <v>1690</v>
       </c>
-      <c r="B405" s="3" t="s">
+      <c r="B406" s="3" t="s">
         <v>1714</v>
       </c>
-      <c r="O405" s="16" t="s">
+      <c r="O406" s="16" t="s">
         <v>1854</v>
       </c>
     </row>
-    <row r="406" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O406" s="3"/>
-    </row>
     <row r="407" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A407" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="B407" s="10" t="s">
-        <v>804</v>
-      </c>
-      <c r="O407" s="3" t="s">
-        <v>805</v>
-      </c>
+      <c r="O407" s="3"/>
     </row>
     <row r="408" spans="1:15" ht="24.95" customHeight="1">
       <c r="A408" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="B408" s="3" t="s">
-        <v>807</v>
+        <v>803</v>
+      </c>
+      <c r="B408" s="10" t="s">
+        <v>804</v>
       </c>
       <c r="O408" s="3" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="409" spans="1:15" ht="24.95" customHeight="1">
       <c r="A409" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="O409" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="410" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A410" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="B409" s="3" t="s">
+      <c r="B410" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="O409" s="3" t="s">
+      <c r="O410" s="3" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="410" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O410" s="3"/>
-    </row>
     <row r="411" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A411" s="3" t="s">
-        <v>1691</v>
-      </c>
-      <c r="O411" s="3" t="s">
-        <v>810</v>
-      </c>
+      <c r="O411" s="3"/>
     </row>
     <row r="412" spans="1:15" ht="24.95" customHeight="1">
       <c r="A412" s="3" t="s">
-        <v>1692</v>
-      </c>
-      <c r="B412" s="3" t="s">
-        <v>1714</v>
-      </c>
-      <c r="O412" s="16" t="s">
-        <v>1854</v>
+        <v>1691</v>
+      </c>
+      <c r="O412" s="3" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="413" spans="1:15" ht="24.95" customHeight="1">
       <c r="A413" s="3" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="O413" s="16" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="414" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A414" s="3" t="s">
         <v>1693</v>
       </c>
-      <c r="O413" s="3" t="s">
+      <c r="O414" s="3" t="s">
         <v>1695</v>
       </c>
     </row>
-    <row r="414" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O414" s="3"/>
-    </row>
     <row r="415" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A415" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="B415" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="O415" s="3" t="s">
-        <v>778</v>
-      </c>
+      <c r="O415" s="3"/>
     </row>
     <row r="416" spans="1:15" ht="24.95" customHeight="1">
       <c r="A416" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="O416" s="3" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="417" spans="1:15" ht="24.95" customHeight="1">
       <c r="A417" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="O417" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="418" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A418" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="B417" s="3" t="s">
+      <c r="B418" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="O417" s="3" t="s">
+      <c r="O418" s="3" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="418" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O418" s="3"/>
-    </row>
     <row r="419" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A419" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="B419" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="O419" s="3" t="s">
-        <v>787</v>
-      </c>
+      <c r="O419" s="3"/>
     </row>
     <row r="420" spans="1:15" ht="24.95" customHeight="1">
       <c r="A420" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="B420" s="10" t="s">
-        <v>789</v>
+        <v>785</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>786</v>
       </c>
       <c r="O420" s="3" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="421" spans="1:15" ht="24.95" customHeight="1">
       <c r="A421" s="3" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="O421" s="3" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="422" spans="1:15" ht="24.95" customHeight="1">
       <c r="A422" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="B422" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="O422" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="423" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A423" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="B422" s="3" t="s">
+      <c r="B423" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="O422" s="3" t="s">
+      <c r="O423" s="3" t="s">
         <v>796</v>
-      </c>
-    </row>
-    <row r="423" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A423" s="10" t="s">
-        <v>798</v>
-      </c>
-      <c r="B423" s="10" t="s">
-        <v>799</v>
-      </c>
-      <c r="O423" s="3" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="424" spans="1:15" ht="24.95" customHeight="1">
       <c r="A424" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="B424" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="O424" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="425" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A425" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="B424" s="10"/>
-      <c r="O424" s="3" t="s">
+      <c r="B425" s="10"/>
+      <c r="O425" s="3" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="425" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A425" s="10"/>
-      <c r="B425" s="10"/>
-      <c r="O425" s="3"/>
-    </row>
     <row r="426" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A426" s="16" t="s">
+      <c r="A426" s="10"/>
+      <c r="B426" s="10"/>
+      <c r="O426" s="3"/>
+    </row>
+    <row r="427" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A427" s="16" t="s">
         <v>1741</v>
       </c>
-      <c r="B426" s="16" t="s">
+      <c r="B427" s="16" t="s">
         <v>1742</v>
       </c>
-      <c r="O426" s="3" t="s">
+      <c r="O427" s="3" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="427" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A427" s="10" t="s">
+    <row r="428" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A428" s="10" t="s">
         <v>1674</v>
       </c>
-      <c r="B427" s="10"/>
-      <c r="O427" s="3" t="s">
+      <c r="B428" s="10"/>
+      <c r="O428" s="3" t="s">
         <v>1694</v>
       </c>
     </row>
-    <row r="428" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A428" s="16" t="s">
+    <row r="429" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A429" s="16" t="s">
         <v>1743</v>
       </c>
-      <c r="B428" s="16" t="s">
+      <c r="B429" s="16" t="s">
         <v>1894</v>
       </c>
-      <c r="O428" s="3" t="s">
+      <c r="O429" s="3" t="s">
         <v>1675</v>
       </c>
     </row>
-    <row r="429" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A429" s="10"/>
-      <c r="B429" s="10"/>
-      <c r="O429" s="3"/>
-    </row>
     <row r="430" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A430" s="16" t="s">
-        <v>1722</v>
-      </c>
+      <c r="A430" s="10"/>
       <c r="B430" s="10"/>
-      <c r="O430" s="16" t="s">
-        <v>1723</v>
-      </c>
+      <c r="O430" s="3"/>
     </row>
     <row r="431" spans="1:15" ht="24.95" customHeight="1">
       <c r="A431" s="16" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B431" s="10"/>
+      <c r="O431" s="16" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="432" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A432" s="16" t="s">
         <v>1726</v>
       </c>
-      <c r="B431" s="16" t="s">
+      <c r="B432" s="16" t="s">
         <v>1735</v>
       </c>
-      <c r="O431" s="16" t="s">
+      <c r="O432" s="16" t="s">
         <v>1771</v>
       </c>
     </row>
-    <row r="432" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A432" s="10" t="s">
+    <row r="433" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A433" s="10" t="s">
         <v>797</v>
       </c>
-      <c r="B432" s="16" t="s">
+      <c r="B433" s="16" t="s">
         <v>1733</v>
       </c>
-      <c r="O432" s="16" t="s">
+      <c r="O433" s="16" t="s">
         <v>1737</v>
-      </c>
-    </row>
-    <row r="433" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A433" s="16" t="s">
-        <v>1724</v>
-      </c>
-      <c r="B433" s="10"/>
-      <c r="O433" s="16" t="s">
-        <v>1725</v>
       </c>
     </row>
     <row r="434" spans="1:15" ht="24.95" customHeight="1">
       <c r="A434" s="16" t="s">
-        <v>1727</v>
-      </c>
-      <c r="B434" s="16" t="s">
-        <v>1730</v>
-      </c>
+        <v>1724</v>
+      </c>
+      <c r="B434" s="10"/>
       <c r="O434" s="16" t="s">
-        <v>1772</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="435" spans="1:15" ht="24.95" customHeight="1">
       <c r="A435" s="16" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="B435" s="16" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="O435" s="16" t="s">
-        <v>1736</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="436" spans="1:15" ht="24.95" customHeight="1">
       <c r="A436" s="16" t="s">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="B436" s="16" t="s">
-        <v>1740</v>
+        <v>1731</v>
       </c>
       <c r="O436" s="16" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="437" spans="1:15" ht="24.95" customHeight="1">
       <c r="A437" s="16" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B437" s="16" t="s">
+        <v>1740</v>
+      </c>
+      <c r="O437" s="16" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="438" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A438" s="16" t="s">
         <v>1728</v>
       </c>
-      <c r="B437" s="16" t="s">
+      <c r="B438" s="16" t="s">
         <v>1734</v>
       </c>
-      <c r="O437" s="16" t="s">
+      <c r="O438" s="16" t="s">
         <v>1738</v>
       </c>
     </row>
-    <row r="438" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A438" s="16"/>
-      <c r="B438" s="16"/>
-      <c r="O438" s="16"/>
-    </row>
     <row r="439" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A439" s="16" t="s">
-        <v>2818</v>
-      </c>
-      <c r="O439" s="17" t="s">
-        <v>2819</v>
-      </c>
+      <c r="A439" s="16"/>
+      <c r="B439" s="16"/>
+      <c r="O439" s="16"/>
     </row>
     <row r="440" spans="1:15" ht="24.95" customHeight="1">
       <c r="A440" s="16" t="s">
-        <v>2807</v>
-      </c>
-      <c r="B440" s="16"/>
-      <c r="O440" s="16" t="s">
-        <v>2805</v>
+        <v>2818</v>
+      </c>
+      <c r="O440" s="17" t="s">
+        <v>2819</v>
       </c>
     </row>
     <row r="441" spans="1:15" ht="24.95" customHeight="1">
       <c r="A441" s="16" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="B441" s="16"/>
       <c r="O441" s="16" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="442" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A442" s="16" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B442" s="16"/>
+      <c r="O442" s="16" t="s">
         <v>2806</v>
       </c>
     </row>
-    <row r="442" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A442" s="10"/>
-      <c r="B442" s="10"/>
-      <c r="O442" s="3"/>
-    </row>
     <row r="443" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A443" s="16" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B443" s="16" t="s">
-        <v>1895</v>
-      </c>
-      <c r="O443" s="16" t="s">
-        <v>1705</v>
-      </c>
+      <c r="A443" s="10"/>
+      <c r="B443" s="10"/>
+      <c r="O443" s="3"/>
     </row>
     <row r="444" spans="1:15" ht="24.95" customHeight="1">
       <c r="A444" s="16" t="s">
-        <v>1673</v>
-      </c>
-      <c r="B444" s="10"/>
+        <v>1672</v>
+      </c>
+      <c r="B444" s="16" t="s">
+        <v>1895</v>
+      </c>
       <c r="O444" s="16" t="s">
-        <v>2747</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="445" spans="1:15" ht="24.95" customHeight="1">
       <c r="A445" s="16" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B445" s="10"/>
+      <c r="O445" s="16" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="446" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A446" s="16" t="s">
         <v>1706</v>
       </c>
-      <c r="B445" s="16" t="s">
+      <c r="B446" s="16" t="s">
         <v>2748</v>
       </c>
-      <c r="O445" s="16" t="s">
+      <c r="O446" s="16" t="s">
         <v>1893</v>
-      </c>
-    </row>
-    <row r="446" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A446" s="10" t="s">
-        <v>956</v>
-      </c>
-      <c r="B446" s="10" t="s">
-        <v>2749</v>
-      </c>
-      <c r="O446" s="16" t="s">
-        <v>2751</v>
       </c>
     </row>
     <row r="447" spans="1:15" ht="24.95" customHeight="1">
       <c r="A447" s="10" t="s">
-        <v>957</v>
-      </c>
-      <c r="B447" s="16" t="s">
-        <v>2752</v>
-      </c>
-      <c r="O447" s="3" t="s">
-        <v>958</v>
+        <v>956</v>
+      </c>
+      <c r="B447" s="10" t="s">
+        <v>2749</v>
+      </c>
+      <c r="O447" s="16" t="s">
+        <v>2751</v>
       </c>
     </row>
     <row r="448" spans="1:15" ht="24.95" customHeight="1">
       <c r="A448" s="10" t="s">
+        <v>957</v>
+      </c>
+      <c r="B448" s="16" t="s">
+        <v>2752</v>
+      </c>
+      <c r="O448" s="3" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="449" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A449" s="10" t="s">
         <v>959</v>
       </c>
-      <c r="B448" s="3" t="s">
+      <c r="B449" s="3" t="s">
         <v>2750</v>
       </c>
-      <c r="O448" s="16" t="s">
+      <c r="O449" s="16" t="s">
         <v>2746</v>
       </c>
     </row>
-    <row r="449" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A449" s="10"/>
-      <c r="B449" s="10"/>
-      <c r="O449" s="3"/>
-    </row>
     <row r="450" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A450" s="3" t="s">
-        <v>987</v>
-      </c>
-      <c r="O450" s="3" t="s">
-        <v>988</v>
-      </c>
+      <c r="A450" s="10"/>
+      <c r="B450" s="10"/>
+      <c r="O450" s="3"/>
     </row>
     <row r="451" spans="1:15" ht="24.95" customHeight="1">
       <c r="A451" s="3" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="O451" s="3" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="452" spans="1:15" ht="24.95" customHeight="1">
       <c r="A452" s="3" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="O452" s="3" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="453" spans="1:15" ht="24.95" customHeight="1">
       <c r="A453" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="O453" s="3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="454" spans="1:15" ht="24.95" customHeight="1">
       <c r="A454" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="O454" s="16" t="s">
-        <v>2853</v>
+        <v>993</v>
+      </c>
+      <c r="O454" s="3" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="455" spans="1:15" ht="24.95" customHeight="1">
       <c r="A455" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="O455" s="16" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="456" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A456" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="O455" s="3" t="s">
+      <c r="O456" s="3" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="456" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O456" s="3"/>
-    </row>
     <row r="457" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A457" s="10" t="s">
+      <c r="O457" s="3"/>
+    </row>
+    <row r="458" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A458" s="10" t="s">
         <v>811</v>
       </c>
-      <c r="B457" s="3" t="s">
+      <c r="B458" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="O457" s="16" t="s">
+      <c r="O458" s="16" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="458" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A458" s="16" t="s">
+    <row r="459" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A459" s="16" t="s">
         <v>1715</v>
       </c>
-      <c r="B458" s="16" t="s">
+      <c r="B459" s="16" t="s">
         <v>1892</v>
       </c>
-      <c r="O458" s="16" t="s">
+      <c r="O459" s="16" t="s">
         <v>1891</v>
-      </c>
-    </row>
-    <row r="459" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A459" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="B459" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="O459" s="3" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="460" spans="1:15" ht="24.95" customHeight="1">
       <c r="A460" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="O460" s="3" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="461" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A461" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="B460" s="3" t="s">
+      <c r="B461" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="O460" s="3" t="s">
+      <c r="O461" s="3" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="461" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A461" s="16" t="s">
+    <row r="462" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A462" s="16" t="s">
         <v>1710</v>
       </c>
-      <c r="B461" s="3" t="s">
+      <c r="B462" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="O461" s="17" t="s">
+      <c r="O462" s="17" t="s">
         <v>1709</v>
       </c>
     </row>
-    <row r="462" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O462" s="3"/>
-    </row>
     <row r="463" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A463" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="B463" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="O463" s="3" t="s">
-        <v>822</v>
-      </c>
+      <c r="O463" s="3"/>
     </row>
     <row r="464" spans="1:15" ht="24.95" customHeight="1">
       <c r="A464" s="3" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="O464" s="3" t="s">
-        <v>522</v>
+        <v>822</v>
       </c>
     </row>
     <row r="465" spans="1:15" ht="24.95" customHeight="1">
       <c r="A465" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="O465" s="3" t="s">
-        <v>827</v>
+        <v>522</v>
       </c>
     </row>
     <row r="466" spans="1:15" ht="24.95" customHeight="1">
       <c r="A466" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="O466" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="467" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A467" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="B466" s="3" t="s">
+      <c r="B467" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="O466" s="3" t="s">
+      <c r="O467" s="3" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="467" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O467" s="3"/>
-    </row>
     <row r="468" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A468" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="B468" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="O468" s="3" t="s">
-        <v>831</v>
-      </c>
+      <c r="O468" s="3"/>
     </row>
     <row r="469" spans="1:15" ht="24.95" customHeight="1">
       <c r="A469" s="3" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="O469" s="3" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="470" spans="1:15" ht="24.95" customHeight="1">
       <c r="A470" s="3" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="O470" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="471" spans="1:15" ht="24.95" customHeight="1">
       <c r="A471" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="O471" s="3" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="472" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A472" s="3" t="s">
         <v>2753</v>
       </c>
-      <c r="O471" s="16" t="s">
+      <c r="O472" s="16" t="s">
         <v>2754</v>
       </c>
     </row>
-    <row r="472" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A472" s="10" t="s">
+    <row r="473" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A473" s="10" t="s">
         <v>841</v>
       </c>
-      <c r="B472" s="10"/>
-      <c r="O472" s="3" t="s">
+      <c r="B473" s="10"/>
+      <c r="O473" s="3" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="473" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A473" s="16" t="s">
+    <row r="474" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A474" s="16" t="s">
         <v>2539</v>
       </c>
-      <c r="B473" s="16"/>
-      <c r="O473" s="16" t="s">
+      <c r="B474" s="16"/>
+      <c r="O474" s="16" t="s">
         <v>2803</v>
       </c>
     </row>
-    <row r="474" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A474" s="10"/>
-      <c r="B474" s="10"/>
-      <c r="O474" s="3"/>
-    </row>
     <row r="475" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A475" s="10" t="s">
+      <c r="A475" s="10"/>
+      <c r="B475" s="10"/>
+      <c r="O475" s="3"/>
+    </row>
+    <row r="476" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A476" s="10" t="s">
         <v>843</v>
       </c>
-      <c r="B475" s="16" t="s">
+      <c r="B476" s="16" t="s">
         <v>1749</v>
       </c>
-      <c r="O475" s="3" t="s">
+      <c r="O476" s="3" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="476" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A476" s="16" t="s">
+    <row r="477" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A477" s="16" t="s">
         <v>1747</v>
       </c>
-      <c r="B476" s="16" t="s">
+      <c r="B477" s="16" t="s">
         <v>1748</v>
       </c>
-      <c r="O476" s="3" t="s">
+      <c r="O477" s="3" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="477" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A477" s="3" t="s">
+    <row r="478" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A478" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="B477" s="3" t="s">
+      <c r="B478" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="O477" s="3" t="s">
+      <c r="O478" s="3" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="478" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O478" s="3"/>
-    </row>
     <row r="479" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A479" s="10" t="s">
+      <c r="O479" s="3"/>
+    </row>
+    <row r="480" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A480" s="10" t="s">
         <v>845</v>
       </c>
-      <c r="B479" s="3" t="s">
+      <c r="B480" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="O479" s="3" t="s">
+      <c r="O480" s="3" t="s">
         <v>847</v>
-      </c>
-    </row>
-    <row r="480" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A480" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="B480" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="O480" s="3" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="481" spans="1:15" ht="24.95" customHeight="1">
       <c r="A481" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="O481" s="3" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="482" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A482" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="B481" s="3" t="s">
+      <c r="B482" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="O481" s="16" t="s">
+      <c r="O482" s="16" t="s">
         <v>2802</v>
       </c>
     </row>
-    <row r="482" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A482" s="16" t="s">
+    <row r="483" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A483" s="16" t="s">
         <v>1744</v>
       </c>
-      <c r="B482" s="16" t="s">
+      <c r="B483" s="16" t="s">
         <v>1746</v>
       </c>
-      <c r="O482" s="16" t="s">
+      <c r="O483" s="16" t="s">
         <v>1745</v>
-      </c>
-    </row>
-    <row r="483" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A483" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="B483" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="O483" s="3" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="484" spans="1:15" ht="24.95" customHeight="1">
       <c r="A484" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="O484" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="485" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A485" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="B484" s="3" t="s">
+      <c r="B485" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="O484" s="3" t="s">
+      <c r="O485" s="3" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="485" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O485" s="3"/>
-    </row>
     <row r="486" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A486" s="3" t="s">
+      <c r="O486" s="3"/>
+    </row>
+    <row r="487" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A487" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="B486" s="3" t="s">
+      <c r="B487" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="O486" s="3" t="s">
+      <c r="O487" s="3" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="487" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O487" s="3"/>
-    </row>
     <row r="488" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A488" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="B488" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="O488" s="3" t="s">
-        <v>864</v>
-      </c>
+      <c r="O488" s="3"/>
     </row>
     <row r="489" spans="1:15" ht="24.95" customHeight="1">
       <c r="A489" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="O489" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="490" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A490" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="B489" s="3" t="s">
+      <c r="B490" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="O489" s="3" t="s">
+      <c r="O490" s="3" t="s">
         <v>867</v>
-      </c>
-    </row>
-    <row r="490" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A490" s="10" t="s">
-        <v>868</v>
-      </c>
-      <c r="B490" s="10" t="s">
-        <v>869</v>
-      </c>
-      <c r="O490" s="3" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="491" spans="1:15" ht="24.95" customHeight="1">
       <c r="A491" s="10" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B491" s="10" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="O491" s="3" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="492" spans="1:15" ht="24.95" customHeight="1">
       <c r="A492" s="10" t="s">
+        <v>871</v>
+      </c>
+      <c r="B492" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="O492" s="3" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="493" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A493" s="10" t="s">
         <v>874</v>
       </c>
-      <c r="B492" s="3" t="s">
+      <c r="B493" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="O492" s="3" t="s">
+      <c r="O493" s="3" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="493" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A493" s="3" t="s">
+    <row r="494" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A494" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="B493" s="3" t="s">
+      <c r="B494" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="O493" s="3" t="s">
+      <c r="O494" s="3" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="494" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A494" s="10" t="s">
+    <row r="495" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A495" s="10" t="s">
         <v>879</v>
       </c>
-      <c r="B494" s="16" t="s">
+      <c r="B495" s="16" t="s">
         <v>1890</v>
       </c>
-      <c r="O494" s="16" t="s">
+      <c r="O495" s="16" t="s">
         <v>1889</v>
       </c>
     </row>
-    <row r="495" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A495" s="10"/>
-      <c r="B495" s="10"/>
-      <c r="O495" s="3"/>
-    </row>
     <row r="496" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A496" s="10" t="s">
-        <v>880</v>
-      </c>
-      <c r="B496" s="10" t="s">
-        <v>881</v>
-      </c>
-      <c r="O496" s="3" t="s">
-        <v>882</v>
-      </c>
+      <c r="A496" s="10"/>
+      <c r="B496" s="10"/>
+      <c r="O496" s="3"/>
     </row>
     <row r="497" spans="1:15" ht="24.95" customHeight="1">
       <c r="A497" s="10" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B497" s="10" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="O497" s="3" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="498" spans="1:15" ht="24.95" customHeight="1">
       <c r="A498" s="10" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B498" s="10" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="O498" s="3" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="499" spans="1:15" ht="24.95" customHeight="1">
       <c r="A499" s="10" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B499" s="10" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O499" s="3" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="500" spans="1:15" ht="24.95" customHeight="1">
       <c r="A500" s="10" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B500" s="10" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="O500" s="3" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="501" spans="1:15" ht="24.95" customHeight="1">
       <c r="A501" s="10" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B501" s="10" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="O501" s="3" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="502" spans="1:15" ht="24.95" customHeight="1">
       <c r="A502" s="10" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B502" s="10" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="O502" s="3" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="503" spans="1:15" ht="24.95" customHeight="1">
       <c r="A503" s="10" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B503" s="10" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="O503" s="3" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="504" spans="1:15" ht="24.95" customHeight="1">
       <c r="A504" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="B504" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="O504" s="3" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="505" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A505" s="10" t="s">
         <v>904</v>
       </c>
-      <c r="B504" s="10" t="s">
+      <c r="B505" s="10" t="s">
         <v>905</v>
       </c>
-      <c r="O504" s="3" t="s">
+      <c r="O505" s="3" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="505" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A505" s="10"/>
-      <c r="B505" s="10"/>
-      <c r="O505" s="3"/>
-    </row>
     <row r="506" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A506" s="16" t="s">
-        <v>1875</v>
-      </c>
-      <c r="B506" s="10" t="s">
-        <v>907</v>
-      </c>
-      <c r="O506" s="3" t="s">
-        <v>908</v>
-      </c>
+      <c r="A506" s="10"/>
+      <c r="B506" s="10"/>
+      <c r="O506" s="3"/>
     </row>
     <row r="507" spans="1:15" ht="24.95" customHeight="1">
       <c r="A507" s="16" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B507" s="10" t="s">
+        <v>907</v>
+      </c>
+      <c r="O507" s="3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="508" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A508" s="16" t="s">
         <v>1876</v>
       </c>
-      <c r="B507" s="10"/>
-      <c r="O507" s="16" t="s">
+      <c r="B508" s="10"/>
+      <c r="O508" s="16" t="s">
         <v>1877</v>
-      </c>
-    </row>
-    <row r="508" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A508" s="10" t="s">
-        <v>909</v>
-      </c>
-      <c r="B508" s="10" t="s">
-        <v>910</v>
-      </c>
-      <c r="O508" s="3" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="509" spans="1:15" ht="24.95" customHeight="1">
       <c r="A509" s="10" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B509" s="10" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="O509" s="3" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="510" spans="1:15" ht="24.95" customHeight="1">
       <c r="A510" s="10" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B510" s="10" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="O510" s="3" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="511" spans="1:15" ht="24.95" customHeight="1">
       <c r="A511" s="10" t="s">
+        <v>915</v>
+      </c>
+      <c r="B511" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="O511" s="3" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="512" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A512" s="10" t="s">
         <v>918</v>
       </c>
-      <c r="B511" s="16" t="s">
+      <c r="B512" s="16" t="s">
         <v>1870</v>
       </c>
-      <c r="O511" s="3" t="s">
+      <c r="O512" s="3" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="512" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A512" s="10"/>
-      <c r="B512" s="10"/>
-      <c r="O512" s="3"/>
-    </row>
     <row r="513" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A513" s="3" t="s">
+      <c r="A513" s="10"/>
+      <c r="B513" s="10"/>
+      <c r="O513" s="3"/>
+    </row>
+    <row r="514" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A514" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="B513" s="10" t="s">
+      <c r="B514" s="10" t="s">
         <v>921</v>
       </c>
-      <c r="O513" s="3" t="s">
+      <c r="O514" s="3" t="s">
         <v>922</v>
-      </c>
-    </row>
-    <row r="514" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A514" s="10" t="s">
-        <v>923</v>
-      </c>
-      <c r="B514" s="10" t="s">
-        <v>924</v>
-      </c>
-      <c r="O514" s="3" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="515" spans="1:15" ht="24.95" customHeight="1">
       <c r="A515" s="10" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B515" s="10" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="O515" s="3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="516" spans="1:15" ht="24.95" customHeight="1">
       <c r="A516" s="10" t="s">
+        <v>926</v>
+      </c>
+      <c r="B516" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="O516" s="3" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="517" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A517" s="10" t="s">
         <v>929</v>
       </c>
-      <c r="B516" s="3" t="s">
+      <c r="B517" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="O516" s="3" t="s">
+      <c r="O517" s="3" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="517" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A517" s="3" t="s">
+    <row r="518" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A518" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="B517" s="3" t="s">
+      <c r="B518" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="O517" s="3" t="s">
+      <c r="O518" s="3" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="518" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A518" s="16" t="s">
+    <row r="519" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A519" s="16" t="s">
         <v>2534</v>
       </c>
-      <c r="B518" s="16" t="s">
+      <c r="B519" s="16" t="s">
         <v>951</v>
       </c>
-      <c r="O518" s="3" t="s">
+      <c r="O519" s="3" t="s">
         <v>937</v>
-      </c>
-    </row>
-    <row r="519" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A519" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="B519" s="16" t="s">
-        <v>936</v>
-      </c>
-      <c r="O519" s="16" t="s">
-        <v>2535</v>
       </c>
     </row>
     <row r="520" spans="1:15" ht="24.95" customHeight="1">
       <c r="A520" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="B520" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="O520" s="3" t="s">
-        <v>940</v>
+        <v>935</v>
+      </c>
+      <c r="B520" s="16" t="s">
+        <v>936</v>
+      </c>
+      <c r="O520" s="16" t="s">
+        <v>2535</v>
       </c>
     </row>
     <row r="521" spans="1:15" ht="24.95" customHeight="1">
       <c r="A521" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="O521" s="3" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="522" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A522" s="3" t="s">
         <v>941</v>
       </c>
-      <c r="B521" s="3" t="s">
+      <c r="B522" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="O521" s="3" t="s">
+      <c r="O522" s="3" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="522" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A522" s="16" t="s">
+    <row r="523" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A523" s="16" t="s">
         <v>1878</v>
       </c>
-      <c r="B522" s="3" t="s">
+      <c r="B523" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="O522" s="3" t="s">
+      <c r="O523" s="3" t="s">
         <v>945</v>
-      </c>
-    </row>
-    <row r="523" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A523" s="10" t="s">
-        <v>946</v>
-      </c>
-      <c r="B523" s="17" t="s">
-        <v>2536</v>
-      </c>
-      <c r="O523" s="3" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="524" spans="1:15" ht="24.95" customHeight="1">
       <c r="A524" s="10" t="s">
+        <v>946</v>
+      </c>
+      <c r="B524" s="17" t="s">
+        <v>2536</v>
+      </c>
+      <c r="O524" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="525" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A525" s="10" t="s">
         <v>948</v>
       </c>
-      <c r="B524" s="3" t="s">
+      <c r="B525" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="O524" s="3" t="s">
+      <c r="O525" s="3" t="s">
         <v>950</v>
-      </c>
-    </row>
-    <row r="525" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A525" s="3" t="s">
-        <v>952</v>
-      </c>
-      <c r="B525" s="10" t="s">
-        <v>916</v>
-      </c>
-      <c r="O525" s="3" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="526" spans="1:15" ht="24.95" customHeight="1">
       <c r="A526" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="B526" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="O526" s="3" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="527" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A527" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="B526" s="10" t="s">
+      <c r="B527" s="10" t="s">
         <v>2537</v>
       </c>
-      <c r="O526" s="3" t="s">
+      <c r="O527" s="3" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="527" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B527" s="10"/>
-      <c r="O527" s="3"/>
-    </row>
     <row r="528" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A528" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="B528" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="O528" s="3" t="s">
-        <v>962</v>
-      </c>
+      <c r="B528" s="10"/>
+      <c r="O528" s="3"/>
     </row>
     <row r="529" spans="1:15" ht="24.95" customHeight="1">
       <c r="A529" s="3" t="s">
-        <v>963</v>
-      </c>
-      <c r="B529" s="10" t="s">
-        <v>964</v>
+        <v>960</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>961</v>
       </c>
       <c r="O529" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="530" spans="1:15" ht="24.95" customHeight="1">
       <c r="A530" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="B530" s="10" t="s">
+        <v>964</v>
+      </c>
+      <c r="O530" s="3" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="531" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A531" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="B530" s="10" t="s">
+      <c r="B531" s="10" t="s">
         <v>967</v>
       </c>
-      <c r="O530" s="3" t="s">
+      <c r="O531" s="3" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="531" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O531" s="3"/>
-    </row>
     <row r="532" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A532" s="16" t="s">
-        <v>1758</v>
-      </c>
-      <c r="B532" s="10" t="s">
-        <v>969</v>
-      </c>
-      <c r="O532" s="3" t="s">
-        <v>970</v>
-      </c>
+      <c r="O532" s="3"/>
     </row>
     <row r="533" spans="1:15" ht="24.95" customHeight="1">
       <c r="A533" s="16" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B533" s="10" t="s">
+        <v>969</v>
+      </c>
+      <c r="O533" s="3" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="534" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A534" s="16" t="s">
         <v>1759</v>
       </c>
-      <c r="B533" s="3" t="s">
+      <c r="B534" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="O533" s="3" t="s">
+      <c r="O534" s="3" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="534" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O534" s="3"/>
-    </row>
     <row r="535" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A535" s="3" t="s">
-        <v>973</v>
-      </c>
-      <c r="B535" s="3" t="s">
-        <v>974</v>
-      </c>
-      <c r="O535" s="3" t="s">
-        <v>793</v>
-      </c>
+      <c r="O535" s="3"/>
     </row>
     <row r="536" spans="1:15" ht="24.95" customHeight="1">
       <c r="A536" s="3" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="O536" s="3" t="s">
-        <v>977</v>
+        <v>793</v>
       </c>
     </row>
     <row r="537" spans="1:15" ht="24.95" customHeight="1">
       <c r="A537" s="3" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="O537" s="3" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="538" spans="1:15" ht="24.95" customHeight="1">
       <c r="A538" s="3" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="O538" s="3" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="539" spans="1:15" ht="24.95" customHeight="1">
       <c r="A539" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="O539" s="3" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="540" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A540" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="B539" s="3" t="s">
+      <c r="B540" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="O539" s="3" t="s">
+      <c r="O540" s="3" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="540" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O540" s="3"/>
-    </row>
     <row r="541" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A541" s="3" t="s">
+      <c r="O541" s="3"/>
+    </row>
+    <row r="542" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A542" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="B541" s="3" t="s">
+      <c r="B542" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="O541" s="3" t="s">
+      <c r="O542" s="3" t="s">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="542" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A542" s="10" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B542" s="3" t="s">
-        <v>1002</v>
-      </c>
-      <c r="O542" s="3" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="543" spans="1:15" ht="24.95" customHeight="1">
       <c r="A543" s="10" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="O543" s="3" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="544" spans="1:15" ht="24.95" customHeight="1">
       <c r="A544" s="10" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="O544" s="3" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="545" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A545" s="10" t="s">
         <v>1007</v>
       </c>
-      <c r="B544" s="3" t="s">
+      <c r="B545" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="O544" s="3" t="s">
+      <c r="O545" s="3" t="s">
         <v>1009</v>
-      </c>
-    </row>
-    <row r="545" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A545" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B545" s="3" t="s">
-        <v>1011</v>
-      </c>
-      <c r="O545" s="3" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="546" spans="1:15" ht="24.95" customHeight="1">
       <c r="A546" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="O546" s="3" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="547" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A547" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="B546" s="3" t="s">
+      <c r="B547" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="O546" s="3" t="s">
+      <c r="O547" s="3" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="547" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O547" s="3"/>
-    </row>
     <row r="548" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A548" s="3" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B548" s="3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="O548" s="3" t="s">
-        <v>1018</v>
-      </c>
+      <c r="O548" s="3"/>
     </row>
     <row r="549" spans="1:15" ht="24.95" customHeight="1">
       <c r="A549" s="3" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="O549" s="3" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="550" spans="1:15" ht="24.95" customHeight="1">
       <c r="A550" s="3" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="O550" s="3" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="551" spans="1:15" ht="24.95" customHeight="1">
       <c r="A551" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O551" s="3" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="552" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A552" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="B551" s="3" t="s">
+      <c r="B552" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="O551" s="3" t="s">
+      <c r="O552" s="3" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="552" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A552" s="10" t="s">
+    <row r="553" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A553" s="10" t="s">
         <v>1028</v>
       </c>
-      <c r="B552" s="3" t="s">
+      <c r="B553" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="O552" s="3" t="s">
+      <c r="O553" s="3" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="553" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A553" s="3" t="s">
+    <row r="554" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A554" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="B553" s="3" t="s">
+      <c r="B554" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="O553" s="3" t="s">
+      <c r="O554" s="3" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="554" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O554" s="3"/>
-    </row>
     <row r="555" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A555" s="3" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B555" s="3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="O555" s="3" t="s">
-        <v>637</v>
-      </c>
+      <c r="O555" s="3"/>
     </row>
     <row r="556" spans="1:15" ht="24.95" customHeight="1">
       <c r="A556" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="O556" s="3" t="s">
-        <v>1036</v>
+        <v>637</v>
       </c>
     </row>
     <row r="557" spans="1:15" ht="24.95" customHeight="1">
       <c r="A557" s="3" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="O557" s="3" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="558" spans="1:15" ht="24.95" customHeight="1">
       <c r="A558" s="3" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="O558" s="3" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="559" spans="1:15" ht="24.95" customHeight="1">
       <c r="A559" s="3" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="O559" s="3" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="560" spans="1:15" ht="24.95" customHeight="1">
       <c r="A560" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="O560" s="3" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="561" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A561" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="B560" s="3" t="s">
+      <c r="B561" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="O560" s="3" t="s">
+      <c r="O561" s="3" t="s">
         <v>1048</v>
-      </c>
-    </row>
-    <row r="561" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A561" s="10" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B561" s="10" t="s">
-        <v>1050</v>
-      </c>
-      <c r="O561" s="3" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="562" spans="1:15" ht="24.95" customHeight="1">
       <c r="A562" s="10" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B562" s="3" t="s">
-        <v>1053</v>
+        <v>1049</v>
+      </c>
+      <c r="B562" s="10" t="s">
+        <v>1050</v>
       </c>
       <c r="O562" s="3" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="563" spans="1:15" ht="24.95" customHeight="1">
       <c r="A563" s="10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="O563" s="3" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="564" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A564" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="B563" s="3" t="s">
+      <c r="B564" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="O563" s="3" t="s">
+      <c r="O564" s="3" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="564" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O564" s="3"/>
-    </row>
     <row r="565" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A565" s="3" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B565" s="3" t="s">
-        <v>1059</v>
-      </c>
-      <c r="O565" s="3" t="s">
-        <v>1060</v>
-      </c>
+      <c r="O565" s="3"/>
     </row>
     <row r="566" spans="1:15" ht="24.95" customHeight="1">
       <c r="A566" s="3" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="O566" s="3" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="567" spans="1:15" ht="24.95" customHeight="1">
       <c r="A567" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B567" s="10" t="s">
-        <v>1065</v>
-      </c>
-      <c r="O567" s="16" t="s">
-        <v>2538</v>
+        <v>1061</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="O567" s="3" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="568" spans="1:15" ht="24.95" customHeight="1">
       <c r="A568" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B568" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="O568" s="16" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="569" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A569" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="B568" s="3" t="s">
+      <c r="B569" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="O568" s="3" t="s">
+      <c r="O569" s="3" t="s">
         <v>1068</v>
-      </c>
-    </row>
-    <row r="569" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A569" s="10" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B569" s="10" t="s">
-        <v>1070</v>
-      </c>
-      <c r="O569" s="3" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="570" spans="1:15" ht="24.95" customHeight="1">
       <c r="A570" s="10" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B570" s="3" t="s">
-        <v>68</v>
+        <v>1069</v>
+      </c>
+      <c r="B570" s="10" t="s">
+        <v>1070</v>
       </c>
       <c r="O570" s="3" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="571" spans="1:15" ht="24.95" customHeight="1">
       <c r="A571" s="10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O571" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="572" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A572" s="10" t="s">
         <v>1074</v>
       </c>
-      <c r="B571" s="3" t="s">
+      <c r="B572" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="O571" s="3" t="s">
+      <c r="O572" s="3" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="572" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A572" s="3" t="s">
+    <row r="573" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A573" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="B572" s="3" t="s">
+      <c r="B573" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="O572" s="3" t="s">
+      <c r="O573" s="3" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="573" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O573" s="3"/>
-    </row>
     <row r="574" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A574" s="3" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B574" s="3" t="s">
-        <v>1859</v>
-      </c>
-      <c r="O574" s="3" t="s">
-        <v>1081</v>
-      </c>
+      <c r="O574" s="3"/>
     </row>
     <row r="575" spans="1:15" ht="24.95" customHeight="1">
       <c r="A575" s="3" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="O575" s="3" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="576" spans="1:15" ht="24.95" customHeight="1">
       <c r="A576" s="3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>1868</v>
+        <v>1860</v>
       </c>
       <c r="O576" s="3" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="577" spans="1:15" ht="24.95" customHeight="1">
       <c r="A577" s="3" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="O577" s="3" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="578" spans="1:15" ht="24.95" customHeight="1">
       <c r="A578" s="3" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="O578" s="3" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="579" spans="1:15" ht="24.95" customHeight="1">
       <c r="A579" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B579" s="3" t="s">
+        <v>1866</v>
+      </c>
+      <c r="O579" s="3" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="580" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A580" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="B579" s="16" t="s">
+      <c r="B580" s="16" t="s">
         <v>1863</v>
       </c>
-      <c r="O579" s="16" t="s">
+      <c r="O580" s="16" t="s">
         <v>1802</v>
       </c>
     </row>
-    <row r="580" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A580" s="16" t="s">
+    <row r="581" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A581" s="16" t="s">
         <v>1864</v>
       </c>
-      <c r="B580" s="16" t="s">
+      <c r="B581" s="16" t="s">
         <v>1865</v>
       </c>
-      <c r="O580" s="16" t="s">
+      <c r="O581" s="16" t="s">
         <v>1801</v>
-      </c>
-    </row>
-    <row r="581" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A581" s="3" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B581" s="16" t="s">
-        <v>1861</v>
-      </c>
-      <c r="O581" s="16" t="s">
-        <v>1800</v>
       </c>
     </row>
     <row r="582" spans="1:15" ht="24.95" customHeight="1">
       <c r="A582" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B582" s="16" t="s">
+        <v>1861</v>
+      </c>
+      <c r="O582" s="16" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="583" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A583" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="B582" s="16" t="s">
+      <c r="B583" s="16" t="s">
         <v>1862</v>
       </c>
-      <c r="O582" s="16" t="s">
+      <c r="O583" s="16" t="s">
         <v>1799</v>
       </c>
     </row>
-    <row r="583" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B583" s="16"/>
-      <c r="O583" s="16"/>
-    </row>
     <row r="584" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A584" s="16" t="s">
-        <v>1931</v>
-      </c>
-      <c r="B584" s="16" t="s">
-        <v>1921</v>
-      </c>
-      <c r="O584" s="16" t="s">
-        <v>1938</v>
-      </c>
+      <c r="B584" s="16"/>
+      <c r="O584" s="16"/>
     </row>
     <row r="585" spans="1:15" ht="24.95" customHeight="1">
       <c r="A585" s="16" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B585" s="16" t="s">
-        <v>1934</v>
+        <v>1921</v>
       </c>
       <c r="O585" s="16" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="586" spans="1:15" ht="24.95" customHeight="1">
       <c r="A586" s="16" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B586" s="16" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="O586" s="16" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="587" spans="1:15" ht="24.95" customHeight="1">
       <c r="A587" s="16" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B587" s="16" t="s">
+        <v>1935</v>
+      </c>
+      <c r="O587" s="16" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="588" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A588" s="16" t="s">
         <v>1939</v>
       </c>
-      <c r="B587" s="16" t="s">
+      <c r="B588" s="16" t="s">
         <v>1940</v>
       </c>
-      <c r="O587" s="16" t="s">
+      <c r="O588" s="16" t="s">
         <v>1941</v>
       </c>
     </row>
-    <row r="588" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O588" s="3"/>
-    </row>
     <row r="589" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A589" s="3" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B589" s="3" t="s">
-        <v>1094</v>
-      </c>
-      <c r="O589" s="3" t="s">
-        <v>1095</v>
-      </c>
+      <c r="O589" s="3"/>
     </row>
     <row r="590" spans="1:15" ht="24.95" customHeight="1">
       <c r="A590" s="3" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="O590" s="3" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="591" spans="1:15" ht="24.95" customHeight="1">
       <c r="A591" s="3" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="O591" s="3" t="s">
-        <v>782</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="592" spans="1:15" ht="24.95" customHeight="1">
       <c r="A592" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="O592" s="3" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="593" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A593" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="B592" s="3" t="s">
+      <c r="B593" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="O592" s="16" t="s">
+      <c r="O593" s="16" t="s">
         <v>1854</v>
       </c>
     </row>
-    <row r="593" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O593" s="3"/>
-    </row>
     <row r="594" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A594" s="3" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B594" s="3" t="s">
-        <v>1104</v>
-      </c>
-      <c r="O594" s="3" t="s">
-        <v>1105</v>
-      </c>
+      <c r="O594" s="3"/>
     </row>
     <row r="595" spans="1:15" ht="24.95" customHeight="1">
       <c r="A595" s="3" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="O595" s="3" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="596" spans="1:15" ht="24.95" customHeight="1">
       <c r="A596" s="3" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="O596" s="3" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="597" spans="1:15" ht="24.95" customHeight="1">
       <c r="A597" s="3" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="O597" s="3" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="598" spans="1:15" ht="24.95" customHeight="1">
       <c r="A598" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="O598" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="599" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A599" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="B598" s="3" t="s">
+      <c r="B599" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="O598" s="3" t="s">
+      <c r="O599" s="3" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="599" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O599" s="3"/>
-    </row>
     <row r="600" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A600" s="3" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B600" s="3" t="s">
-        <v>1119</v>
-      </c>
-      <c r="O600" s="3" t="s">
-        <v>1120</v>
-      </c>
+      <c r="O600" s="3"/>
     </row>
     <row r="601" spans="1:15" ht="24.95" customHeight="1">
       <c r="A601" s="3" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B601" s="10" t="s">
-        <v>1122</v>
+        <v>1118</v>
+      </c>
+      <c r="B601" s="3" t="s">
+        <v>1119</v>
       </c>
       <c r="O601" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="602" spans="1:15" ht="24.95" customHeight="1">
       <c r="A602" s="3" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B602" s="3" t="s">
-        <v>1125</v>
+        <v>1121</v>
+      </c>
+      <c r="B602" s="10" t="s">
+        <v>1122</v>
       </c>
       <c r="O602" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="603" spans="1:15" ht="24.95" customHeight="1">
       <c r="A603" s="3" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="O603" s="3" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="604" spans="1:15" ht="24.95" customHeight="1">
       <c r="A604" s="3" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="O604" s="3" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="605" spans="1:15" ht="24.95" customHeight="1">
       <c r="A605" s="3" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="O605" s="3" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="606" spans="1:15" ht="24.95" customHeight="1">
       <c r="A606" s="3" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>985</v>
+        <v>1134</v>
       </c>
       <c r="O606" s="3" t="s">
-        <v>986</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="607" spans="1:15" ht="24.95" customHeight="1">
       <c r="A607" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="O607" s="3" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="608" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A608" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="B607" s="3" t="s">
+      <c r="B608" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="O607" s="3" t="s">
+      <c r="O608" s="3" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="608" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O608" s="3"/>
-    </row>
     <row r="609" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A609" s="10" t="s">
+      <c r="O609" s="3"/>
+    </row>
+    <row r="610" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A610" s="10" t="s">
         <v>1140</v>
       </c>
-      <c r="B609" s="3" t="s">
+      <c r="B610" s="3" t="s">
         <v>1141</v>
       </c>
-      <c r="O609" s="3" t="s">
+      <c r="O610" s="3" t="s">
         <v>1142</v>
-      </c>
-    </row>
-    <row r="610" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A610" s="3" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B610" s="3" t="s">
-        <v>1144</v>
-      </c>
-      <c r="O610" s="3" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="611" spans="1:15" ht="24.95" customHeight="1">
       <c r="A611" s="3" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="O611" s="3" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="612" spans="1:15" ht="24.95" customHeight="1">
       <c r="A612" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="O612" s="3" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="613" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A613" s="3" t="s">
         <v>1149</v>
       </c>
-      <c r="B612" s="3" t="s">
+      <c r="B613" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="O612" s="3" t="s">
+      <c r="O613" s="3" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="613" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O613" s="3"/>
-    </row>
     <row r="614" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A614" s="3" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B614" s="3" t="s">
-        <v>1153</v>
-      </c>
-      <c r="O614" s="3" t="s">
-        <v>1154</v>
-      </c>
+      <c r="O614" s="3"/>
     </row>
     <row r="615" spans="1:15" ht="24.95" customHeight="1">
       <c r="A615" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B615" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="O615" s="3" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="616" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A616" s="3" t="s">
         <v>1155</v>
       </c>
-      <c r="B615" s="3" t="s">
+      <c r="B616" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="O615" s="3" t="s">
+      <c r="O616" s="3" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="616" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A616" s="16" t="s">
+    <row r="617" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A617" s="16" t="s">
         <v>2799</v>
       </c>
-      <c r="B616" s="3" t="s">
+      <c r="B617" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="O616" s="3" t="s">
+      <c r="O617" s="3" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="617" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A617" s="3" t="s">
+    <row r="618" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A618" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="B617" s="3" t="s">
+      <c r="B618" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="O617" s="3" t="s">
+      <c r="O618" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="618" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O618" s="3"/>
-    </row>
     <row r="619" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A619" s="3" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B619" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="O619" s="3" t="s">
-        <v>940</v>
-      </c>
+      <c r="O619" s="3"/>
     </row>
     <row r="620" spans="1:15" ht="24.95" customHeight="1">
       <c r="A620" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>1161</v>
+        <v>939</v>
       </c>
       <c r="O620" s="3" t="s">
-        <v>1006</v>
+        <v>940</v>
       </c>
     </row>
     <row r="621" spans="1:15" ht="24.95" customHeight="1">
       <c r="A621" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B621" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="O621" s="3" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="622" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A622" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="O621" s="3" t="s">
+      <c r="O622" s="3" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="622" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O622" s="3"/>
-    </row>
     <row r="623" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A623" s="16" t="s">
-        <v>2868</v>
-      </c>
-      <c r="O623" s="16" t="s">
-        <v>2870</v>
-      </c>
+      <c r="O623" s="3"/>
     </row>
     <row r="624" spans="1:15" ht="24.95" customHeight="1">
       <c r="A624" s="16" t="s">
+        <v>2868</v>
+      </c>
+      <c r="O624" s="16" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="625" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A625" s="16" t="s">
         <v>2869</v>
       </c>
-      <c r="O624" s="16" t="s">
+      <c r="O625" s="16" t="s">
         <v>2871</v>
       </c>
     </row>
-    <row r="625" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O625" s="3"/>
-    </row>
     <row r="626" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A626" s="3" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B626" s="3" t="s">
-        <v>1165</v>
-      </c>
-      <c r="O626" s="3" t="s">
-        <v>1166</v>
-      </c>
+      <c r="O626" s="3"/>
     </row>
     <row r="627" spans="1:15" ht="24.95" customHeight="1">
       <c r="A627" s="3" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="O627" s="3" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="628" spans="1:15" ht="24.95" customHeight="1">
       <c r="A628" s="3" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>985</v>
+        <v>1168</v>
       </c>
       <c r="O628" s="3" t="s">
-        <v>986</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="629" spans="1:15" ht="24.95" customHeight="1">
       <c r="A629" s="3" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>1172</v>
+        <v>985</v>
       </c>
       <c r="O629" s="3" t="s">
-        <v>1173</v>
+        <v>986</v>
       </c>
     </row>
     <row r="630" spans="1:15" ht="24.95" customHeight="1">
       <c r="A630" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B630" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="O630" s="3" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="631" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A631" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="B630" s="3" t="s">
+      <c r="B631" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="O630" s="3" t="s">
+      <c r="O631" s="3" t="s">
         <v>1176</v>
-      </c>
-    </row>
-    <row r="631" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A631" s="10" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B631" s="16" t="s">
-        <v>1920</v>
-      </c>
-      <c r="O631" s="3" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="632" spans="1:15" ht="24.95" customHeight="1">
       <c r="A632" s="10" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B632" s="3" t="s">
-        <v>1180</v>
+        <v>1177</v>
+      </c>
+      <c r="B632" s="16" t="s">
+        <v>1920</v>
       </c>
       <c r="O632" s="3" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="633" spans="1:15" ht="24.95" customHeight="1">
       <c r="A633" s="10" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="O633" s="3" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="634" spans="1:15" ht="24.95" customHeight="1">
       <c r="A634" s="10" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="B634" s="3" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="O634" s="3" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="635" spans="1:15" ht="24.95" customHeight="1">
       <c r="A635" s="10" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B635" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="O635" s="3" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="636" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A636" s="10" t="s">
         <v>1188</v>
       </c>
-      <c r="B635" s="3" t="s">
+      <c r="B636" s="3" t="s">
         <v>1189</v>
       </c>
-      <c r="O635" s="3" t="s">
+      <c r="O636" s="3" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="636" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O636" s="3"/>
-    </row>
     <row r="637" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A637" s="3" t="s">
+      <c r="O637" s="3"/>
+    </row>
+    <row r="638" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A638" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="B637" s="16" t="s">
+      <c r="B638" s="16" t="s">
         <v>1856</v>
       </c>
-      <c r="O637" s="3" t="s">
+      <c r="O638" s="3" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="638" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O638" s="3"/>
-    </row>
     <row r="639" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A639" s="3" t="s">
+      <c r="O639" s="3"/>
+    </row>
+    <row r="640" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A640" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="B639" s="3" t="s">
+      <c r="B640" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="O639" s="3" t="s">
+      <c r="O640" s="3" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="640" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O640" s="3"/>
-    </row>
     <row r="641" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A641" s="3" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B641" s="3" t="s">
-        <v>1197</v>
-      </c>
-      <c r="O641" s="3" t="s">
-        <v>1198</v>
-      </c>
+      <c r="O641" s="3"/>
     </row>
     <row r="642" spans="1:15" ht="24.95" customHeight="1">
       <c r="A642" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B642" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="O642" s="3" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="643" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A643" s="3" t="s">
         <v>1199</v>
       </c>
-      <c r="B642" s="3" t="s">
+      <c r="B643" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="O642" s="3" t="s">
+      <c r="O643" s="3" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="643" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O643" s="3"/>
-    </row>
     <row r="644" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A644" s="3" t="s">
+      <c r="O644" s="3"/>
+    </row>
+    <row r="645" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A645" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="B644" s="3" t="s">
+      <c r="B645" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="O644" s="3" t="s">
+      <c r="O645" s="3" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="645" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O645" s="3"/>
-    </row>
     <row r="646" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A646" s="3" t="s">
-        <v>1205</v>
-      </c>
-      <c r="O646" s="3" t="s">
-        <v>1206</v>
-      </c>
+      <c r="O646" s="3"/>
     </row>
     <row r="647" spans="1:15" ht="24.95" customHeight="1">
       <c r="A647" s="3" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B647" s="3" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="O647" s="3" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="648" spans="1:15" ht="24.95" customHeight="1">
       <c r="A648" s="3" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="O648" s="3" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="649" spans="1:15" ht="24.95" customHeight="1">
       <c r="A649" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B649" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="O649" s="3" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="650" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A650" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="B649" s="3" t="s">
+      <c r="B650" s="3" t="s">
         <v>1214</v>
       </c>
-      <c r="O649" s="3" t="s">
+      <c r="O650" s="3" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="650" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O650" s="3"/>
-    </row>
     <row r="651" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A651" s="3" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B651" s="3" t="s">
-        <v>1217</v>
-      </c>
-      <c r="O651" s="3" t="s">
-        <v>1218</v>
-      </c>
+      <c r="O651" s="3"/>
     </row>
     <row r="652" spans="1:15" ht="24.95" customHeight="1">
       <c r="A652" s="3" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="O652" s="3" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="653" spans="1:15" ht="24.95" customHeight="1">
       <c r="A653" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B653" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="O653" s="3" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="654" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A654" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="B653" s="3" t="s">
+      <c r="B654" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="O653" s="3" t="s">
+      <c r="O654" s="3" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="654" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O654" s="3"/>
-    </row>
     <row r="655" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A655" s="3" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B655" s="3" t="s">
-        <v>1226</v>
-      </c>
-      <c r="O655" s="3" t="s">
-        <v>1227</v>
-      </c>
+      <c r="O655" s="3"/>
     </row>
     <row r="656" spans="1:15" ht="24.95" customHeight="1">
       <c r="A656" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B656" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="O656" s="3" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="657" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A657" s="3" t="s">
         <v>1228</v>
       </c>
-      <c r="B656" s="3" t="s">
+      <c r="B657" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="O656" s="3" t="s">
+      <c r="O657" s="3" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="657" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O657" s="3"/>
-    </row>
     <row r="658" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A658" s="3" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B658" s="3" t="s">
-        <v>1232</v>
-      </c>
-      <c r="O658" s="3" t="s">
-        <v>1233</v>
-      </c>
+      <c r="O658" s="3"/>
     </row>
     <row r="659" spans="1:15" ht="24.95" customHeight="1">
       <c r="A659" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B659" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="O659" s="3" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="660" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A660" s="3" t="s">
         <v>1234</v>
       </c>
-      <c r="B659" s="3" t="s">
+      <c r="B660" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="O659" s="3" t="s">
+      <c r="O660" s="3" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="660" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O660" s="3"/>
-    </row>
     <row r="661" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A661" s="3" t="s">
+      <c r="O661" s="3"/>
+    </row>
+    <row r="662" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A662" s="3" t="s">
         <v>1237</v>
       </c>
-      <c r="O661" s="16" t="s">
+      <c r="O662" s="16" t="s">
         <v>1869</v>
       </c>
     </row>
-    <row r="662" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O662" s="3"/>
-    </row>
     <row r="663" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A663" s="3" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B663" s="10" t="s">
-        <v>1239</v>
-      </c>
-      <c r="O663" s="3" t="s">
-        <v>1240</v>
-      </c>
+      <c r="O663" s="3"/>
     </row>
     <row r="664" spans="1:15" ht="24.95" customHeight="1">
       <c r="A664" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B664" s="10" t="s">
+        <v>1239</v>
+      </c>
+      <c r="O664" s="3" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="665" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A665" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="B664" s="3" t="s">
+      <c r="B665" s="3" t="s">
         <v>1242</v>
       </c>
-      <c r="O664" s="3" t="s">
+      <c r="O665" s="3" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="665" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O665" s="3"/>
-    </row>
     <row r="666" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A666" s="3" t="s">
+      <c r="O666" s="3"/>
+    </row>
+    <row r="667" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A667" s="3" t="s">
         <v>1244</v>
       </c>
-      <c r="B666" s="3" t="s">
+      <c r="B667" s="3" t="s">
         <v>1245</v>
       </c>
-      <c r="O666" s="3" t="s">
+      <c r="O667" s="3" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="667" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O667" s="3"/>
-    </row>
     <row r="668" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A668" s="3" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B668" s="3" t="s">
-        <v>1248</v>
-      </c>
-      <c r="O668" s="3" t="s">
-        <v>1249</v>
-      </c>
+      <c r="O668" s="3"/>
     </row>
     <row r="669" spans="1:15" ht="24.95" customHeight="1">
       <c r="A669" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B669" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="O669" s="3" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="670" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A670" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="B669" s="3" t="s">
+      <c r="B670" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="O669" s="3" t="s">
+      <c r="O670" s="3" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="670" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O670" s="3"/>
-    </row>
     <row r="671" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A671" s="3" t="s">
+      <c r="O671" s="3"/>
+    </row>
+    <row r="672" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A672" s="3" t="s">
         <v>1253</v>
       </c>
-      <c r="B671" s="16" t="s">
+      <c r="B672" s="16" t="s">
         <v>1858</v>
       </c>
-      <c r="O671" s="3" t="s">
+      <c r="O672" s="3" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="672" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O672" s="3"/>
-    </row>
     <row r="673" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A673" s="3" t="s">
+      <c r="O673" s="3"/>
+    </row>
+    <row r="674" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A674" s="3" t="s">
         <v>1255</v>
       </c>
-      <c r="O673" s="3" t="s">
+      <c r="O674" s="3" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="674" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O674" s="3"/>
-    </row>
     <row r="675" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A675" s="3" t="s">
+      <c r="O675" s="3"/>
+    </row>
+    <row r="676" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A676" s="3" t="s">
         <v>1256</v>
       </c>
-      <c r="B675" s="16" t="s">
+      <c r="B676" s="16" t="s">
         <v>1857</v>
       </c>
-      <c r="O675" s="3" t="s">
+      <c r="O676" s="3" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="676" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O676" s="3"/>
-    </row>
     <row r="677" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A677" s="3" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B677" s="3" t="s">
-        <v>1259</v>
-      </c>
-      <c r="O677" s="3" t="s">
-        <v>1260</v>
-      </c>
+      <c r="O677" s="3"/>
     </row>
     <row r="678" spans="1:15" ht="24.95" customHeight="1">
       <c r="A678" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B678" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="O678" s="3" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="679" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A679" s="3" t="s">
         <v>1261</v>
       </c>
-      <c r="B678" s="3" t="s">
+      <c r="B679" s="3" t="s">
         <v>1262</v>
       </c>
-      <c r="O678" s="3" t="s">
+      <c r="O679" s="3" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="679" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O679" s="3"/>
-    </row>
     <row r="680" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A680" s="3" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B680" s="3" t="s">
-        <v>1265</v>
-      </c>
-      <c r="O680" s="3" t="s">
-        <v>1266</v>
-      </c>
+      <c r="O680" s="3"/>
     </row>
     <row r="681" spans="1:15" ht="24.95" customHeight="1">
       <c r="A681" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B681" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="O681" s="3" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="682" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A682" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="B681" s="3" t="s">
+      <c r="B682" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="O681" s="3" t="s">
+      <c r="O682" s="3" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="682" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O682" s="3"/>
-    </row>
     <row r="683" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A683" s="3" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B683" s="3" t="s">
-        <v>1271</v>
-      </c>
-      <c r="O683" s="3" t="s">
-        <v>1272</v>
-      </c>
+      <c r="O683" s="3"/>
     </row>
     <row r="684" spans="1:15" ht="24.95" customHeight="1">
       <c r="A684" s="3" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="O684" s="3" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="685" spans="1:15" ht="24.95" customHeight="1">
       <c r="A685" s="3" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="O685" s="3" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="686" spans="1:15" ht="24.95" customHeight="1">
       <c r="A686" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B686" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="O686" s="3" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="687" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A687" s="3" t="s">
         <v>1279</v>
       </c>
-      <c r="B686" s="3" t="s">
+      <c r="B687" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="O686" s="3" t="s">
+      <c r="O687" s="3" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="687" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O687" s="3"/>
-    </row>
     <row r="688" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A688" s="16" t="s">
-        <v>1665</v>
-      </c>
-      <c r="O688" s="16" t="s">
-        <v>1667</v>
-      </c>
+      <c r="O688" s="3"/>
     </row>
     <row r="689" spans="1:15" ht="24.95" customHeight="1">
       <c r="A689" s="16" t="s">
+        <v>1665</v>
+      </c>
+      <c r="O689" s="16" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="690" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A690" s="16" t="s">
         <v>1666</v>
       </c>
-      <c r="O689" s="17" t="s">
+      <c r="O690" s="17" t="s">
         <v>1668</v>
       </c>
-    </row>
-    <row r="690" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O690" s="3"/>
     </row>
     <row r="691" spans="1:15" ht="24.95" customHeight="1">
       <c r="O691" s="3"/>
@@ -32639,8 +32669,8 @@
     <row r="786" spans="15:15" ht="24.95" customHeight="1">
       <c r="O786" s="3"/>
     </row>
-    <row r="788" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O788" s="3"/>
+    <row r="787" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O787" s="3"/>
     </row>
     <row r="789" spans="15:15" ht="24.95" customHeight="1">
       <c r="O789" s="3"/>
@@ -33819,23 +33849,23 @@
       <c r="O1180" s="3"/>
     </row>
     <row r="1181" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A1181" s="14"/>
-      <c r="B1181" s="14"/>
-      <c r="D1181" s="14"/>
-      <c r="E1181" s="14"/>
-      <c r="F1181" s="14"/>
-      <c r="G1181" s="14"/>
-      <c r="H1181" s="14"/>
-      <c r="I1181" s="14"/>
-      <c r="J1181" s="14"/>
-      <c r="K1181" s="14"/>
-      <c r="L1181" s="14"/>
-      <c r="M1181" s="14"/>
-      <c r="N1181" s="14"/>
-      <c r="O1181" s="15"/>
+      <c r="O1181" s="3"/>
     </row>
     <row r="1182" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O1182" s="3"/>
+      <c r="A1182" s="14"/>
+      <c r="B1182" s="14"/>
+      <c r="D1182" s="14"/>
+      <c r="E1182" s="14"/>
+      <c r="F1182" s="14"/>
+      <c r="G1182" s="14"/>
+      <c r="H1182" s="14"/>
+      <c r="I1182" s="14"/>
+      <c r="J1182" s="14"/>
+      <c r="K1182" s="14"/>
+      <c r="L1182" s="14"/>
+      <c r="M1182" s="14"/>
+      <c r="N1182" s="14"/>
+      <c r="O1182" s="15"/>
     </row>
     <row r="1183" spans="1:15" ht="24.95" customHeight="1">
       <c r="O1183" s="3"/>
@@ -35349,8 +35379,11 @@
     <row r="1686" spans="15:15" ht="24.95" customHeight="1">
       <c r="O1686" s="3"/>
     </row>
+    <row r="1687" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1687" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="O1:O1389" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="O1:O1390" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -35359,11 +35392,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1"/>
@@ -35801,124 +35834,135 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A44" s="18" t="s">
+    <row r="43" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A43" s="18" t="s">
+        <v>2907</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>2908</v>
+      </c>
+      <c r="O43" s="18" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A45" s="18" t="s">
         <v>1807</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B45" s="18" t="s">
         <v>1809</v>
       </c>
-      <c r="O44" s="18" t="s">
+      <c r="O45" s="18" t="s">
         <v>1810</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A46" s="5" t="s">
-        <v>1669</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>1356</v>
-      </c>
-      <c r="O46" s="5" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="24.95" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>1358</v>
+        <v>1669</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="24.95" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="24.95" customHeight="1">
       <c r="A49" s="5" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A50" s="5" t="s">
         <v>1364</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B50" s="18" t="s">
         <v>2850</v>
       </c>
-      <c r="O49" s="5" t="s">
+      <c r="O50" s="5" t="s">
         <v>1365</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A50" s="18" t="s">
-        <v>2794</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>2849</v>
-      </c>
-      <c r="O50" s="18" t="s">
-        <v>2795</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="24.95" customHeight="1">
       <c r="A51" s="18" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>2849</v>
+      </c>
+      <c r="O51" s="18" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A52" s="18" t="s">
         <v>2848</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B52" s="18" t="s">
         <v>2852</v>
       </c>
-      <c r="O51" s="18" t="s">
+      <c r="O52" s="18" t="s">
         <v>2851</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A52" s="5" t="s">
+    <row r="53" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A53" s="5" t="s">
         <v>1366</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B53" s="5" t="s">
         <v>1367</v>
       </c>
-      <c r="O52" s="5" t="s">
+      <c r="O53" s="5" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A54" s="18" t="s">
+    <row r="55" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A55" s="18" t="s">
         <v>2872</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B55" s="5" t="s">
         <v>2873</v>
       </c>
-      <c r="O54" s="5" t="s">
+      <c r="O55" s="5" t="s">
         <v>2874</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A55" s="5" t="s">
-        <v>2877</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>2875</v>
-      </c>
-      <c r="O55" s="5" t="s">
-        <v>2876</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="24.95" customHeight="1">
       <c r="A56" s="5" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>2875</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A57" s="5" t="s">
         <v>2878</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B57" s="5" t="s">
         <v>2879</v>
       </c>
-      <c r="O56" s="5" t="s">
+      <c r="O57" s="5" t="s">
         <v>2880</v>
       </c>
     </row>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA52DEBB-6506-42D3-AC5B-DC42C580DA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8815A128-A9B3-4D37-8BE4-2FB1EB1B59C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="645" windowWidth="25620" windowHeight="15555" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1590" yWindow="645" windowWidth="25620" windowHeight="15555" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="3" r:id="rId1"/>
@@ -10063,11 +10063,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在会议中投票给查验目标，
-下一轮会议开始时即可获得投票目标的身份信息。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>执子之手，与子共生。
 恋人如果有任何一方被击杀，另一方也会一起死亡。
 当恋人中有一方并非船员时并且恋人存活，
@@ -10256,6 +10251,11 @@
   </si>
   <si>
     <t>Roles Count</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在会议中投票给查验目标，
+下一轮会议开始时即可获得投票目标的阵营信息。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -10854,7 +10854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1697"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
     </sheetView>
@@ -11607,13 +11607,13 @@
     </row>
     <row r="70" spans="1:15" ht="24.95" customHeight="1">
       <c r="A70" s="2" t="s">
+        <v>2925</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>2927</v>
+      </c>
+      <c r="O70" s="2" t="s">
         <v>2926</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>2928</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>2927</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="24.95" customHeight="1">
@@ -15377,7 +15377,7 @@
         <v>985</v>
       </c>
       <c r="O462" s="2" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="463" spans="1:15" ht="24.95" customHeight="1">
@@ -21833,10 +21833,10 @@
         <v>1472</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -25605,9 +25605,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P62" sqref="P62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O84" sqref="O84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="60" customHeight="1"/>
@@ -26129,7 +26129,7 @@
     </row>
     <row r="61" spans="1:15" ht="60" customHeight="1">
       <c r="A61" s="8" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="O61" s="8" t="s">
         <v>2885</v>
@@ -26148,7 +26148,7 @@
         <v>2424</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="60" customHeight="1">
@@ -26228,7 +26228,7 @@
         <v>1900</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>2895</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="60" customHeight="1">
@@ -26244,7 +26244,7 @@
         <v>2434</v>
       </c>
       <c r="O76" s="8" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="60" customHeight="1">
@@ -26260,7 +26260,7 @@
         <v>2436</v>
       </c>
       <c r="O78" s="8" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="60" customHeight="1">
@@ -26268,7 +26268,7 @@
         <v>2437</v>
       </c>
       <c r="O79" s="8" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="60" customHeight="1">
@@ -26276,7 +26276,7 @@
         <v>2438</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="60" customHeight="1">
@@ -26284,7 +26284,7 @@
         <v>2439</v>
       </c>
       <c r="O81" s="8" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="60" customHeight="1">
@@ -26292,7 +26292,7 @@
         <v>2440</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="60" customHeight="1">
@@ -26300,7 +26300,7 @@
         <v>2441</v>
       </c>
       <c r="O83" s="8" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="60" customHeight="1">
@@ -26308,7 +26308,7 @@
         <v>2442</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="60" customHeight="1">
@@ -26316,7 +26316,7 @@
         <v>2443</v>
       </c>
       <c r="O85" s="8" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="60" customHeight="1">
@@ -26324,7 +26324,7 @@
         <v>2444</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="60" customHeight="1">
@@ -26332,7 +26332,7 @@
         <v>2445</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="60" customHeight="1">
@@ -26340,7 +26340,7 @@
         <v>2446</v>
       </c>
       <c r="O88" s="8" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="60" customHeight="1">
@@ -26356,7 +26356,7 @@
         <v>2448</v>
       </c>
       <c r="O90" s="8" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="60" customHeight="1">
@@ -26364,7 +26364,7 @@
         <v>2449</v>
       </c>
       <c r="O91" s="8" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="60" customHeight="1">
@@ -26372,7 +26372,7 @@
         <v>2450</v>
       </c>
       <c r="O92" s="8" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="60" customHeight="1">
@@ -26380,7 +26380,7 @@
         <v>2451</v>
       </c>
       <c r="O93" s="8" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="60" customHeight="1">
@@ -26388,7 +26388,7 @@
         <v>2452</v>
       </c>
       <c r="O94" s="8" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="60" customHeight="1">
@@ -26396,7 +26396,7 @@
         <v>2453</v>
       </c>
       <c r="O95" s="8" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="60" customHeight="1">
@@ -26404,7 +26404,7 @@
         <v>2454</v>
       </c>
       <c r="O96" s="8" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="60" customHeight="1">
@@ -26412,7 +26412,7 @@
         <v>2455</v>
       </c>
       <c r="O97" s="8" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="60" customHeight="1">
@@ -26420,7 +26420,7 @@
         <v>2456</v>
       </c>
       <c r="O98" s="8" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="60" customHeight="1">
@@ -26428,7 +26428,7 @@
         <v>2457</v>
       </c>
       <c r="O99" s="8" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="60" customHeight="1">
@@ -26436,7 +26436,7 @@
         <v>2458</v>
       </c>
       <c r="O100" s="8" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="60" customHeight="1">
@@ -26444,7 +26444,7 @@
         <v>2459</v>
       </c>
       <c r="O101" s="8" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="60" customHeight="1">
@@ -26452,7 +26452,7 @@
         <v>2460</v>
       </c>
       <c r="O102" s="8" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD8C222-7736-4D97-A3B4-ABAA6E9F2C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E52F11-E97C-4521-BDE9-ECFD44DEB7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="645" windowWidth="25620" windowHeight="15555" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Role Description" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Options!$O$1:$O$1401</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Options!$O$1:$O$1402</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="2931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3270" uniqueCount="2939">
   <si>
     <t>English</t>
   </si>
@@ -10266,6 +10266,37 @@
   <si>
     <t>arsonistIgniteCdRemoved</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GhostRoleText</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GhostRole</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽灵职业</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GhostEngineer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GhostEngineerIntroDesc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GhostEngineerShortDesc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂工程师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弥补生前未能修好飞船的遗憾</t>
   </si>
 </sst>
 </file>
@@ -10861,11 +10892,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1698"/>
+  <dimension ref="A1:Q1699"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A368" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A383" sqref="A383"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="24.95" customHeight="1"/>
@@ -11360,6247 +11391,6255 @@
       </c>
     </row>
     <row r="44" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="A44" s="3" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>2932</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>2933</v>
+      </c>
     </row>
     <row r="45" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A45" s="2" t="s">
-        <v>2365</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
     </row>
     <row r="46" spans="1:15" ht="24.95" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="24.95" customHeight="1">
       <c r="A47" s="2" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A48" s="2" t="s">
         <v>2362</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="O48" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A48" s="3" t="s">
+    <row r="49" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A49" s="3" t="s">
         <v>2363</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="O48" s="3" t="s">
+      <c r="O49" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-    </row>
     <row r="50" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A51" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>2816</v>
       </c>
-      <c r="O50" s="3" t="s">
+      <c r="O51" s="3" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A51" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O51" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="24.95" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>67</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="24.95" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>2608</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>2609</v>
+        <v>67</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>2615</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="24.95" customHeight="1">
       <c r="A54" s="2" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>2609</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A55" s="2" t="s">
         <v>2621</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>2622</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="O54" s="3" t="s">
+      <c r="C55" s="3"/>
+      <c r="O55" s="3" t="s">
         <v>2623</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A55" s="3"/>
-    </row>
     <row r="56" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A56" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="A56" s="3"/>
     </row>
     <row r="57" spans="1:15" ht="24.95" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>1723</v>
+        <v>71</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="24.95" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="24.95" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>80</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="24.95" customHeight="1">
       <c r="A60" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A61" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O60" s="3" t="s">
+      <c r="O61" s="3" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A61" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O61" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="24.95" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>1725</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="24.95" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>1725</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="24.95" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="24.95" customHeight="1">
       <c r="A65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A66" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="O65" s="2" t="s">
+      <c r="O66" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O66" s="2"/>
-    </row>
     <row r="67" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A67" s="2" t="s">
+      <c r="O67" s="2"/>
+    </row>
+    <row r="68" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A68" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="M67" s="2" t="s">
+      <c r="M68" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O67" s="2" t="s">
+      <c r="O68" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O68" s="2"/>
-    </row>
     <row r="69" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A69" s="2" t="s">
-        <v>1897</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>1897</v>
-      </c>
-      <c r="O69" s="2" t="s">
-        <v>1898</v>
-      </c>
+      <c r="O69" s="2"/>
     </row>
     <row r="70" spans="1:15" ht="24.95" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>2924</v>
+        <v>1897</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>2926</v>
+        <v>1897</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>2925</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="24.95" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>2924</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>112</v>
+        <v>2926</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>113</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="24.95" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="24.95" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="24.95" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="24.95" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="24.95" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="24.95" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="24.95" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="24.95" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="24.95" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="24.95" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="24.95" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="24.95" customHeight="1">
       <c r="A83" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A84" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="O83" s="2" t="s">
+      <c r="O84" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O84" s="2"/>
-    </row>
     <row r="85" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A85" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O85" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="O85" s="2"/>
     </row>
     <row r="86" spans="1:15" ht="24.95" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="24.95" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="24.95" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="24.95" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="24.95" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="24.95" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="24.95" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>2582</v>
+        <v>170</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="24.95" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>2578</v>
+        <v>172</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>2820</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="24.95" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="24.95" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>174</v>
+        <v>2579</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>175</v>
+        <v>2580</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>176</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="24.95" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="24.95" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="24.95" customHeight="1">
       <c r="A98" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A99" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="O98" s="2" t="s">
+      <c r="O99" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O99" s="2"/>
-    </row>
     <row r="100" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A100" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O100" s="2" t="s">
-        <v>188</v>
-      </c>
+      <c r="O100" s="2"/>
     </row>
     <row r="101" spans="1:15" ht="24.95" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="24.95" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="24.95" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="24.95" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="24.95" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="24.95" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>2479</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="24.95" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>208</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="24.95" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="24.95" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>2516</v>
+        <v>209</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>2521</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="24.95" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>213</v>
+        <v>2516</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>215</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="24.95" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="24.95" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>2630</v>
+        <v>216</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>2631</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="24.95" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>1837</v>
-      </c>
-      <c r="O113" s="3" t="s">
-        <v>2616</v>
+        <v>2630</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>2631</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="24.95" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="O114" s="2" t="s">
-        <v>221</v>
+        <v>1837</v>
+      </c>
+      <c r="O114" s="3" t="s">
+        <v>2616</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="24.95" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="24.95" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="24.95" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="24.95" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="24.95" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>2569</v>
+        <v>231</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="24.95" customHeight="1">
       <c r="A120" s="2" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A121" s="2" t="s">
         <v>2604</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B121" s="2" t="s">
         <v>2605</v>
       </c>
-      <c r="O120" s="2" t="s">
+      <c r="O121" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O121" s="2"/>
-    </row>
     <row r="122" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A122" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="O122" s="2" t="s">
-        <v>239</v>
-      </c>
+      <c r="O122" s="2"/>
     </row>
     <row r="123" spans="1:15" ht="24.95" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="24.95" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="24.95" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="O125" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
+      </c>
+      <c r="O125" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="24.95" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>1800</v>
+        <v>247</v>
       </c>
       <c r="O126" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="24.95" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>1802</v>
-      </c>
-      <c r="O127" s="2" t="s">
-        <v>252</v>
+        <v>1800</v>
+      </c>
+      <c r="O127" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="24.95" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>1801</v>
+        <v>251</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="24.95" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>253</v>
+        <v>1801</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>1803</v>
+        <v>254</v>
       </c>
     </row>
     <row r="130" spans="1:15" ht="24.95" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>256</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="131" spans="1:15" ht="24.95" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="132" spans="1:15" ht="24.95" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133" spans="1:15" ht="24.95" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="134" spans="1:15" ht="24.95" customHeight="1">
       <c r="A134" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="O134" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A135" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B135" s="2" t="s">
         <v>1806</v>
       </c>
-      <c r="O134" s="2" t="s">
+      <c r="O135" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O135" s="2"/>
-    </row>
     <row r="136" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A136" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="O136" s="2" t="s">
-        <v>266</v>
-      </c>
+      <c r="O136" s="2"/>
     </row>
     <row r="137" spans="1:15" ht="24.95" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="138" spans="1:15" ht="24.95" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="139" spans="1:15" ht="24.95" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O139" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="140" spans="1:15" ht="24.95" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1771</v>
+        <v>273</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="141" spans="1:15" ht="24.95" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>278</v>
+        <v>1771</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="142" spans="1:15" ht="24.95" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="143" spans="1:15" ht="24.95" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="144" spans="1:15" ht="24.95" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="145" spans="1:15" ht="24.95" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1769</v>
+        <v>287</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="146" spans="1:15" ht="24.95" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>1770</v>
+        <v>288</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="147" spans="1:15" ht="24.95" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>291</v>
+        <v>1770</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="148" spans="1:15" ht="24.95" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>294</v>
+        <v>1772</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="149" spans="1:15" ht="24.95" customHeight="1">
       <c r="A149" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="O149" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A150" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B150" s="2" t="s">
         <v>1773</v>
       </c>
-      <c r="O149" s="2" t="s">
+      <c r="O150" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O150" s="2"/>
-    </row>
     <row r="151" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A151" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="O151" s="2" t="s">
-        <v>299</v>
-      </c>
+      <c r="O151" s="2"/>
     </row>
     <row r="152" spans="1:15" ht="24.95" customHeight="1">
       <c r="A152" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="O152" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A153" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B153" s="2" t="s">
         <v>2527</v>
       </c>
-      <c r="O152" s="2" t="s">
+      <c r="O153" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O153" s="2"/>
-    </row>
     <row r="154" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A154" s="2" t="s">
-        <v>2524</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="O154" s="2" t="s">
-        <v>2523</v>
-      </c>
+      <c r="O154" s="2"/>
     </row>
     <row r="155" spans="1:15" ht="24.95" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>2628</v>
+        <v>2524</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>2627</v>
+        <v>302</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>2629</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="156" spans="1:15" ht="24.95" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>303</v>
+        <v>2628</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>304</v>
+        <v>2627</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>305</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="157" spans="1:15" ht="24.95" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O157" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="158" spans="1:15" ht="24.95" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="159" spans="1:15" ht="24.95" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="O159" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
+      </c>
+      <c r="O159" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="160" spans="1:15" ht="24.95" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="O160" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
+      </c>
+      <c r="O160" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="161" spans="1:15" ht="24.95" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="O161" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="162" spans="1:15" ht="24.95" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="O162" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="163" spans="1:15" ht="24.95" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="O163" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="164" spans="1:15" ht="24.95" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>1811</v>
+        <v>326</v>
       </c>
     </row>
     <row r="165" spans="1:15" ht="24.95" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O165" s="2" t="s">
-        <v>331</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="166" spans="1:15" ht="24.95" customHeight="1">
       <c r="A166" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="O166" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A167" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B167" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="O166" s="2" t="s">
+      <c r="O167" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O167" s="2"/>
-    </row>
     <row r="168" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A168" s="2" t="s">
-        <v>1854</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="O168" s="2" t="s">
-        <v>1856</v>
-      </c>
+      <c r="O168" s="2"/>
     </row>
     <row r="169" spans="1:15" ht="24.95" customHeight="1">
       <c r="A169" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>1855</v>
+      </c>
+      <c r="O169" s="2" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A170" s="2" t="s">
         <v>2602</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B170" s="2" t="s">
         <v>2601</v>
       </c>
-      <c r="O169" s="2" t="s">
+      <c r="O170" s="2" t="s">
         <v>2603</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O170" s="2"/>
-    </row>
     <row r="171" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A171" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>1774</v>
-      </c>
-      <c r="O171" s="2" t="s">
-        <v>336</v>
-      </c>
+      <c r="O171" s="2"/>
     </row>
     <row r="172" spans="1:15" ht="24.95" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="O172" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="173" spans="1:15" ht="24.95" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="O173" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="174" spans="1:15" ht="24.95" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="O174" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="175" spans="1:15" ht="24.95" customHeight="1">
       <c r="A175" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="O175" s="2" t="s">
-        <v>1875</v>
+        <v>342</v>
       </c>
     </row>
     <row r="176" spans="1:15" ht="24.95" customHeight="1">
       <c r="A176" s="2" t="s">
-        <v>1681</v>
+        <v>343</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="O176" s="2" t="s">
-        <v>1682</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="177" spans="1:15" ht="24.95" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>2359</v>
+        <v>1681</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>2361</v>
+        <v>1780</v>
       </c>
       <c r="O177" s="2" t="s">
-        <v>2360</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="178" spans="1:15" ht="24.95" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>344</v>
+        <v>2359</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>1779</v>
+        <v>2361</v>
       </c>
       <c r="O178" s="2" t="s">
-        <v>345</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="179" spans="1:15" ht="24.95" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
       <c r="O179" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="180" spans="1:15" ht="24.95" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="O180" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="181" spans="1:15" ht="24.95" customHeight="1">
       <c r="A181" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="O181" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="182" spans="1:15" ht="24.95" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>532</v>
+        <v>1782</v>
       </c>
       <c r="O182" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="183" spans="1:15" ht="24.95" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1783</v>
+        <v>532</v>
       </c>
       <c r="O183" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="184" spans="1:15" ht="24.95" customHeight="1">
       <c r="A184" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="O184" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A185" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B185" s="2" t="s">
         <v>1784</v>
       </c>
-      <c r="O184" s="2" t="s">
+      <c r="O185" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O185" s="2"/>
-    </row>
     <row r="186" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A186" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="O186" s="2" t="s">
-        <v>360</v>
-      </c>
+      <c r="O186" s="2"/>
     </row>
     <row r="187" spans="1:15" ht="24.95" customHeight="1">
       <c r="A187" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="O187" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="188" spans="1:15" ht="24.95" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="O188" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="189" spans="1:15" ht="24.95" customHeight="1">
       <c r="A189" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="O189" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="190" spans="1:15" ht="24.95" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="O190" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="191" spans="1:15" ht="24.95" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="O191" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="192" spans="1:15" ht="24.95" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="O192" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="193" spans="1:15" ht="24.95" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O193" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="194" spans="1:15" ht="24.95" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O194" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="195" spans="1:15" ht="24.95" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="O195" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="196" spans="1:15" ht="24.95" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="O196" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="197" spans="1:15" ht="24.95" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="O197" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="198" spans="1:15" ht="24.95" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="O198" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="199" spans="1:15" ht="24.95" customHeight="1">
       <c r="A199" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="O199" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A200" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B200" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="O199" s="2" t="s">
+      <c r="O200" s="2" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A201" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="O201" s="2" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="202" spans="1:15" ht="24.95" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="O202" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="203" spans="1:15" ht="24.95" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="O203" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="204" spans="1:15" ht="24.95" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="O204" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="205" spans="1:15" ht="24.95" customHeight="1">
       <c r="A205" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="O205" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="206" spans="1:15" ht="24.95" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="O206" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="207" spans="1:15" ht="24.95" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="O207" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="208" spans="1:15" ht="24.95" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O208" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="209" spans="1:15" ht="24.95" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="O209" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="210" spans="1:15" ht="24.95" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="O210" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="211" spans="1:15" ht="24.95" customHeight="1">
       <c r="A211" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="O211" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A212" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B212" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="O211" s="2" t="s">
+      <c r="O212" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O212" s="2"/>
-    </row>
     <row r="213" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A213" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="O213" s="2" t="s">
-        <v>435</v>
-      </c>
+      <c r="O213" s="2"/>
     </row>
     <row r="214" spans="1:15" ht="24.95" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="O214" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="215" spans="1:15" ht="24.95" customHeight="1">
       <c r="A215" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="O215" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="216" spans="1:15" ht="24.95" customHeight="1">
       <c r="A216" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="O216" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A217" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B217" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="O216" s="2" t="s">
+      <c r="O217" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O217" s="2"/>
-    </row>
     <row r="218" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A218" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="O218" s="2" t="s">
-        <v>384</v>
-      </c>
+      <c r="O218" s="2"/>
     </row>
     <row r="219" spans="1:15" ht="24.95" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>447</v>
+        <v>383</v>
       </c>
       <c r="O219" s="2" t="s">
-        <v>448</v>
+        <v>384</v>
       </c>
     </row>
     <row r="220" spans="1:15" ht="24.95" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="O220" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="221" spans="1:15" ht="24.95" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>368</v>
+        <v>450</v>
       </c>
       <c r="O221" s="2" t="s">
-        <v>369</v>
+        <v>451</v>
       </c>
     </row>
     <row r="222" spans="1:15" ht="24.95" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>454</v>
+        <v>368</v>
       </c>
       <c r="O222" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="223" spans="1:15" ht="24.95" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>395</v>
+        <v>454</v>
       </c>
       <c r="O223" s="2" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="224" spans="1:15" ht="24.95" customHeight="1">
       <c r="A224" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="O224" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A225" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B225" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="O224" s="2" t="s">
+      <c r="O225" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O225" s="2"/>
-    </row>
     <row r="226" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A226" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="O226" s="2" t="s">
-        <v>460</v>
-      </c>
+      <c r="O226" s="2"/>
     </row>
     <row r="227" spans="1:15" ht="24.95" customHeight="1">
       <c r="A227" s="2" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="O227" s="2" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="228" spans="1:15" ht="24.95" customHeight="1">
       <c r="A228" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="O228" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A229" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B229" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="O228" s="2" t="s">
+      <c r="O229" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O229" s="2"/>
-    </row>
     <row r="230" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A230" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="O230" s="2" t="s">
-        <v>363</v>
-      </c>
+      <c r="O230" s="2"/>
     </row>
     <row r="231" spans="1:15" ht="24.95" customHeight="1">
       <c r="A231" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>463</v>
+        <v>365</v>
       </c>
       <c r="O231" s="2" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
     </row>
     <row r="232" spans="1:15" ht="24.95" customHeight="1">
       <c r="A232" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O232" s="2" t="s">
-        <v>466</v>
+        <v>402</v>
       </c>
     </row>
     <row r="233" spans="1:15" ht="24.95" customHeight="1">
       <c r="A233" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="O233" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A234" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B234" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="O233" s="2" t="s">
+      <c r="O234" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O234" s="2"/>
-    </row>
     <row r="235" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A235" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="O235" s="2" t="s">
-        <v>472</v>
-      </c>
+      <c r="O235" s="2"/>
     </row>
     <row r="236" spans="1:15" ht="24.95" customHeight="1">
       <c r="A236" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="O236" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="237" spans="1:15" ht="24.95" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="O237" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="238" spans="1:15" ht="24.95" customHeight="1">
       <c r="A238" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>416</v>
+        <v>477</v>
       </c>
       <c r="O238" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="239" spans="1:15" ht="24.95" customHeight="1">
       <c r="A239" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>416</v>
       </c>
       <c r="O239" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="240" spans="1:15" ht="24.95" customHeight="1">
       <c r="A240" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="O240" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A241" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B241" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="O240" s="2" t="s">
+      <c r="O241" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O241" s="2"/>
-    </row>
     <row r="242" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A242" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="O242" s="2" t="s">
-        <v>488</v>
-      </c>
+      <c r="O242" s="2"/>
     </row>
     <row r="243" spans="1:15" ht="24.95" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="O243" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="244" spans="1:15" ht="24.95" customHeight="1">
       <c r="A244" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="O244" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="245" spans="1:15" ht="24.95" customHeight="1">
       <c r="A245" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="O245" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="246" spans="1:15" ht="24.95" customHeight="1">
       <c r="A246" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O246" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="247" spans="1:15" ht="24.95" customHeight="1">
       <c r="A247" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="O247" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="248" spans="1:15" ht="24.95" customHeight="1">
       <c r="A248" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="O248" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="249" spans="1:15" ht="24.95" customHeight="1">
       <c r="A249" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="O249" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A250" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B250" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="O249" s="2" t="s">
+      <c r="O250" s="2" t="s">
         <v>509</v>
-      </c>
-    </row>
-    <row r="251" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A251" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="O251" s="2" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="252" spans="1:15" ht="24.95" customHeight="1">
       <c r="A252" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="O252" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="253" spans="1:15" ht="24.95" customHeight="1">
       <c r="A253" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O253" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="254" spans="1:15" ht="24.95" customHeight="1">
       <c r="A254" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O254" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="255" spans="1:15" ht="24.95" customHeight="1">
       <c r="A255" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="O255" s="4" t="s">
-        <v>524</v>
+        <v>520</v>
+      </c>
+      <c r="O255" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="256" spans="1:15" ht="24.95" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="O256" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
+      </c>
+      <c r="O256" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="257" spans="1:15" ht="24.95" customHeight="1">
       <c r="A257" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="O257" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="258" spans="1:15" ht="24.95" customHeight="1">
       <c r="A258" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="O258" s="4" t="s">
-        <v>533</v>
+        <v>529</v>
+      </c>
+      <c r="O258" s="2" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="259" spans="1:15" ht="24.95" customHeight="1">
       <c r="A259" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="O259" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A260" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B260" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="O259" s="4" t="s">
+      <c r="O260" s="4" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="260" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O260" s="4"/>
-    </row>
     <row r="261" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A261" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="O261" s="4" t="s">
-        <v>539</v>
-      </c>
+      <c r="O261" s="4"/>
     </row>
     <row r="262" spans="1:15" ht="24.95" customHeight="1">
       <c r="A262" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="O262" s="4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A263" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B263" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="O262" s="4" t="s">
+      <c r="O263" s="4" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="263" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O263" s="2"/>
-    </row>
     <row r="264" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A264" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="O264" s="2" t="s">
-        <v>545</v>
-      </c>
+      <c r="O264" s="2"/>
     </row>
     <row r="265" spans="1:15" ht="24.95" customHeight="1">
       <c r="A265" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="O265" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="266" spans="1:15" ht="24.95" customHeight="1">
       <c r="A266" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="O266" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="267" spans="1:15" ht="24.95" customHeight="1">
       <c r="A267" s="2" t="s">
-        <v>2543</v>
+        <v>549</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>2551</v>
+        <v>550</v>
       </c>
       <c r="O267" s="2" t="s">
-        <v>2544</v>
+        <v>551</v>
       </c>
     </row>
     <row r="268" spans="1:15" ht="24.95" customHeight="1">
       <c r="A268" s="2" t="s">
-        <v>2546</v>
+        <v>2543</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="O268" s="2" t="s">
-        <v>2547</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="269" spans="1:15" ht="24.95" customHeight="1">
       <c r="A269" s="2" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>2552</v>
+      </c>
+      <c r="O269" s="2" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A270" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B270" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="O269" s="2" t="s">
+      <c r="O270" s="2" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="270" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O270" s="2"/>
-    </row>
     <row r="271" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A271" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="O271" s="2" t="s">
-        <v>557</v>
-      </c>
+      <c r="O271" s="2"/>
     </row>
     <row r="272" spans="1:15" ht="24.95" customHeight="1">
       <c r="A272" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="O272" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="273" spans="1:15" ht="24.95" customHeight="1">
       <c r="A273" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="O273" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A274" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="B274" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="O273" s="2" t="s">
+      <c r="O274" s="2" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="274" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O274" s="2"/>
-    </row>
     <row r="275" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A275" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="O275" s="2" t="s">
-        <v>566</v>
-      </c>
+      <c r="O275" s="2"/>
     </row>
     <row r="276" spans="1:15" ht="24.95" customHeight="1">
       <c r="A276" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="O276" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A277" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B276" s="2" t="s">
+      <c r="B277" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="O276" s="2" t="s">
+      <c r="O277" s="2" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="277" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O277" s="2"/>
-    </row>
     <row r="278" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A278" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="O278" s="2" t="s">
-        <v>572</v>
-      </c>
+      <c r="O278" s="2"/>
     </row>
     <row r="279" spans="1:15" ht="24.95" customHeight="1">
       <c r="A279" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="O279" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="280" spans="1:15" ht="24.95" customHeight="1">
       <c r="A280" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="O280" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="281" spans="1:15" ht="24.95" customHeight="1">
       <c r="A281" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="O281" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A282" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B281" s="2" t="s">
+      <c r="B282" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="O281" s="2" t="s">
+      <c r="O282" s="2" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="282" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O282" s="2"/>
-    </row>
     <row r="283" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A283" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="O283" s="2" t="s">
-        <v>584</v>
-      </c>
+      <c r="O283" s="2"/>
     </row>
     <row r="284" spans="1:15" ht="24.95" customHeight="1">
       <c r="A284" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="O284" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="285" spans="1:15" ht="24.95" customHeight="1">
       <c r="A285" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="O285" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A286" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="B286" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="O285" s="2" t="s">
+      <c r="O286" s="2" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="286" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O286" s="2"/>
-    </row>
     <row r="287" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A287" s="2" t="s">
+      <c r="O287" s="2"/>
+    </row>
+    <row r="288" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A288" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B288" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="O287" s="2" t="s">
+      <c r="O288" s="2" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="288" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O288" s="2"/>
-    </row>
     <row r="289" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A289" s="2" t="s">
-        <v>1866</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>1873</v>
-      </c>
-      <c r="O289" s="2" t="s">
-        <v>1872</v>
-      </c>
+      <c r="O289" s="2"/>
     </row>
     <row r="290" spans="1:15" ht="24.95" customHeight="1">
       <c r="A290" s="2" t="s">
-        <v>1870</v>
+        <v>1866</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="O290" s="2" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="291" spans="1:15" ht="24.95" customHeight="1">
       <c r="A291" s="2" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>1874</v>
+      </c>
+      <c r="O291" s="2" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A292" s="2" t="s">
         <v>1867</v>
       </c>
-      <c r="B291" s="2" t="s">
+      <c r="B292" s="2" t="s">
         <v>1868</v>
       </c>
-      <c r="O291" s="2" t="s">
+      <c r="O292" s="2" t="s">
         <v>1869</v>
       </c>
     </row>
-    <row r="292" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O292" s="2"/>
-    </row>
     <row r="293" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A293" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="O293" s="2" t="s">
-        <v>596</v>
-      </c>
+      <c r="O293" s="2"/>
     </row>
     <row r="294" spans="1:15" ht="24.95" customHeight="1">
       <c r="A294" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="O294" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="295" spans="1:15" ht="24.95" customHeight="1">
       <c r="A295" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="O295" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A296" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B295" s="2" t="s">
+      <c r="B296" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="O295" s="4" t="s">
+      <c r="O296" s="4" t="s">
         <v>602</v>
-      </c>
-    </row>
-    <row r="297" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A297" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="O297" s="4" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="298" spans="1:15" ht="24.95" customHeight="1">
       <c r="A298" s="2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="O298" s="3" t="s">
-        <v>609</v>
+        <v>605</v>
+      </c>
+      <c r="O298" s="4" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="299" spans="1:15" ht="24.95" customHeight="1">
       <c r="A299" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="O299" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A300" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B300" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="O299" s="4" t="s">
+      <c r="O300" s="4" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="300" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O300" s="2"/>
-    </row>
     <row r="301" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A301" s="2" t="s">
+      <c r="O301" s="2"/>
+    </row>
+    <row r="302" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A302" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="B302" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="O301" s="3" t="s">
+      <c r="O302" s="3" t="s">
         <v>615</v>
-      </c>
-    </row>
-    <row r="303" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A303" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="O303" s="3" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="304" spans="1:15" ht="24.95" customHeight="1">
       <c r="A304" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="O304" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A305" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="B304" s="2" t="s">
+      <c r="B305" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="O304" s="3" t="s">
+      <c r="O305" s="3" t="s">
         <v>621</v>
-      </c>
-    </row>
-    <row r="306" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A306" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="O306" s="3" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="307" spans="1:15" ht="24.95" customHeight="1">
       <c r="A307" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="O307" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="308" spans="1:15" ht="24.95" customHeight="1">
       <c r="A308" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O308" s="3" t="s">
-        <v>2836</v>
+        <v>627</v>
       </c>
     </row>
     <row r="309" spans="1:15" ht="24.95" customHeight="1">
       <c r="A309" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="O309" s="3" t="s">
-        <v>632</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="310" spans="1:15" ht="24.95" customHeight="1">
       <c r="A310" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="O310" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A311" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="B310" s="2" t="s">
+      <c r="B311" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="O310" s="3" t="s">
+      <c r="O311" s="3" t="s">
         <v>635</v>
-      </c>
-    </row>
-    <row r="312" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A312" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="O312" s="3" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="313" spans="1:15" ht="24.95" customHeight="1">
       <c r="A313" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="O313" s="3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="314" spans="1:15" ht="24.95" customHeight="1">
       <c r="A314" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="O314" s="4" t="s">
-        <v>644</v>
+        <v>640</v>
+      </c>
+      <c r="O314" s="3" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="315" spans="1:15" ht="24.95" customHeight="1">
       <c r="A315" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="O315" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
+      </c>
+      <c r="O315" s="4" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="316" spans="1:15" ht="24.95" customHeight="1">
       <c r="A316" s="2" t="s">
-        <v>2542</v>
+        <v>645</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>2551</v>
+        <v>646</v>
       </c>
       <c r="O316" s="2" t="s">
-        <v>2545</v>
+        <v>647</v>
       </c>
     </row>
     <row r="317" spans="1:15" ht="24.95" customHeight="1">
       <c r="A317" s="2" t="s">
+        <v>2542</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>2551</v>
+      </c>
+      <c r="O317" s="2" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A318" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="B317" s="2" t="s">
+      <c r="B318" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="O317" s="2" t="s">
+      <c r="O318" s="2" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="318" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B318" s="3"/>
-      <c r="M318" s="3"/>
-    </row>
     <row r="319" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A319" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="O319" s="2" t="s">
-        <v>653</v>
-      </c>
+      <c r="B319" s="3"/>
+      <c r="M319" s="3"/>
     </row>
     <row r="320" spans="1:15" ht="24.95" customHeight="1">
       <c r="A320" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="B320" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="M320" s="3"/>
-      <c r="O320" s="3" t="s">
-        <v>656</v>
+        <v>651</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="O320" s="2" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="321" spans="1:15" ht="24.95" customHeight="1">
       <c r="A321" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="O321" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="M321" s="3"/>
+      <c r="O321" s="3" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="322" spans="1:15" ht="24.95" customHeight="1">
       <c r="A322" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="O322" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="323" spans="1:15" ht="24.95" customHeight="1">
       <c r="A323" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="O323" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A324" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B323" s="2" t="s">
+      <c r="B324" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="O323" s="2" t="s">
+      <c r="O324" s="2" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="324" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O324" s="2"/>
-    </row>
     <row r="325" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A325" s="2" t="s">
+      <c r="O325" s="2"/>
+    </row>
+    <row r="326" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A326" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="B325" s="2" t="s">
+      <c r="B326" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="O325" s="2" t="s">
+      <c r="O326" s="2" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="326" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O326" s="2"/>
-    </row>
     <row r="327" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A327" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="O327" s="2" t="s">
-        <v>671</v>
-      </c>
+      <c r="O327" s="2"/>
     </row>
     <row r="328" spans="1:15" ht="24.95" customHeight="1">
       <c r="A328" s="2" t="s">
-        <v>2650</v>
+        <v>669</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="O328" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="329" spans="1:15" ht="24.95" customHeight="1">
       <c r="A329" s="2" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="O329" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
+      </c>
+      <c r="O329" s="2" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="330" spans="1:15" ht="24.95" customHeight="1">
       <c r="A330" s="2" t="s">
-        <v>676</v>
+        <v>2649</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="O330" s="2" t="s">
-        <v>678</v>
+        <v>674</v>
+      </c>
+      <c r="O330" s="3" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="331" spans="1:15" ht="24.95" customHeight="1">
       <c r="A331" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="O331" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="332" spans="1:15" ht="24.95" customHeight="1">
       <c r="A332" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="O332" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A333" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="B332" s="2" t="s">
+      <c r="B333" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="O332" s="2" t="s">
+      <c r="O333" s="2" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="333" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O333" s="2"/>
-    </row>
     <row r="334" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A334" s="2" t="s">
+      <c r="O334" s="2"/>
+    </row>
+    <row r="335" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A335" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B334" s="2" t="s">
+      <c r="B335" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="O334" s="2" t="s">
+      <c r="O335" s="2" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="335" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O335" s="2"/>
-    </row>
     <row r="336" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A336" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="O336" s="2" t="s">
-        <v>653</v>
-      </c>
+      <c r="O336" s="2"/>
     </row>
     <row r="337" spans="1:15" ht="24.95" customHeight="1">
       <c r="A337" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="O337" s="2" t="s">
-        <v>691</v>
+        <v>653</v>
       </c>
     </row>
     <row r="338" spans="1:15" ht="24.95" customHeight="1">
       <c r="A338" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="O338" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="339" spans="1:15" ht="24.95" customHeight="1">
       <c r="A339" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="O339" s="2" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="340" spans="1:15" ht="24.95" customHeight="1">
       <c r="A340" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="O340" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="341" spans="1:15" ht="24.95" customHeight="1">
       <c r="A341" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="O341" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A342" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="B341" s="2" t="s">
+      <c r="B342" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="O341" s="2" t="s">
+      <c r="O342" s="2" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="342" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O342" s="2"/>
-    </row>
     <row r="343" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A343" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>1786</v>
-      </c>
-      <c r="O343" s="2" t="s">
-        <v>705</v>
-      </c>
+      <c r="O343" s="2"/>
     </row>
     <row r="344" spans="1:15" ht="24.95" customHeight="1">
       <c r="A344" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="O344" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="345" spans="1:15" ht="24.95" customHeight="1">
       <c r="A345" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="O345" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="346" spans="1:15" ht="24.95" customHeight="1">
       <c r="A346" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="O346" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="347" spans="1:15" ht="24.95" customHeight="1">
       <c r="A347" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="O347" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="348" spans="1:15" ht="24.95" customHeight="1">
       <c r="A348" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="O348" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="349" spans="1:15" ht="24.95" customHeight="1">
       <c r="A349" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="O349" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="350" spans="1:15" ht="24.95" customHeight="1">
       <c r="A350" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="O350" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A351" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B350" s="2" t="s">
+      <c r="B351" s="2" t="s">
         <v>1793</v>
       </c>
-      <c r="O350" s="2" t="s">
+      <c r="O351" s="2" t="s">
         <v>719</v>
-      </c>
-    </row>
-    <row r="352" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A352" s="2" t="s">
-        <v>2350</v>
-      </c>
-      <c r="B352" s="2" t="s">
-        <v>2357</v>
-      </c>
-      <c r="O352" s="3" t="s">
-        <v>2355</v>
       </c>
     </row>
     <row r="353" spans="1:15" ht="24.95" customHeight="1">
       <c r="A353" s="2" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>2358</v>
-      </c>
-      <c r="O353" s="2" t="s">
-        <v>2354</v>
+        <v>2357</v>
+      </c>
+      <c r="O353" s="3" t="s">
+        <v>2355</v>
       </c>
     </row>
     <row r="354" spans="1:15" ht="24.95" customHeight="1">
       <c r="A354" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>2358</v>
+      </c>
+      <c r="O354" s="2" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A355" s="2" t="s">
         <v>2352</v>
       </c>
-      <c r="B354" s="2" t="s">
+      <c r="B355" s="2" t="s">
         <v>2356</v>
       </c>
-      <c r="O354" s="2" t="s">
+      <c r="O355" s="2" t="s">
         <v>2353</v>
       </c>
     </row>
-    <row r="355" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O355" s="2"/>
-    </row>
     <row r="356" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A356" s="2" t="s">
-        <v>2671</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>2664</v>
-      </c>
-      <c r="O356" s="2" t="s">
-        <v>2666</v>
-      </c>
+      <c r="O356" s="2"/>
     </row>
     <row r="357" spans="1:15" ht="24.95" customHeight="1">
       <c r="A357" s="2" t="s">
-        <v>2670</v>
+        <v>2671</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="O357" s="2" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="358" spans="1:15" ht="24.95" customHeight="1">
       <c r="A358" s="2" t="s">
-        <v>2661</v>
+        <v>2670</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="O358" s="2" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="359" spans="1:15" ht="24.95" customHeight="1">
       <c r="A359" s="2" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>2658</v>
+        <v>2662</v>
       </c>
       <c r="O359" s="2" t="s">
-        <v>2659</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="360" spans="1:15" ht="24.95" customHeight="1">
       <c r="A360" s="2" t="s">
-        <v>2668</v>
+        <v>2660</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>2658</v>
       </c>
       <c r="O360" s="2" t="s">
-        <v>2672</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="361" spans="1:15" ht="24.95" customHeight="1">
       <c r="A361" s="2" t="s">
+        <v>2668</v>
+      </c>
+      <c r="O361" s="2" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A362" s="2" t="s">
         <v>2669</v>
       </c>
-      <c r="O361" s="2" t="s">
+      <c r="O362" s="2" t="s">
         <v>2673</v>
       </c>
     </row>
-    <row r="362" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O362" s="2"/>
-    </row>
     <row r="363" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A363" s="2" t="s">
+      <c r="O363" s="2"/>
+    </row>
+    <row r="364" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A364" s="2" t="s">
         <v>2343</v>
       </c>
-      <c r="B363" s="2" t="s">
+      <c r="B364" s="2" t="s">
         <v>2342</v>
       </c>
-      <c r="O363" s="2" t="s">
+      <c r="O364" s="2" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="364" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O364" s="2"/>
-    </row>
     <row r="365" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A365" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="O365" s="2" t="s">
-        <v>722</v>
-      </c>
+      <c r="O365" s="2"/>
     </row>
     <row r="366" spans="1:15" ht="24.95" customHeight="1">
       <c r="A366" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="O366" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="367" spans="1:15" ht="24.95" customHeight="1">
       <c r="A367" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="O367" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A368" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="B367" s="2" t="s">
+      <c r="B368" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="O367" s="2" t="s">
+      <c r="O368" s="2" t="s">
         <v>1812</v>
       </c>
     </row>
-    <row r="368" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O368" s="2"/>
-    </row>
     <row r="369" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A369" s="2" t="s">
-        <v>1730</v>
-      </c>
-      <c r="O369" s="2" t="s">
-        <v>1737</v>
-      </c>
+      <c r="O369" s="2"/>
     </row>
     <row r="370" spans="1:15" ht="24.95" customHeight="1">
       <c r="A370" s="2" t="s">
-        <v>1731</v>
-      </c>
-      <c r="B370" s="2" t="s">
-        <v>1707</v>
+        <v>1730</v>
       </c>
       <c r="O370" s="2" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="371" spans="1:15" ht="24.95" customHeight="1">
       <c r="A371" s="2" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>1703</v>
+        <v>1707</v>
       </c>
       <c r="O371" s="2" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="372" spans="1:15" ht="24.95" customHeight="1">
       <c r="A372" s="2" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="O372" s="2" t="s">
-        <v>1709</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="373" spans="1:15" ht="24.95" customHeight="1">
       <c r="A373" s="2" t="s">
-        <v>1743</v>
+        <v>1733</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>1713</v>
+        <v>1704</v>
       </c>
       <c r="O373" s="2" t="s">
-        <v>1744</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="374" spans="1:15" ht="24.95" customHeight="1">
       <c r="A374" s="2" t="s">
-        <v>1734</v>
+        <v>1743</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>1713</v>
       </c>
       <c r="O374" s="2" t="s">
-        <v>1739</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="375" spans="1:15" ht="24.95" customHeight="1">
       <c r="A375" s="2" t="s">
-        <v>1735</v>
-      </c>
-      <c r="B375" s="2" t="s">
-        <v>1708</v>
+        <v>1734</v>
       </c>
       <c r="O375" s="2" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="376" spans="1:15" ht="24.95" customHeight="1">
       <c r="A376" s="2" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="O376" s="2" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A377" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="B376" s="2" t="s">
+      <c r="B377" s="2" t="s">
         <v>1706</v>
       </c>
-      <c r="O376" s="2" t="s">
+      <c r="O377" s="2" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="377" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O377" s="2"/>
-    </row>
     <row r="378" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A378" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="B378" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="O378" s="2" t="s">
-        <v>730</v>
-      </c>
+      <c r="O378" s="2"/>
     </row>
     <row r="379" spans="1:15" ht="24.95" customHeight="1">
       <c r="A379" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="O379" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A380" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="B379" s="2" t="s">
+      <c r="B380" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="O379" s="2" t="s">
+      <c r="O380" s="2" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="380" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O380" s="2"/>
-    </row>
     <row r="381" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A381" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="B381" s="2" t="s">
-        <v>2466</v>
-      </c>
-      <c r="O381" s="2" t="s">
-        <v>735</v>
-      </c>
+      <c r="O381" s="2"/>
     </row>
     <row r="382" spans="1:15" ht="24.95" customHeight="1">
       <c r="A382" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="O382" s="2" t="s">
-        <v>2928</v>
+        <v>735</v>
       </c>
     </row>
     <row r="383" spans="1:15" ht="24.95" customHeight="1">
       <c r="A383" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>2467</v>
+      </c>
+      <c r="O383" s="2" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A384" s="2" t="s">
         <v>2930</v>
       </c>
-      <c r="O383" s="2" t="s">
+      <c r="O384" s="2" t="s">
         <v>2929</v>
       </c>
     </row>
-    <row r="384" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O384" s="2"/>
-    </row>
     <row r="385" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A385" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="B385" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="O385" s="2" t="s">
-        <v>739</v>
-      </c>
+      <c r="O385" s="2"/>
     </row>
     <row r="386" spans="1:15" ht="24.95" customHeight="1">
       <c r="A386" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="O386" s="2" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="387" spans="1:15" ht="24.95" customHeight="1">
       <c r="A387" s="2" t="s">
-        <v>1644</v>
+        <v>740</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="O387" s="2" t="s">
-        <v>494</v>
+        <v>742</v>
       </c>
     </row>
     <row r="388" spans="1:15" ht="24.95" customHeight="1">
       <c r="A388" s="2" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O388" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="389" spans="1:15" ht="24.95" customHeight="1">
       <c r="A389" s="2" t="s">
-        <v>745</v>
+        <v>1645</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="O389" s="2" t="s">
-        <v>747</v>
+        <v>497</v>
       </c>
     </row>
     <row r="390" spans="1:15" ht="24.95" customHeight="1">
       <c r="A390" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="O390" s="2" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="391" spans="1:15" ht="24.95" customHeight="1">
       <c r="A391" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>1687</v>
+        <v>749</v>
       </c>
       <c r="O391" s="2" t="s">
-        <v>1813</v>
+        <v>750</v>
       </c>
     </row>
     <row r="392" spans="1:15" ht="24.95" customHeight="1">
       <c r="A392" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>753</v>
+        <v>1687</v>
       </c>
       <c r="O392" s="2" t="s">
-        <v>754</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="393" spans="1:15" ht="24.95" customHeight="1">
       <c r="A393" s="2" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="O393" s="2" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="394" spans="1:15" ht="24.95" customHeight="1">
       <c r="A394" s="2" t="s">
-        <v>2462</v>
+        <v>755</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>2463</v>
+        <v>756</v>
       </c>
       <c r="O394" s="2" t="s">
-        <v>2464</v>
+        <v>757</v>
       </c>
     </row>
     <row r="395" spans="1:15" ht="24.95" customHeight="1">
       <c r="A395" s="2" t="s">
-        <v>1766</v>
+        <v>2462</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>758</v>
+        <v>2463</v>
       </c>
       <c r="O395" s="2" t="s">
-        <v>759</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="396" spans="1:15" ht="24.95" customHeight="1">
       <c r="A396" s="2" t="s">
-        <v>760</v>
+        <v>1766</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="O396" s="2" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="397" spans="1:15" ht="24.95" customHeight="1">
       <c r="A397" s="2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="O397" s="2" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="398" spans="1:15" ht="24.95" customHeight="1">
       <c r="A398" s="2" t="s">
-        <v>2460</v>
+        <v>763</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="O398" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="399" spans="1:15" ht="24.95" customHeight="1">
       <c r="A399" s="2" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="O399" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="400" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A400" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="B399" s="2" t="s">
+      <c r="B400" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="O399" s="2" t="s">
+      <c r="O400" s="2" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="400" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O400" s="2"/>
-    </row>
     <row r="401" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A401" s="2" t="s">
-        <v>1650</v>
-      </c>
-      <c r="O401" s="2" t="s">
-        <v>2366</v>
-      </c>
+      <c r="O401" s="2"/>
     </row>
     <row r="402" spans="1:15" ht="24.95" customHeight="1">
       <c r="A402" s="2" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="O402" s="2" t="s">
-        <v>805</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="403" spans="1:15" ht="24.95" customHeight="1">
       <c r="A403" s="2" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="O403" s="2" t="s">
-        <v>1678</v>
+        <v>805</v>
       </c>
     </row>
     <row r="404" spans="1:15" ht="24.95" customHeight="1">
       <c r="A404" s="2" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="O404" s="2" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="405" spans="1:15" ht="24.95" customHeight="1">
       <c r="A405" s="2" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="O405" s="2" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="406" spans="1:15" ht="24.95" customHeight="1">
       <c r="A406" s="2" t="s">
-        <v>1655</v>
-      </c>
-      <c r="B406" s="2" t="s">
-        <v>1688</v>
+        <v>1654</v>
       </c>
       <c r="O406" s="2" t="s">
-        <v>1812</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="407" spans="1:15" ht="24.95" customHeight="1">
       <c r="A407" s="2" t="s">
-        <v>1656</v>
+        <v>1655</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>1688</v>
       </c>
       <c r="O407" s="2" t="s">
-        <v>1674</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="408" spans="1:15" ht="24.95" customHeight="1">
       <c r="A408" s="2" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="O408" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="409" spans="1:15" ht="24.95" customHeight="1">
       <c r="A409" s="2" t="s">
-        <v>1657</v>
+        <v>1660</v>
       </c>
       <c r="O409" s="2" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="410" spans="1:15" ht="24.95" customHeight="1">
       <c r="A410" s="2" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="O410" s="2" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="411" spans="1:15" ht="24.95" customHeight="1">
       <c r="A411" s="2" t="s">
+        <v>1658</v>
+      </c>
+      <c r="O411" s="2" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="412" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A412" s="2" t="s">
         <v>1659</v>
       </c>
-      <c r="O411" s="2" t="s">
+      <c r="O412" s="2" t="s">
         <v>1671</v>
       </c>
     </row>
-    <row r="412" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O412" s="2"/>
-    </row>
     <row r="413" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A413" s="2" t="s">
-        <v>1661</v>
-      </c>
-      <c r="B413" s="2" t="s">
-        <v>1686</v>
-      </c>
-      <c r="O413" s="2" t="s">
-        <v>805</v>
-      </c>
+      <c r="O413" s="2"/>
     </row>
     <row r="414" spans="1:15" ht="24.95" customHeight="1">
       <c r="A414" s="2" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>743</v>
+        <v>1686</v>
       </c>
       <c r="O414" s="2" t="s">
-        <v>1670</v>
+        <v>805</v>
       </c>
     </row>
     <row r="415" spans="1:15" ht="24.95" customHeight="1">
       <c r="A415" s="2" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O415" s="2" t="s">
-        <v>497</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="416" spans="1:15" ht="24.95" customHeight="1">
       <c r="A416" s="2" t="s">
-        <v>2339</v>
+        <v>1663</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>2340</v>
+        <v>744</v>
       </c>
       <c r="O416" s="2" t="s">
-        <v>2341</v>
+        <v>497</v>
       </c>
     </row>
     <row r="417" spans="1:15" ht="24.95" customHeight="1">
       <c r="A417" s="2" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>2340</v>
+      </c>
+      <c r="O417" s="2" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="418" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A418" s="2" t="s">
         <v>1664</v>
       </c>
-      <c r="B417" s="2" t="s">
+      <c r="B418" s="2" t="s">
         <v>1688</v>
       </c>
-      <c r="O417" s="2" t="s">
+      <c r="O418" s="2" t="s">
         <v>1812</v>
       </c>
     </row>
-    <row r="418" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O418" s="2"/>
-    </row>
     <row r="419" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A419" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="B419" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="O419" s="2" t="s">
-        <v>800</v>
-      </c>
+      <c r="O419" s="2"/>
     </row>
     <row r="420" spans="1:15" ht="24.95" customHeight="1">
       <c r="A420" s="2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="O420" s="2" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="421" spans="1:15" ht="24.95" customHeight="1">
       <c r="A421" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="O421" s="2" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="422" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A422" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="B421" s="2" t="s">
+      <c r="B422" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="O421" s="2" t="s">
+      <c r="O422" s="2" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="422" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O422" s="2"/>
-    </row>
     <row r="423" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A423" s="2" t="s">
-        <v>1665</v>
-      </c>
-      <c r="O423" s="2" t="s">
-        <v>805</v>
-      </c>
+      <c r="O423" s="2"/>
     </row>
     <row r="424" spans="1:15" ht="24.95" customHeight="1">
       <c r="A424" s="2" t="s">
-        <v>1666</v>
-      </c>
-      <c r="B424" s="2" t="s">
-        <v>1688</v>
+        <v>1665</v>
       </c>
       <c r="O424" s="2" t="s">
-        <v>1812</v>
+        <v>805</v>
       </c>
     </row>
     <row r="425" spans="1:15" ht="24.95" customHeight="1">
       <c r="A425" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="O425" s="2" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="426" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A426" s="2" t="s">
         <v>1667</v>
       </c>
-      <c r="O425" s="2" t="s">
+      <c r="O426" s="2" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="426" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O426" s="2"/>
-    </row>
     <row r="427" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A427" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="B427" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="O427" s="2" t="s">
-        <v>773</v>
-      </c>
+      <c r="O427" s="2"/>
     </row>
     <row r="428" spans="1:15" ht="24.95" customHeight="1">
       <c r="A428" s="2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="O428" s="2" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="429" spans="1:15" ht="24.95" customHeight="1">
       <c r="A429" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="O429" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="430" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A430" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="B429" s="2" t="s">
+      <c r="B430" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="O429" s="2" t="s">
+      <c r="O430" s="2" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="430" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O430" s="2"/>
-    </row>
     <row r="431" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A431" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="B431" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="O431" s="2" t="s">
-        <v>782</v>
-      </c>
+      <c r="O431" s="2"/>
     </row>
     <row r="432" spans="1:15" ht="24.95" customHeight="1">
       <c r="A432" s="2" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="O432" s="2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="433" spans="1:15" ht="24.95" customHeight="1">
       <c r="A433" s="2" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="O433" s="2" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="434" spans="1:15" ht="24.95" customHeight="1">
       <c r="A434" s="2" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="O434" s="2" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="435" spans="1:15" ht="24.95" customHeight="1">
       <c r="A435" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="O435" s="2" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="436" spans="1:15" ht="24.95" customHeight="1">
       <c r="A436" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="O436" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="437" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A437" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="O436" s="2" t="s">
+      <c r="O437" s="2" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="437" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O437" s="2"/>
-    </row>
     <row r="438" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A438" s="2" t="s">
-        <v>1714</v>
-      </c>
-      <c r="B438" s="2" t="s">
-        <v>1715</v>
-      </c>
-      <c r="O438" s="2" t="s">
-        <v>788</v>
-      </c>
+      <c r="O438" s="2"/>
     </row>
     <row r="439" spans="1:15" ht="24.95" customHeight="1">
       <c r="A439" s="2" t="s">
-        <v>1648</v>
+        <v>1714</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>1715</v>
       </c>
       <c r="O439" s="2" t="s">
-        <v>1668</v>
+        <v>788</v>
       </c>
     </row>
     <row r="440" spans="1:15" ht="24.95" customHeight="1">
       <c r="A440" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="O440" s="2" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="441" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A441" s="2" t="s">
         <v>1716</v>
       </c>
-      <c r="B440" s="2" t="s">
+      <c r="B441" s="2" t="s">
         <v>1852</v>
       </c>
-      <c r="O440" s="2" t="s">
+      <c r="O441" s="2" t="s">
         <v>1649</v>
       </c>
     </row>
-    <row r="441" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O441" s="2"/>
-    </row>
     <row r="442" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A442" s="2" t="s">
-        <v>1695</v>
-      </c>
-      <c r="O442" s="2" t="s">
-        <v>1696</v>
-      </c>
+      <c r="O442" s="2"/>
     </row>
     <row r="443" spans="1:15" ht="24.95" customHeight="1">
       <c r="A443" s="2" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B443" s="2" t="s">
-        <v>1708</v>
+        <v>1695</v>
       </c>
       <c r="O443" s="2" t="s">
-        <v>1741</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="444" spans="1:15" ht="24.95" customHeight="1">
       <c r="A444" s="2" t="s">
-        <v>792</v>
+        <v>1699</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="O444" s="2" t="s">
-        <v>1710</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="445" spans="1:15" ht="24.95" customHeight="1">
       <c r="A445" s="2" t="s">
-        <v>1697</v>
+        <v>792</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>1706</v>
       </c>
       <c r="O445" s="2" t="s">
-        <v>1698</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="446" spans="1:15" ht="24.95" customHeight="1">
       <c r="A446" s="2" t="s">
-        <v>1700</v>
-      </c>
-      <c r="B446" s="2" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
       <c r="O446" s="2" t="s">
-        <v>1742</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="447" spans="1:15" ht="24.95" customHeight="1">
       <c r="A447" s="2" t="s">
-        <v>1705</v>
+        <v>1700</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="O447" s="2" t="s">
-        <v>1709</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="448" spans="1:15" ht="24.95" customHeight="1">
       <c r="A448" s="2" t="s">
-        <v>1702</v>
+        <v>1705</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>1713</v>
+        <v>1704</v>
       </c>
       <c r="O448" s="2" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="449" spans="1:15" ht="24.95" customHeight="1">
       <c r="A449" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>1713</v>
+      </c>
+      <c r="O449" s="2" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="450" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A450" s="2" t="s">
         <v>1701</v>
       </c>
-      <c r="B449" s="2" t="s">
+      <c r="B450" s="2" t="s">
         <v>1707</v>
       </c>
-      <c r="O449" s="2" t="s">
+      <c r="O450" s="2" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="450" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O450" s="2"/>
-    </row>
     <row r="451" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A451" s="2" t="s">
-        <v>2540</v>
-      </c>
-      <c r="O451" s="3" t="s">
-        <v>2541</v>
-      </c>
+      <c r="O451" s="2"/>
     </row>
     <row r="452" spans="1:15" ht="24.95" customHeight="1">
       <c r="A452" s="2" t="s">
-        <v>2530</v>
-      </c>
-      <c r="O452" s="2" t="s">
-        <v>2528</v>
+        <v>2540</v>
+      </c>
+      <c r="O452" s="3" t="s">
+        <v>2541</v>
       </c>
     </row>
     <row r="453" spans="1:15" ht="24.95" customHeight="1">
       <c r="A453" s="2" t="s">
+        <v>2530</v>
+      </c>
+      <c r="O453" s="2" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="454" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A454" s="2" t="s">
         <v>2531</v>
       </c>
-      <c r="O453" s="2" t="s">
+      <c r="O454" s="2" t="s">
         <v>2529</v>
       </c>
     </row>
-    <row r="454" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O454" s="2"/>
-    </row>
     <row r="455" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A455" s="2" t="s">
-        <v>1646</v>
-      </c>
-      <c r="B455" s="2" t="s">
-        <v>1853</v>
-      </c>
-      <c r="O455" s="2" t="s">
-        <v>1679</v>
-      </c>
+      <c r="O455" s="2"/>
     </row>
     <row r="456" spans="1:15" ht="24.95" customHeight="1">
       <c r="A456" s="2" t="s">
-        <v>1647</v>
+        <v>1646</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>1853</v>
       </c>
       <c r="O456" s="2" t="s">
-        <v>2471</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="457" spans="1:15" ht="24.95" customHeight="1">
       <c r="A457" s="2" t="s">
-        <v>1680</v>
-      </c>
-      <c r="B457" s="2" t="s">
-        <v>2472</v>
+        <v>1647</v>
       </c>
       <c r="O457" s="2" t="s">
-        <v>1851</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="458" spans="1:15" ht="24.95" customHeight="1">
       <c r="A458" s="2" t="s">
-        <v>951</v>
+        <v>1680</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="O458" s="2" t="s">
-        <v>2475</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="459" spans="1:15" ht="24.95" customHeight="1">
       <c r="A459" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>2476</v>
+        <v>2473</v>
       </c>
       <c r="O459" s="2" t="s">
-        <v>953</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="460" spans="1:15" ht="24.95" customHeight="1">
       <c r="A460" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>2476</v>
+      </c>
+      <c r="O460" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="461" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A461" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="B460" s="2" t="s">
+      <c r="B461" s="2" t="s">
         <v>2474</v>
       </c>
-      <c r="O460" s="2" t="s">
+      <c r="O461" s="2" t="s">
         <v>2470</v>
       </c>
     </row>
-    <row r="461" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O461" s="2"/>
-    </row>
     <row r="462" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A462" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="O462" s="2" t="s">
-        <v>983</v>
-      </c>
+      <c r="O462" s="2"/>
     </row>
     <row r="463" spans="1:15" ht="24.95" customHeight="1">
       <c r="A463" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="O463" s="2" t="s">
-        <v>2922</v>
+        <v>983</v>
       </c>
     </row>
     <row r="464" spans="1:15" ht="24.95" customHeight="1">
       <c r="A464" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O464" s="2" t="s">
-        <v>986</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="465" spans="1:15" ht="24.95" customHeight="1">
       <c r="A465" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="O465" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="466" spans="1:15" ht="24.95" customHeight="1">
       <c r="A466" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="O466" s="2" t="s">
-        <v>2575</v>
+        <v>988</v>
       </c>
     </row>
     <row r="467" spans="1:15" ht="24.95" customHeight="1">
       <c r="A467" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="O467" s="2" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="468" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A468" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="O467" s="2" t="s">
+      <c r="O468" s="2" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="468" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O468" s="2"/>
-    </row>
     <row r="469" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A469" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="B469" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="O469" s="2" t="s">
-        <v>1685</v>
-      </c>
+      <c r="O469" s="2"/>
     </row>
     <row r="470" spans="1:15" ht="24.95" customHeight="1">
       <c r="A470" s="2" t="s">
-        <v>1689</v>
+        <v>806</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>1850</v>
+        <v>807</v>
       </c>
       <c r="O470" s="2" t="s">
-        <v>1849</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="471" spans="1:15" ht="24.95" customHeight="1">
       <c r="A471" s="2" t="s">
-        <v>808</v>
+        <v>1689</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>809</v>
+        <v>1850</v>
       </c>
       <c r="O471" s="2" t="s">
-        <v>810</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="472" spans="1:15" ht="24.95" customHeight="1">
       <c r="A472" s="2" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="O472" s="2" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="473" spans="1:15" ht="24.95" customHeight="1">
       <c r="A473" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="O473" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="474" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A474" s="2" t="s">
         <v>1684</v>
       </c>
-      <c r="B473" s="2" t="s">
+      <c r="B474" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="O473" s="3" t="s">
+      <c r="O474" s="3" t="s">
         <v>1683</v>
       </c>
     </row>
-    <row r="474" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O474" s="2"/>
-    </row>
     <row r="475" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A475" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="B475" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="O475" s="2" t="s">
-        <v>817</v>
-      </c>
+      <c r="O475" s="2"/>
     </row>
     <row r="476" spans="1:15" ht="24.95" customHeight="1">
       <c r="A476" s="2" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="O476" s="2" t="s">
-        <v>521</v>
+        <v>817</v>
       </c>
     </row>
     <row r="477" spans="1:15" ht="24.95" customHeight="1">
       <c r="A477" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="O477" s="2" t="s">
-        <v>822</v>
+        <v>521</v>
       </c>
     </row>
     <row r="478" spans="1:15" ht="24.95" customHeight="1">
       <c r="A478" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="O478" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="479" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A479" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="B478" s="2" t="s">
+      <c r="B479" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="O478" s="2" t="s">
+      <c r="O479" s="2" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="479" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O479" s="2"/>
-    </row>
     <row r="480" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A480" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="B480" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="O480" s="2" t="s">
-        <v>826</v>
-      </c>
+      <c r="O480" s="2"/>
     </row>
     <row r="481" spans="1:15" ht="24.95" customHeight="1">
       <c r="A481" s="2" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="O481" s="2" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
     <row r="482" spans="1:15" ht="24.95" customHeight="1">
       <c r="A482" s="2" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="O482" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="483" spans="1:15" ht="24.95" customHeight="1">
       <c r="A483" s="2" t="s">
-        <v>2477</v>
+        <v>833</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>834</v>
       </c>
       <c r="O483" s="2" t="s">
-        <v>2478</v>
+        <v>835</v>
       </c>
     </row>
     <row r="484" spans="1:15" ht="24.95" customHeight="1">
       <c r="A484" s="2" t="s">
-        <v>836</v>
+        <v>2477</v>
       </c>
       <c r="O484" s="2" t="s">
-        <v>837</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="485" spans="1:15" ht="24.95" customHeight="1">
       <c r="A485" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="O485" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="486" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A486" s="2" t="s">
         <v>2349</v>
       </c>
-      <c r="O485" s="2" t="s">
+      <c r="O486" s="2" t="s">
         <v>2526</v>
       </c>
     </row>
-    <row r="486" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O486" s="2"/>
-    </row>
     <row r="487" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A487" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="B487" s="2" t="s">
-        <v>1722</v>
-      </c>
-      <c r="O487" s="2" t="s">
-        <v>839</v>
-      </c>
+      <c r="O487" s="2"/>
     </row>
     <row r="488" spans="1:15" ht="24.95" customHeight="1">
       <c r="A488" s="2" t="s">
-        <v>1720</v>
+        <v>838</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="O488" s="2" t="s">
-        <v>788</v>
+        <v>839</v>
       </c>
     </row>
     <row r="489" spans="1:15" ht="24.95" customHeight="1">
       <c r="A489" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>1721</v>
+      </c>
+      <c r="O489" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="490" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A490" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="B489" s="2" t="s">
+      <c r="B490" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="O489" s="2" t="s">
+      <c r="O490" s="2" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="490" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O490" s="2"/>
-    </row>
     <row r="491" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A491" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="B491" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="O491" s="2" t="s">
-        <v>842</v>
-      </c>
+      <c r="O491" s="2"/>
     </row>
     <row r="492" spans="1:15" ht="24.95" customHeight="1">
       <c r="A492" s="2" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="O492" s="2" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="493" spans="1:15" ht="24.95" customHeight="1">
       <c r="A493" s="2" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="O493" s="2" t="s">
-        <v>2525</v>
+        <v>845</v>
       </c>
     </row>
     <row r="494" spans="1:15" ht="24.95" customHeight="1">
       <c r="A494" s="2" t="s">
-        <v>1717</v>
+        <v>846</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>1719</v>
+        <v>847</v>
       </c>
       <c r="O494" s="2" t="s">
-        <v>1718</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="495" spans="1:15" ht="24.95" customHeight="1">
       <c r="A495" s="2" t="s">
-        <v>848</v>
+        <v>1717</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>849</v>
+        <v>1719</v>
       </c>
       <c r="O495" s="2" t="s">
-        <v>850</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="496" spans="1:15" ht="24.95" customHeight="1">
       <c r="A496" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="O496" s="2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="497" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A497" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="B496" s="2" t="s">
+      <c r="B497" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="O496" s="2" t="s">
+      <c r="O497" s="2" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="497" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O497" s="2"/>
-    </row>
     <row r="498" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A498" s="2" t="s">
+      <c r="O498" s="2"/>
+    </row>
+    <row r="499" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A499" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="B498" s="2" t="s">
+      <c r="B499" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="O498" s="2" t="s">
+      <c r="O499" s="2" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="499" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O499" s="2"/>
-    </row>
     <row r="500" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A500" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="B500" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="O500" s="2" t="s">
-        <v>859</v>
-      </c>
+      <c r="O500" s="2"/>
     </row>
     <row r="501" spans="1:15" ht="24.95" customHeight="1">
       <c r="A501" s="2" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="O501" s="2" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="502" spans="1:15" ht="24.95" customHeight="1">
       <c r="A502" s="2" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="O502" s="2" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="503" spans="1:15" ht="24.95" customHeight="1">
       <c r="A503" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="O503" s="2" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="504" spans="1:15" ht="24.95" customHeight="1">
       <c r="A504" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="O504" s="2" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="505" spans="1:15" ht="24.95" customHeight="1">
       <c r="A505" s="2" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>654</v>
+        <v>870</v>
       </c>
       <c r="O505" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="506" spans="1:15" ht="24.95" customHeight="1">
       <c r="A506" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="O506" s="2" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="507" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A507" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="B506" s="2" t="s">
+      <c r="B507" s="2" t="s">
         <v>1848</v>
       </c>
-      <c r="O506" s="2" t="s">
+      <c r="O507" s="2" t="s">
         <v>1847</v>
       </c>
     </row>
-    <row r="507" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O507" s="2"/>
-    </row>
     <row r="508" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A508" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="B508" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="O508" s="2" t="s">
-        <v>877</v>
-      </c>
+      <c r="O508" s="2"/>
     </row>
     <row r="509" spans="1:15" ht="24.95" customHeight="1">
       <c r="A509" s="2" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="O509" s="2" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="510" spans="1:15" ht="24.95" customHeight="1">
       <c r="A510" s="2" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="O510" s="2" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="511" spans="1:15" ht="24.95" customHeight="1">
       <c r="A511" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="O511" s="2" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="512" spans="1:15" ht="24.95" customHeight="1">
       <c r="A512" s="2" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="O512" s="2" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="513" spans="1:15" ht="24.95" customHeight="1">
       <c r="A513" s="2" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="O513" s="2" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="514" spans="1:15" ht="24.95" customHeight="1">
       <c r="A514" s="2" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="O514" s="2" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="515" spans="1:15" ht="24.95" customHeight="1">
       <c r="A515" s="2" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="O515" s="2" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="516" spans="1:15" ht="24.95" customHeight="1">
       <c r="A516" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="O516" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="517" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A517" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="B516" s="2" t="s">
+      <c r="B517" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="O516" s="2" t="s">
+      <c r="O517" s="2" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="517" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O517" s="2"/>
-    </row>
     <row r="518" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A518" s="2" t="s">
-        <v>1833</v>
-      </c>
-      <c r="B518" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="O518" s="2" t="s">
-        <v>903</v>
-      </c>
+      <c r="O518" s="2"/>
     </row>
     <row r="519" spans="1:15" ht="24.95" customHeight="1">
       <c r="A519" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>902</v>
       </c>
       <c r="O519" s="2" t="s">
-        <v>1835</v>
+        <v>903</v>
       </c>
     </row>
     <row r="520" spans="1:15" ht="24.95" customHeight="1">
       <c r="A520" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="B520" s="2" t="s">
-        <v>905</v>
+        <v>1834</v>
       </c>
       <c r="O520" s="2" t="s">
-        <v>906</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="521" spans="1:15" ht="24.95" customHeight="1">
       <c r="A521" s="2" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="O521" s="2" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="522" spans="1:15" ht="24.95" customHeight="1">
       <c r="A522" s="2" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="O522" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="523" spans="1:15" ht="24.95" customHeight="1">
       <c r="A523" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="O523" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="524" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A524" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="B523" s="2" t="s">
+      <c r="B524" s="2" t="s">
         <v>1828</v>
       </c>
-      <c r="O523" s="2" t="s">
+      <c r="O524" s="2" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="524" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O524" s="2"/>
-    </row>
     <row r="525" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A525" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="B525" s="2" t="s">
-        <v>916</v>
-      </c>
-      <c r="O525" s="2" t="s">
-        <v>917</v>
-      </c>
+      <c r="O525" s="2"/>
     </row>
     <row r="526" spans="1:15" ht="24.95" customHeight="1">
       <c r="A526" s="2" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="O526" s="2" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="527" spans="1:15" ht="24.95" customHeight="1">
       <c r="A527" s="2" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="O527" s="2" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="528" spans="1:15" ht="24.95" customHeight="1">
       <c r="A528" s="2" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="O528" s="2" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="529" spans="1:15" ht="24.95" customHeight="1">
       <c r="A529" s="2" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="O529" s="2" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="530" spans="1:15" ht="24.95" customHeight="1">
       <c r="A530" s="2" t="s">
-        <v>2344</v>
+        <v>927</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>946</v>
+        <v>928</v>
       </c>
       <c r="O530" s="2" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="531" spans="1:15" ht="24.95" customHeight="1">
       <c r="A531" s="2" t="s">
-        <v>930</v>
+        <v>2344</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>931</v>
+        <v>946</v>
       </c>
       <c r="O531" s="2" t="s">
-        <v>2345</v>
+        <v>932</v>
       </c>
     </row>
     <row r="532" spans="1:15" ht="24.95" customHeight="1">
       <c r="A532" s="2" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="O532" s="2" t="s">
-        <v>935</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="533" spans="1:15" ht="24.95" customHeight="1">
       <c r="A533" s="2" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="O533" s="2" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="534" spans="1:15" ht="24.95" customHeight="1">
       <c r="A534" s="2" t="s">
-        <v>1836</v>
+        <v>936</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="O534" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="535" spans="1:15" ht="24.95" customHeight="1">
       <c r="A535" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="B535" s="3" t="s">
-        <v>2346</v>
+        <v>1836</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>939</v>
       </c>
       <c r="O535" s="2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="536" spans="1:15" ht="24.95" customHeight="1">
       <c r="A536" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="B536" s="2" t="s">
-        <v>944</v>
+        <v>941</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>2346</v>
       </c>
       <c r="O536" s="2" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="537" spans="1:15" ht="24.95" customHeight="1">
       <c r="A537" s="2" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>911</v>
+        <v>944</v>
       </c>
       <c r="O537" s="2" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="538" spans="1:15" ht="24.95" customHeight="1">
       <c r="A538" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="O538" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="539" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A539" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="B538" s="2" t="s">
+      <c r="B539" s="2" t="s">
         <v>2347</v>
       </c>
-      <c r="O538" s="2" t="s">
+      <c r="O539" s="2" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="539" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O539" s="2"/>
-    </row>
     <row r="540" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A540" s="2" t="s">
-        <v>955</v>
-      </c>
-      <c r="B540" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="O540" s="2" t="s">
-        <v>957</v>
-      </c>
+      <c r="O540" s="2"/>
     </row>
     <row r="541" spans="1:15" ht="24.95" customHeight="1">
       <c r="A541" s="2" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="O541" s="2" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="542" spans="1:15" ht="24.95" customHeight="1">
       <c r="A542" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="O542" s="2" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="543" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A543" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="B542" s="2" t="s">
+      <c r="B543" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="O542" s="2" t="s">
+      <c r="O543" s="2" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="543" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O543" s="2"/>
-    </row>
     <row r="544" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A544" s="2" t="s">
-        <v>1728</v>
-      </c>
-      <c r="B544" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="O544" s="2" t="s">
-        <v>965</v>
-      </c>
+      <c r="O544" s="2"/>
     </row>
     <row r="545" spans="1:15" ht="24.95" customHeight="1">
       <c r="A545" s="2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="O545" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="546" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A546" s="2" t="s">
         <v>1729</v>
       </c>
-      <c r="B545" s="2" t="s">
+      <c r="B546" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="O545" s="2" t="s">
+      <c r="O546" s="2" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="546" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O546" s="2"/>
-    </row>
     <row r="547" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A547" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="B547" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="O547" s="2" t="s">
-        <v>788</v>
-      </c>
+      <c r="O547" s="2"/>
     </row>
     <row r="548" spans="1:15" ht="24.95" customHeight="1">
       <c r="A548" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="O548" s="2" t="s">
-        <v>972</v>
+        <v>788</v>
       </c>
     </row>
     <row r="549" spans="1:15" ht="24.95" customHeight="1">
       <c r="A549" s="2" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="O549" s="2" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="550" spans="1:15" ht="24.95" customHeight="1">
       <c r="A550" s="2" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="O550" s="2" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="551" spans="1:15" ht="24.95" customHeight="1">
       <c r="A551" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="O551" s="2" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="552" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A552" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="B551" s="2" t="s">
+      <c r="B552" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="O551" s="2" t="s">
+      <c r="O552" s="2" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="552" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O552" s="2"/>
-    </row>
     <row r="553" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A553" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="B553" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="O553" s="2" t="s">
-        <v>994</v>
-      </c>
+      <c r="O553" s="2"/>
     </row>
     <row r="554" spans="1:15" ht="24.95" customHeight="1">
       <c r="A554" s="2" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="O554" s="2" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="555" spans="1:15" ht="24.95" customHeight="1">
       <c r="A555" s="2" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="O555" s="2" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="556" spans="1:15" ht="24.95" customHeight="1">
       <c r="A556" s="2" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="O556" s="2" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="557" spans="1:15" ht="24.95" customHeight="1">
       <c r="A557" s="2" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="O557" s="2" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="558" spans="1:15" ht="24.95" customHeight="1">
       <c r="A558" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="O558" s="2" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="559" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A559" s="2" t="s">
         <v>1007</v>
       </c>
-      <c r="B558" s="2" t="s">
+      <c r="B559" s="2" t="s">
         <v>1008</v>
       </c>
-      <c r="O558" s="2" t="s">
+      <c r="O559" s="2" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="559" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O559" s="2"/>
-    </row>
     <row r="560" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A560" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B560" s="2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="O560" s="2" t="s">
-        <v>1012</v>
-      </c>
+      <c r="O560" s="2"/>
     </row>
     <row r="561" spans="1:15" ht="24.95" customHeight="1">
       <c r="A561" s="2" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="O561" s="2" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="562" spans="1:15" ht="24.95" customHeight="1">
       <c r="A562" s="2" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="O562" s="2" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="563" spans="1:15" ht="24.95" customHeight="1">
       <c r="A563" s="2" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="O563" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="564" spans="1:15" ht="24.95" customHeight="1">
       <c r="A564" s="2" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>980</v>
+        <v>1020</v>
       </c>
       <c r="O564" s="2" t="s">
-        <v>981</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="565" spans="1:15" ht="24.95" customHeight="1">
       <c r="A565" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="O565" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="566" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A566" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="B565" s="2" t="s">
+      <c r="B566" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="O565" s="2" t="s">
+      <c r="O566" s="2" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="566" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O566" s="2"/>
-    </row>
     <row r="567" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A567" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B567" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="O567" s="2" t="s">
-        <v>635</v>
-      </c>
+      <c r="O567" s="2"/>
     </row>
     <row r="568" spans="1:15" ht="24.95" customHeight="1">
       <c r="A568" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="O568" s="2" t="s">
-        <v>1030</v>
+        <v>635</v>
       </c>
     </row>
     <row r="569" spans="1:15" ht="24.95" customHeight="1">
       <c r="A569" s="2" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="O569" s="2" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="570" spans="1:15" ht="24.95" customHeight="1">
       <c r="A570" s="2" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="O570" s="2" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="571" spans="1:15" ht="24.95" customHeight="1">
       <c r="A571" s="2" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="O571" s="2" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="572" spans="1:15" ht="24.95" customHeight="1">
       <c r="A572" s="2" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="O572" s="2" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="573" spans="1:15" ht="24.95" customHeight="1">
       <c r="A573" s="2" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="O573" s="2" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="574" spans="1:15" ht="24.95" customHeight="1">
       <c r="A574" s="2" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="O574" s="2" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="575" spans="1:15" ht="24.95" customHeight="1">
       <c r="A575" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="O575" s="2" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="576" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A576" s="2" t="s">
         <v>1049</v>
       </c>
-      <c r="B575" s="2" t="s">
+      <c r="B576" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="O575" s="2" t="s">
+      <c r="O576" s="2" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="576" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O576" s="2"/>
-    </row>
     <row r="577" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A577" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B577" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="O577" s="2" t="s">
-        <v>1054</v>
-      </c>
+      <c r="O577" s="2"/>
     </row>
     <row r="578" spans="1:15" ht="24.95" customHeight="1">
       <c r="A578" s="2" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="O578" s="2" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="579" spans="1:15" ht="24.95" customHeight="1">
       <c r="A579" s="2" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="O579" s="2" t="s">
-        <v>2348</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="580" spans="1:15" ht="24.95" customHeight="1">
       <c r="A580" s="2" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="O580" s="2" t="s">
-        <v>1062</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="581" spans="1:15" ht="24.95" customHeight="1">
       <c r="A581" s="2" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="O581" s="2" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="582" spans="1:15" ht="24.95" customHeight="1">
       <c r="A582" s="2" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>67</v>
+        <v>1064</v>
       </c>
       <c r="O582" s="2" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="583" spans="1:15" ht="24.95" customHeight="1">
       <c r="A583" s="2" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>1069</v>
+        <v>67</v>
       </c>
       <c r="O583" s="2" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="584" spans="1:15" ht="24.95" customHeight="1">
       <c r="A584" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="O584" s="2" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="585" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A585" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="B584" s="2" t="s">
+      <c r="B585" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="O584" s="2" t="s">
+      <c r="O585" s="2" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="585" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O585" s="2"/>
-    </row>
     <row r="586" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A586" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B586" s="2" t="s">
-        <v>1817</v>
-      </c>
-      <c r="O586" s="2" t="s">
-        <v>1075</v>
-      </c>
+      <c r="O586" s="2"/>
     </row>
     <row r="587" spans="1:15" ht="24.95" customHeight="1">
       <c r="A587" s="2" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="O587" s="2" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="588" spans="1:15" ht="24.95" customHeight="1">
       <c r="A588" s="2" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>1826</v>
+        <v>1818</v>
       </c>
       <c r="O588" s="2" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="589" spans="1:15" ht="24.95" customHeight="1">
       <c r="A589" s="2" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="O589" s="2" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="590" spans="1:15" ht="24.95" customHeight="1">
       <c r="A590" s="2" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="O590" s="2" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="591" spans="1:15" ht="24.95" customHeight="1">
       <c r="A591" s="2" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>1821</v>
+        <v>1824</v>
       </c>
       <c r="O591" s="2" t="s">
-        <v>1763</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="592" spans="1:15" ht="24.95" customHeight="1">
       <c r="A592" s="2" t="s">
-        <v>1822</v>
+        <v>1084</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="O592" s="2" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="593" spans="1:15" ht="24.95" customHeight="1">
       <c r="A593" s="2" t="s">
-        <v>1085</v>
+        <v>1822</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>1819</v>
+        <v>1823</v>
       </c>
       <c r="O593" s="2" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="594" spans="1:15" ht="24.95" customHeight="1">
       <c r="A594" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>1819</v>
+      </c>
+      <c r="O594" s="2" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="595" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A595" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="B594" s="2" t="s">
+      <c r="B595" s="2" t="s">
         <v>1820</v>
       </c>
-      <c r="O594" s="2" t="s">
+      <c r="O595" s="2" t="s">
         <v>1760</v>
       </c>
     </row>
-    <row r="595" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O595" s="2"/>
-    </row>
     <row r="596" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A596" s="2" t="s">
-        <v>1888</v>
-      </c>
-      <c r="B596" s="2" t="s">
-        <v>1878</v>
-      </c>
-      <c r="O596" s="2" t="s">
-        <v>1895</v>
-      </c>
+      <c r="O596" s="2"/>
     </row>
     <row r="597" spans="1:15" ht="24.95" customHeight="1">
       <c r="A597" s="2" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>1891</v>
+        <v>1878</v>
       </c>
       <c r="O597" s="2" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="598" spans="1:15" ht="24.95" customHeight="1">
       <c r="A598" s="2" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="O598" s="2" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="599" spans="1:15" ht="24.95" customHeight="1">
       <c r="A599" s="2" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B599" s="2" t="s">
+        <v>1892</v>
+      </c>
+      <c r="O599" s="2" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="600" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A600" s="2" t="s">
         <v>1896</v>
       </c>
-      <c r="B599" s="2" t="s">
+      <c r="B600" s="2" t="s">
         <v>1897</v>
       </c>
-      <c r="O599" s="2" t="s">
+      <c r="O600" s="2" t="s">
         <v>1898</v>
       </c>
     </row>
-    <row r="600" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O600" s="2"/>
-    </row>
     <row r="601" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A601" s="2" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B601" s="2" t="s">
-        <v>1088</v>
-      </c>
-      <c r="O601" s="2" t="s">
-        <v>1089</v>
-      </c>
+      <c r="O601" s="2"/>
     </row>
     <row r="602" spans="1:15" ht="24.95" customHeight="1">
       <c r="A602" s="2" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="O602" s="2" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="603" spans="1:15" ht="24.95" customHeight="1">
       <c r="A603" s="2" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="O603" s="2" t="s">
-        <v>777</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="604" spans="1:15" ht="24.95" customHeight="1">
       <c r="A604" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="O604" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="605" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A605" s="2" t="s">
         <v>1095</v>
       </c>
-      <c r="B604" s="2" t="s">
+      <c r="B605" s="2" t="s">
         <v>1096</v>
       </c>
-      <c r="O604" s="2" t="s">
+      <c r="O605" s="2" t="s">
         <v>1812</v>
       </c>
     </row>
-    <row r="605" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O605" s="2"/>
-    </row>
     <row r="606" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A606" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B606" s="2" t="s">
-        <v>1098</v>
-      </c>
-      <c r="O606" s="2" t="s">
-        <v>1099</v>
-      </c>
+      <c r="O606" s="2"/>
     </row>
     <row r="607" spans="1:15" ht="24.95" customHeight="1">
       <c r="A607" s="2" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="O607" s="2" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="608" spans="1:15" ht="24.95" customHeight="1">
       <c r="A608" s="2" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="O608" s="2" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="609" spans="1:15" ht="24.95" customHeight="1">
       <c r="A609" s="2" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="O609" s="2" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="610" spans="1:15" ht="24.95" customHeight="1">
       <c r="A610" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="O610" s="2" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="611" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A611" s="2" t="s">
         <v>1109</v>
       </c>
-      <c r="B610" s="2" t="s">
+      <c r="B611" s="2" t="s">
         <v>1110</v>
       </c>
-      <c r="O610" s="2" t="s">
+      <c r="O611" s="2" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="611" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O611" s="2"/>
-    </row>
     <row r="612" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A612" s="2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B612" s="2" t="s">
-        <v>1113</v>
-      </c>
-      <c r="O612" s="2" t="s">
-        <v>1114</v>
-      </c>
+      <c r="O612" s="2"/>
     </row>
     <row r="613" spans="1:15" ht="24.95" customHeight="1">
       <c r="A613" s="2" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="O613" s="2" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="614" spans="1:15" ht="24.95" customHeight="1">
       <c r="A614" s="2" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="O614" s="2" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="615" spans="1:15" ht="24.95" customHeight="1">
       <c r="A615" s="2" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="O615" s="2" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="616" spans="1:15" ht="24.95" customHeight="1">
       <c r="A616" s="2" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="O616" s="2" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="617" spans="1:15" ht="24.95" customHeight="1">
       <c r="A617" s="2" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="O617" s="2" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="618" spans="1:15" ht="24.95" customHeight="1">
       <c r="A618" s="2" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>980</v>
+        <v>1128</v>
       </c>
       <c r="O618" s="2" t="s">
-        <v>981</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="619" spans="1:15" ht="24.95" customHeight="1">
       <c r="A619" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="O619" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="620" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A620" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="B619" s="2" t="s">
+      <c r="B620" s="2" t="s">
         <v>1132</v>
       </c>
-      <c r="O619" s="2" t="s">
+      <c r="O620" s="2" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="620" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O620" s="2"/>
-    </row>
     <row r="621" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A621" s="2" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B621" s="2" t="s">
-        <v>1135</v>
-      </c>
-      <c r="O621" s="2" t="s">
-        <v>1136</v>
-      </c>
+      <c r="O621" s="2"/>
     </row>
     <row r="622" spans="1:15" ht="24.95" customHeight="1">
       <c r="A622" s="2" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="O622" s="2" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="623" spans="1:15" ht="24.95" customHeight="1">
       <c r="A623" s="2" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="O623" s="2" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="624" spans="1:15" ht="24.95" customHeight="1">
       <c r="A624" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="O624" s="2" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="625" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A625" s="2" t="s">
         <v>1143</v>
       </c>
-      <c r="B624" s="2" t="s">
+      <c r="B625" s="2" t="s">
         <v>1144</v>
       </c>
-      <c r="O624" s="2" t="s">
+      <c r="O625" s="2" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="625" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O625" s="2"/>
-    </row>
     <row r="626" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A626" s="2" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B626" s="2" t="s">
-        <v>1147</v>
-      </c>
-      <c r="O626" s="2" t="s">
-        <v>1148</v>
-      </c>
+      <c r="O626" s="2"/>
     </row>
     <row r="627" spans="1:15" ht="24.95" customHeight="1">
       <c r="A627" s="2" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>601</v>
+        <v>1147</v>
       </c>
       <c r="O627" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="628" spans="1:15" ht="24.95" customHeight="1">
       <c r="A628" s="2" t="s">
-        <v>2522</v>
+        <v>1149</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="O628" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="629" spans="1:15" ht="24.95" customHeight="1">
       <c r="A629" s="2" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B629" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="O629" s="2" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="630" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A630" s="2" t="s">
         <v>1152</v>
       </c>
-      <c r="B629" s="2" t="s">
+      <c r="B630" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="O629" s="2" t="s">
+      <c r="O630" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="630" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O630" s="2"/>
-    </row>
     <row r="631" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A631" s="2" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B631" s="2" t="s">
-        <v>934</v>
-      </c>
-      <c r="O631" s="2" t="s">
-        <v>935</v>
-      </c>
+      <c r="O631" s="2"/>
     </row>
     <row r="632" spans="1:15" ht="24.95" customHeight="1">
       <c r="A632" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>1155</v>
+        <v>934</v>
       </c>
       <c r="O632" s="2" t="s">
-        <v>1000</v>
+        <v>935</v>
       </c>
     </row>
     <row r="633" spans="1:15" ht="24.95" customHeight="1">
       <c r="A633" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B633" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="O633" s="2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="634" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A634" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="O633" s="2" t="s">
+      <c r="O634" s="2" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="634" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O634" s="2"/>
-    </row>
     <row r="635" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A635" s="2" t="s">
-        <v>2588</v>
-      </c>
-      <c r="O635" s="2" t="s">
-        <v>2590</v>
-      </c>
+      <c r="O635" s="2"/>
     </row>
     <row r="636" spans="1:15" ht="24.95" customHeight="1">
       <c r="A636" s="2" t="s">
+        <v>2588</v>
+      </c>
+      <c r="O636" s="2" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="637" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A637" s="2" t="s">
         <v>2589</v>
       </c>
-      <c r="O636" s="2" t="s">
+      <c r="O637" s="2" t="s">
         <v>2591</v>
       </c>
     </row>
-    <row r="637" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O637" s="2"/>
-    </row>
     <row r="638" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A638" s="2" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B638" s="2" t="s">
-        <v>1159</v>
-      </c>
-      <c r="O638" s="2" t="s">
-        <v>1160</v>
-      </c>
+      <c r="O638" s="2"/>
     </row>
     <row r="639" spans="1:15" ht="24.95" customHeight="1">
       <c r="A639" s="2" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="O639" s="2" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="640" spans="1:15" ht="24.95" customHeight="1">
       <c r="A640" s="2" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>980</v>
+        <v>1162</v>
       </c>
       <c r="O640" s="2" t="s">
-        <v>981</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="641" spans="1:15" ht="24.95" customHeight="1">
       <c r="A641" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>1166</v>
+        <v>980</v>
       </c>
       <c r="O641" s="2" t="s">
-        <v>1167</v>
+        <v>981</v>
       </c>
     </row>
     <row r="642" spans="1:15" ht="24.95" customHeight="1">
       <c r="A642" s="2" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="O642" s="2" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="643" spans="1:15" ht="24.95" customHeight="1">
       <c r="A643" s="2" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>1877</v>
+        <v>1169</v>
       </c>
       <c r="O643" s="2" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="644" spans="1:15" ht="24.95" customHeight="1">
       <c r="A644" s="2" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>1174</v>
+        <v>1877</v>
       </c>
       <c r="O644" s="2" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="645" spans="1:15" ht="24.95" customHeight="1">
       <c r="A645" s="2" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="O645" s="2" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="646" spans="1:15" ht="24.95" customHeight="1">
       <c r="A646" s="2" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="O646" s="2" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="647" spans="1:15" ht="24.95" customHeight="1">
       <c r="A647" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="O647" s="2" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="648" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A648" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="B647" s="2" t="s">
+      <c r="B648" s="2" t="s">
         <v>1183</v>
       </c>
-      <c r="O647" s="2" t="s">
+      <c r="O648" s="2" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="648" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O648" s="2"/>
-    </row>
     <row r="649" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A649" s="2" t="s">
+      <c r="O649" s="2"/>
+    </row>
+    <row r="650" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A650" s="2" t="s">
         <v>1185</v>
       </c>
-      <c r="B649" s="2" t="s">
+      <c r="B650" s="2" t="s">
         <v>1814</v>
       </c>
-      <c r="O649" s="2" t="s">
+      <c r="O650" s="2" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="650" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O650" s="2"/>
-    </row>
     <row r="651" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A651" s="2" t="s">
+      <c r="O651" s="2"/>
+    </row>
+    <row r="652" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A652" s="2" t="s">
         <v>1187</v>
       </c>
-      <c r="B651" s="2" t="s">
+      <c r="B652" s="2" t="s">
         <v>1188</v>
       </c>
-      <c r="O651" s="2" t="s">
+      <c r="O652" s="2" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="652" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O652" s="2"/>
-    </row>
     <row r="653" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A653" s="2" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B653" s="2" t="s">
-        <v>1191</v>
-      </c>
-      <c r="O653" s="2" t="s">
-        <v>1192</v>
-      </c>
+      <c r="O653" s="2"/>
     </row>
     <row r="654" spans="1:15" ht="24.95" customHeight="1">
       <c r="A654" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="O654" s="2" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="655" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A655" s="2" t="s">
         <v>1193</v>
       </c>
-      <c r="B654" s="2" t="s">
+      <c r="B655" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="O654" s="2" t="s">
+      <c r="O655" s="2" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="655" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O655" s="2"/>
-    </row>
     <row r="656" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A656" s="2" t="s">
+      <c r="O656" s="2"/>
+    </row>
+    <row r="657" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A657" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="B656" s="2" t="s">
+      <c r="B657" s="2" t="s">
         <v>1197</v>
       </c>
-      <c r="O656" s="2" t="s">
+      <c r="O657" s="2" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="657" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O657" s="2"/>
-    </row>
     <row r="658" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A658" s="2" t="s">
-        <v>1199</v>
-      </c>
-      <c r="O658" s="2" t="s">
-        <v>1200</v>
-      </c>
+      <c r="O658" s="2"/>
     </row>
     <row r="659" spans="1:15" ht="24.95" customHeight="1">
       <c r="A659" s="2" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B659" s="2" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="O659" s="2" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="660" spans="1:15" ht="24.95" customHeight="1">
       <c r="A660" s="2" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="O660" s="2" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="661" spans="1:15" ht="24.95" customHeight="1">
       <c r="A661" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B661" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="O661" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="662" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A662" s="2" t="s">
         <v>1207</v>
       </c>
-      <c r="B661" s="2" t="s">
+      <c r="B662" s="2" t="s">
         <v>1208</v>
       </c>
-      <c r="O661" s="2" t="s">
+      <c r="O662" s="2" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="662" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O662" s="2"/>
-    </row>
     <row r="663" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A663" s="2" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B663" s="2" t="s">
-        <v>1211</v>
-      </c>
-      <c r="O663" s="2" t="s">
-        <v>1212</v>
-      </c>
+      <c r="O663" s="2"/>
     </row>
     <row r="664" spans="1:15" ht="24.95" customHeight="1">
       <c r="A664" s="2" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="O664" s="2" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="665" spans="1:15" ht="24.95" customHeight="1">
       <c r="A665" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B665" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="O665" s="2" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="666" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A666" s="2" t="s">
         <v>1216</v>
       </c>
-      <c r="B665" s="2" t="s">
+      <c r="B666" s="2" t="s">
         <v>1217</v>
       </c>
-      <c r="O665" s="2" t="s">
+      <c r="O666" s="2" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="666" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O666" s="2"/>
-    </row>
     <row r="667" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A667" s="2" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B667" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O667" s="2" t="s">
-        <v>1221</v>
-      </c>
+      <c r="O667" s="2"/>
     </row>
     <row r="668" spans="1:15" ht="24.95" customHeight="1">
       <c r="A668" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B668" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="O668" s="2" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="669" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A669" s="2" t="s">
         <v>1222</v>
       </c>
-      <c r="B668" s="2" t="s">
+      <c r="B669" s="2" t="s">
         <v>1223</v>
       </c>
-      <c r="O668" s="2" t="s">
+      <c r="O669" s="2" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="669" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O669" s="2"/>
-    </row>
     <row r="670" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A670" s="2" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B670" s="2" t="s">
-        <v>1226</v>
-      </c>
-      <c r="O670" s="2" t="s">
-        <v>1227</v>
-      </c>
+      <c r="O670" s="2"/>
     </row>
     <row r="671" spans="1:15" ht="24.95" customHeight="1">
       <c r="A671" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B671" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="O671" s="2" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="672" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A672" s="2" t="s">
         <v>1228</v>
       </c>
-      <c r="B671" s="2" t="s">
+      <c r="B672" s="2" t="s">
         <v>1229</v>
       </c>
-      <c r="O671" s="2" t="s">
+      <c r="O672" s="2" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="672" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O672" s="2"/>
-    </row>
     <row r="673" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A673" s="2" t="s">
+      <c r="O673" s="2"/>
+    </row>
+    <row r="674" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A674" s="2" t="s">
         <v>1231</v>
       </c>
-      <c r="O673" s="2" t="s">
+      <c r="O674" s="2" t="s">
         <v>1827</v>
       </c>
     </row>
-    <row r="674" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O674" s="2"/>
-    </row>
     <row r="675" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A675" s="2" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B675" s="2" t="s">
-        <v>1233</v>
-      </c>
-      <c r="O675" s="2" t="s">
-        <v>1234</v>
-      </c>
+      <c r="O675" s="2"/>
     </row>
     <row r="676" spans="1:15" ht="24.95" customHeight="1">
       <c r="A676" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B676" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O676" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="677" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A677" s="2" t="s">
         <v>1235</v>
       </c>
-      <c r="B676" s="2" t="s">
+      <c r="B677" s="2" t="s">
         <v>1236</v>
       </c>
-      <c r="O676" s="2" t="s">
+      <c r="O677" s="2" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="677" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O677" s="2"/>
-    </row>
     <row r="678" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A678" s="2" t="s">
+      <c r="O678" s="2"/>
+    </row>
+    <row r="679" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A679" s="2" t="s">
         <v>1238</v>
       </c>
-      <c r="B678" s="2" t="s">
+      <c r="B679" s="2" t="s">
         <v>1239</v>
       </c>
-      <c r="O678" s="2" t="s">
+      <c r="O679" s="2" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="679" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O679" s="2"/>
-    </row>
     <row r="680" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A680" s="2" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B680" s="2" t="s">
-        <v>1242</v>
-      </c>
-      <c r="O680" s="2" t="s">
-        <v>1243</v>
-      </c>
+      <c r="O680" s="2"/>
     </row>
     <row r="681" spans="1:15" ht="24.95" customHeight="1">
       <c r="A681" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="O681" s="2" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="682" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A682" s="2" t="s">
         <v>1244</v>
       </c>
-      <c r="B681" s="2" t="s">
+      <c r="B682" s="2" t="s">
         <v>1245</v>
       </c>
-      <c r="O681" s="2" t="s">
+      <c r="O682" s="2" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="682" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O682" s="2"/>
-    </row>
     <row r="683" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A683" s="2" t="s">
+      <c r="O683" s="2"/>
+    </row>
+    <row r="684" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A684" s="2" t="s">
         <v>1247</v>
       </c>
-      <c r="B683" s="2" t="s">
+      <c r="B684" s="2" t="s">
         <v>1816</v>
       </c>
-      <c r="O683" s="2" t="s">
+      <c r="O684" s="2" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="684" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O684" s="2"/>
-    </row>
     <row r="685" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A685" s="2" t="s">
+      <c r="O685" s="2"/>
+    </row>
+    <row r="686" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A686" s="2" t="s">
         <v>1249</v>
       </c>
-      <c r="O685" s="2" t="s">
+      <c r="O686" s="2" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="686" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O686" s="2"/>
-    </row>
     <row r="687" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A687" s="2" t="s">
+      <c r="O687" s="2"/>
+    </row>
+    <row r="688" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A688" s="2" t="s">
         <v>1250</v>
       </c>
-      <c r="B687" s="2" t="s">
+      <c r="B688" s="2" t="s">
         <v>1815</v>
       </c>
-      <c r="O687" s="2" t="s">
+      <c r="O688" s="2" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="688" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O688" s="2"/>
-    </row>
     <row r="689" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A689" s="2" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B689" s="2" t="s">
-        <v>1253</v>
-      </c>
-      <c r="O689" s="2" t="s">
-        <v>1254</v>
-      </c>
+      <c r="O689" s="2"/>
     </row>
     <row r="690" spans="1:15" ht="24.95" customHeight="1">
       <c r="A690" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B690" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="O690" s="2" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="691" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A691" s="2" t="s">
         <v>1255</v>
       </c>
-      <c r="B690" s="2" t="s">
+      <c r="B691" s="2" t="s">
         <v>1256</v>
       </c>
-      <c r="O690" s="2" t="s">
+      <c r="O691" s="2" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="691" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O691" s="2"/>
-    </row>
     <row r="692" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A692" s="2" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B692" s="2" t="s">
-        <v>1259</v>
-      </c>
-      <c r="O692" s="2" t="s">
-        <v>1260</v>
-      </c>
+      <c r="O692" s="2"/>
     </row>
     <row r="693" spans="1:15" ht="24.95" customHeight="1">
       <c r="A693" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B693" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="O693" s="2" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="694" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A694" s="2" t="s">
         <v>1261</v>
       </c>
-      <c r="B693" s="2" t="s">
+      <c r="B694" s="2" t="s">
         <v>1262</v>
       </c>
-      <c r="O693" s="2" t="s">
+      <c r="O694" s="2" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="694" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O694" s="2"/>
-    </row>
     <row r="695" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A695" s="2" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B695" s="2" t="s">
-        <v>1265</v>
-      </c>
-      <c r="O695" s="2" t="s">
-        <v>1266</v>
-      </c>
+      <c r="O695" s="2"/>
     </row>
     <row r="696" spans="1:15" ht="24.95" customHeight="1">
       <c r="A696" s="2" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="O696" s="2" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="697" spans="1:15" ht="24.95" customHeight="1">
       <c r="A697" s="2" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="O697" s="2" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="698" spans="1:15" ht="24.95" customHeight="1">
       <c r="A698" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B698" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="O698" s="2" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="699" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A699" s="2" t="s">
         <v>1273</v>
       </c>
-      <c r="B698" s="2" t="s">
+      <c r="B699" s="2" t="s">
         <v>1274</v>
       </c>
-      <c r="O698" s="2" t="s">
+      <c r="O699" s="2" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="699" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O699" s="2"/>
-    </row>
     <row r="700" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A700" s="2" t="s">
-        <v>1639</v>
-      </c>
-      <c r="O700" s="2" t="s">
-        <v>1641</v>
-      </c>
+      <c r="O700" s="2"/>
     </row>
     <row r="701" spans="1:15" ht="24.95" customHeight="1">
       <c r="A701" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="O701" s="2" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="702" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A702" s="2" t="s">
         <v>1640</v>
       </c>
-      <c r="O701" s="3" t="s">
+      <c r="O702" s="3" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="702" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O702" s="2"/>
     </row>
     <row r="703" spans="1:15" ht="24.95" customHeight="1">
       <c r="O703" s="2"/>
@@ -17890,8 +17929,8 @@
     <row r="798" spans="15:15" ht="24.95" customHeight="1">
       <c r="O798" s="2"/>
     </row>
-    <row r="800" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O800" s="2"/>
+    <row r="799" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O799" s="2"/>
     </row>
     <row r="801" spans="15:15" ht="24.95" customHeight="1">
       <c r="O801" s="2"/>
@@ -19070,23 +19109,23 @@
       <c r="O1192" s="2"/>
     </row>
     <row r="1193" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A1193" s="5"/>
-      <c r="B1193" s="5"/>
-      <c r="D1193" s="5"/>
-      <c r="E1193" s="5"/>
-      <c r="F1193" s="5"/>
-      <c r="G1193" s="5"/>
-      <c r="H1193" s="5"/>
-      <c r="I1193" s="5"/>
-      <c r="J1193" s="5"/>
-      <c r="K1193" s="5"/>
-      <c r="L1193" s="5"/>
-      <c r="M1193" s="5"/>
-      <c r="N1193" s="5"/>
-      <c r="O1193" s="6"/>
+      <c r="O1193" s="2"/>
     </row>
     <row r="1194" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O1194" s="2"/>
+      <c r="A1194" s="5"/>
+      <c r="B1194" s="5"/>
+      <c r="D1194" s="5"/>
+      <c r="E1194" s="5"/>
+      <c r="F1194" s="5"/>
+      <c r="G1194" s="5"/>
+      <c r="H1194" s="5"/>
+      <c r="I1194" s="5"/>
+      <c r="J1194" s="5"/>
+      <c r="K1194" s="5"/>
+      <c r="L1194" s="5"/>
+      <c r="M1194" s="5"/>
+      <c r="N1194" s="5"/>
+      <c r="O1194" s="6"/>
     </row>
     <row r="1195" spans="1:15" ht="24.95" customHeight="1">
       <c r="O1195" s="2"/>
@@ -20600,8 +20639,11 @@
     <row r="1698" spans="15:15" ht="24.95" customHeight="1">
       <c r="O1698" s="2"/>
     </row>
+    <row r="1699" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1699" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="O1:O1401" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="O1:O1402" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -20613,8 +20655,8 @@
   <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1"/>
@@ -22786,11 +22828,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Q403"/>
+  <dimension ref="A1:Q407"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O92" sqref="O92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A375" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P391" sqref="P391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -25532,64 +25574,64 @@
     </row>
     <row r="393" spans="1:15">
       <c r="A393" s="7" t="s">
-        <v>2325</v>
+        <v>2934</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>2325</v>
+        <v>2934</v>
       </c>
       <c r="O393" s="7" t="s">
-        <v>2326</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="394" spans="1:15">
       <c r="A394" s="7" t="s">
-        <v>2327</v>
+        <v>2935</v>
       </c>
       <c r="O394" s="7" t="s">
-        <v>2806</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="395" spans="1:15">
       <c r="A395" s="7" t="s">
-        <v>2328</v>
+        <v>2936</v>
       </c>
       <c r="O395" s="7" t="s">
-        <v>2806</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="397" spans="1:15">
       <c r="A397" s="7" t="s">
-        <v>2329</v>
+        <v>2325</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>2329</v>
+        <v>2325</v>
       </c>
       <c r="O397" s="7" t="s">
-        <v>2330</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="398" spans="1:15">
       <c r="A398" s="7" t="s">
-        <v>2331</v>
+        <v>2327</v>
       </c>
       <c r="O398" s="7" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="399" spans="1:15">
       <c r="A399" s="7" t="s">
-        <v>2332</v>
+        <v>2328</v>
       </c>
       <c r="O399" s="7" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="401" spans="1:15">
       <c r="A401" s="7" t="s">
-        <v>2333</v>
+        <v>2329</v>
       </c>
       <c r="B401" s="7" t="s">
-        <v>2333</v>
+        <v>2329</v>
       </c>
       <c r="O401" s="7" t="s">
         <v>2330</v>
@@ -25597,17 +25639,44 @@
     </row>
     <row r="402" spans="1:15">
       <c r="A402" s="7" t="s">
-        <v>2334</v>
+        <v>2331</v>
       </c>
       <c r="O402" s="7" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="403" spans="1:15">
       <c r="A403" s="7" t="s">
+        <v>2332</v>
+      </c>
+      <c r="O403" s="7" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="405" spans="1:15">
+      <c r="A405" s="7" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B405" s="7" t="s">
+        <v>2333</v>
+      </c>
+      <c r="O405" s="7" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="406" spans="1:15">
+      <c r="A406" s="7" t="s">
+        <v>2334</v>
+      </c>
+      <c r="O406" s="7" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="407" spans="1:15">
+      <c r="A407" s="7" t="s">
         <v>2335</v>
       </c>
-      <c r="O403" s="7" t="s">
+      <c r="O407" s="7" t="s">
         <v>2808</v>
       </c>
     </row>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited-Lite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39A105E-3AC4-485B-A85B-38E6B988CD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3697BE-9000-43F9-90E8-FCA1DD794C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="645" windowWidth="25620" windowHeight="15555" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="645" windowWidth="25620" windowHeight="15555" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Role Description" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Options!$O$1:$O$1417</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Options!$O$1:$O$1418</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3369" uniqueCount="3035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3387" uniqueCount="3053">
   <si>
     <t>English</t>
   </si>
@@ -10486,10 +10486,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>没有适合的杀手目标 {0}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>GhostRolesText</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -10668,12 +10664,6 @@
   </si>
   <si>
     <t>keyBinding.modifierAbility</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以给玩家涂油，随时可以在已涂油的目标附近点火。
-点火时会同时击杀所有已涂了油的玩家！（无视各种保护强制击杀）
-根据设置，在仅剩纵火狂一名杀手玩家时可以在会议结束后移除点火的冷却。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -10689,6 +10679,95 @@
     <t>可以得知被你击杀的玩家身份。
 注：附加能力的入殓师与主职业的入殓师冲突，
 当附加能力的入殓师开启时，自动禁用主职业的入殓师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WolfLord</t>
+  </si>
+  <si>
+    <t>WolfLord</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼之主</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WolfLordIntroDesc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WolfLordShortDesc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>witnessSkipMeeting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过会议时不会计分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以给玩家涂油，随时可以在已涂油的目标附近点火。
+点火时会同时击杀所有已涂了油的玩家！（无视各种保护强制击杀）
+另外，纵火狂的技能选中距离会比其他玩家更长。
+根据设置，在仅剩纵火狂一名杀手玩家时可以在会议结束后移除点火的冷却。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vortox</t>
+  </si>
+  <si>
+    <t>Vortox</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷乱旋涡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VortoxFullDesc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>干扰船员信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转反转再反转</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配阵营：伪装者
+存活时会干扰部分信息类船员职业，查验结果会被反转，
+尸检报告的死亡时间也会受到一定的干扰。
+另外根据设置，存活时如果会议跳过n次红狼方可直接获胜。
+注：干扰对被法医保护的玩家不生效。
+目前的干扰会影响的职业有：预言家、情报师、设陷师，
+尸检类职业：法医、侦探。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WolfLordFullDesc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在会议中可以揭示身份，获得一次在会议中击杀玩家的机会。 
+揭示身份后无法再使用赌怪能力，
+同时，如果使用赌怪能力则本轮会议无法揭示身份。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有适合的杀手目标 {0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VortoxIntroDesc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VortoxShortDesc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -11288,11 +11367,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1714"/>
+  <dimension ref="A1:Q1715"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A646" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O656" sqref="O656"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O462" sqref="O462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="24.95" customHeight="1"/>
@@ -11507,7 +11586,7 @@
     </row>
     <row r="17" spans="1:15" ht="24.95" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>2489</v>
@@ -11518,7 +11597,7 @@
     </row>
     <row r="18" spans="1:15" ht="24.95" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>2495</v>
@@ -11642,7 +11721,7 @@
     </row>
     <row r="30" spans="1:15" ht="24.95" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -11799,7 +11878,7 @@
     </row>
     <row r="45" spans="1:15" ht="24.95" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>2924</v>
@@ -15803,2343 +15882,2348 @@
       </c>
     </row>
     <row r="462" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O462" s="2"/>
+      <c r="A462" s="2" t="s">
+        <v>3038</v>
+      </c>
+      <c r="O462" s="3" t="s">
+        <v>3039</v>
+      </c>
     </row>
     <row r="463" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A463" s="2" t="s">
-        <v>2535</v>
-      </c>
-      <c r="O463" s="3" t="s">
-        <v>2536</v>
-      </c>
+      <c r="O463" s="2"/>
     </row>
     <row r="464" spans="1:15" ht="24.95" customHeight="1">
       <c r="A464" s="2" t="s">
-        <v>2525</v>
-      </c>
-      <c r="O464" s="2" t="s">
-        <v>2523</v>
+        <v>2535</v>
+      </c>
+      <c r="O464" s="3" t="s">
+        <v>2536</v>
       </c>
     </row>
     <row r="465" spans="1:15" ht="24.95" customHeight="1">
       <c r="A465" s="2" t="s">
+        <v>2525</v>
+      </c>
+      <c r="O465" s="2" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="466" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A466" s="2" t="s">
         <v>2526</v>
       </c>
-      <c r="O465" s="2" t="s">
+      <c r="O466" s="2" t="s">
         <v>2524</v>
       </c>
     </row>
-    <row r="466" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O466" s="2"/>
-    </row>
     <row r="467" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A467" s="2" t="s">
-        <v>1644</v>
-      </c>
-      <c r="B467" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="O467" s="2" t="s">
-        <v>1677</v>
-      </c>
+      <c r="O467" s="2"/>
     </row>
     <row r="468" spans="1:15" ht="24.95" customHeight="1">
       <c r="A468" s="2" t="s">
-        <v>1645</v>
+        <v>1644</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>1851</v>
       </c>
       <c r="O468" s="2" t="s">
-        <v>2468</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="469" spans="1:15" ht="24.95" customHeight="1">
       <c r="A469" s="2" t="s">
-        <v>1678</v>
-      </c>
-      <c r="B469" s="2" t="s">
-        <v>2469</v>
+        <v>1645</v>
       </c>
       <c r="O469" s="2" t="s">
-        <v>1849</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="470" spans="1:15" ht="24.95" customHeight="1">
       <c r="A470" s="2" t="s">
-        <v>949</v>
+        <v>1678</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="O470" s="2" t="s">
-        <v>2472</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="471" spans="1:15" ht="24.95" customHeight="1">
       <c r="A471" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="O471" s="2" t="s">
-        <v>951</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="472" spans="1:15" ht="24.95" customHeight="1">
       <c r="A472" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>2473</v>
+      </c>
+      <c r="O472" s="2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="473" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A473" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="B472" s="2" t="s">
+      <c r="B473" s="2" t="s">
         <v>2471</v>
       </c>
-      <c r="O472" s="2" t="s">
+      <c r="O473" s="2" t="s">
         <v>2467</v>
       </c>
     </row>
-    <row r="473" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O473" s="2"/>
-    </row>
     <row r="474" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A474" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="O474" s="2" t="s">
-        <v>981</v>
-      </c>
+      <c r="O474" s="2"/>
     </row>
     <row r="475" spans="1:15" ht="24.95" customHeight="1">
       <c r="A475" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O475" s="2" t="s">
-        <v>2915</v>
+        <v>981</v>
       </c>
     </row>
     <row r="476" spans="1:15" ht="24.95" customHeight="1">
       <c r="A476" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="O476" s="2" t="s">
-        <v>984</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="477" spans="1:15" ht="24.95" customHeight="1">
       <c r="A477" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O477" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="478" spans="1:15" ht="24.95" customHeight="1">
       <c r="A478" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="O478" s="2" t="s">
-        <v>2570</v>
+        <v>986</v>
       </c>
     </row>
     <row r="479" spans="1:15" ht="24.95" customHeight="1">
       <c r="A479" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="O479" s="2" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="480" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A480" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="O479" s="2" t="s">
+      <c r="O480" s="2" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="480" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O480" s="2"/>
-    </row>
     <row r="481" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A481" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B481" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="O481" s="2" t="s">
-        <v>1683</v>
-      </c>
+      <c r="O481" s="2"/>
     </row>
     <row r="482" spans="1:15" ht="24.95" customHeight="1">
       <c r="A482" s="2" t="s">
-        <v>1687</v>
+        <v>804</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>1848</v>
+        <v>805</v>
       </c>
       <c r="O482" s="2" t="s">
-        <v>1847</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="483" spans="1:15" ht="24.95" customHeight="1">
       <c r="A483" s="2" t="s">
-        <v>806</v>
+        <v>1687</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>807</v>
+        <v>1848</v>
       </c>
       <c r="O483" s="2" t="s">
-        <v>808</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="484" spans="1:15" ht="24.95" customHeight="1">
       <c r="A484" s="2" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="O484" s="2" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="485" spans="1:15" ht="24.95" customHeight="1">
       <c r="A485" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="O485" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="486" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A486" s="2" t="s">
         <v>1682</v>
       </c>
-      <c r="B485" s="2" t="s">
+      <c r="B486" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="O485" s="3" t="s">
+      <c r="O486" s="3" t="s">
         <v>1681</v>
       </c>
     </row>
-    <row r="487" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A487" s="2" t="s">
+    <row r="488" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A488" s="2" t="s">
         <v>2945</v>
       </c>
-      <c r="B487" s="2" t="s">
+      <c r="B488" s="2" t="s">
         <v>2946</v>
       </c>
-      <c r="O487" s="3" t="s">
+      <c r="O488" s="3" t="s">
         <v>2947</v>
       </c>
     </row>
-    <row r="488" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O488" s="2"/>
-    </row>
     <row r="489" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A489" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="B489" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="O489" s="2" t="s">
-        <v>815</v>
-      </c>
+      <c r="O489" s="2"/>
     </row>
     <row r="490" spans="1:15" ht="24.95" customHeight="1">
       <c r="A490" s="2" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="O490" s="2" t="s">
-        <v>520</v>
+        <v>815</v>
       </c>
     </row>
     <row r="491" spans="1:15" ht="24.95" customHeight="1">
       <c r="A491" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="O491" s="2" t="s">
-        <v>820</v>
+        <v>520</v>
       </c>
     </row>
     <row r="492" spans="1:15" ht="24.95" customHeight="1">
       <c r="A492" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="O492" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="493" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A493" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="B492" s="2" t="s">
+      <c r="B493" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="O492" s="2" t="s">
+      <c r="O493" s="2" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="493" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O493" s="2"/>
-    </row>
     <row r="494" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A494" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="B494" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="O494" s="2" t="s">
-        <v>824</v>
-      </c>
+      <c r="O494" s="2"/>
     </row>
     <row r="495" spans="1:15" ht="24.95" customHeight="1">
       <c r="A495" s="2" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="O495" s="2" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="496" spans="1:15" ht="24.95" customHeight="1">
       <c r="A496" s="2" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="O496" s="2" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="497" spans="1:15" ht="24.95" customHeight="1">
       <c r="A497" s="2" t="s">
-        <v>2474</v>
+        <v>831</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>832</v>
       </c>
       <c r="O497" s="2" t="s">
-        <v>2475</v>
+        <v>833</v>
       </c>
     </row>
     <row r="498" spans="1:15" ht="24.95" customHeight="1">
       <c r="A498" s="2" t="s">
-        <v>834</v>
+        <v>2474</v>
       </c>
       <c r="O498" s="2" t="s">
-        <v>835</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="499" spans="1:15" ht="24.95" customHeight="1">
       <c r="A499" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="O499" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="500" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A500" s="2" t="s">
         <v>2347</v>
       </c>
-      <c r="O499" s="2" t="s">
+      <c r="O500" s="2" t="s">
         <v>2521</v>
       </c>
     </row>
-    <row r="500" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O500" s="2"/>
-    </row>
     <row r="501" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A501" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="B501" s="2" t="s">
-        <v>1720</v>
-      </c>
-      <c r="O501" s="2" t="s">
-        <v>837</v>
-      </c>
+      <c r="O501" s="2"/>
     </row>
     <row r="502" spans="1:15" ht="24.95" customHeight="1">
       <c r="A502" s="2" t="s">
-        <v>1718</v>
+        <v>836</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="O502" s="2" t="s">
-        <v>786</v>
+        <v>837</v>
       </c>
     </row>
     <row r="503" spans="1:15" ht="24.95" customHeight="1">
       <c r="A503" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>1719</v>
+      </c>
+      <c r="O503" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="504" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A504" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="B503" s="2" t="s">
+      <c r="B504" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="O503" s="2" t="s">
+      <c r="O504" s="2" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="504" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O504" s="2"/>
-    </row>
     <row r="505" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A505" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="B505" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="O505" s="2" t="s">
-        <v>840</v>
-      </c>
+      <c r="O505" s="2"/>
     </row>
     <row r="506" spans="1:15" ht="24.95" customHeight="1">
       <c r="A506" s="2" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="O506" s="2" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="507" spans="1:15" ht="24.95" customHeight="1">
       <c r="A507" s="2" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="O507" s="2" t="s">
-        <v>2520</v>
+        <v>843</v>
       </c>
     </row>
     <row r="508" spans="1:15" ht="24.95" customHeight="1">
       <c r="A508" s="2" t="s">
-        <v>1715</v>
+        <v>844</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1717</v>
+        <v>845</v>
       </c>
       <c r="O508" s="2" t="s">
-        <v>1716</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="509" spans="1:15" ht="24.95" customHeight="1">
       <c r="A509" s="2" t="s">
-        <v>846</v>
+        <v>1715</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>847</v>
+        <v>1717</v>
       </c>
       <c r="O509" s="2" t="s">
-        <v>848</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="510" spans="1:15" ht="24.95" customHeight="1">
       <c r="A510" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="O510" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="511" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A511" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="B510" s="2" t="s">
+      <c r="B511" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="O510" s="2" t="s">
+      <c r="O511" s="2" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="511" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O511" s="2"/>
-    </row>
     <row r="512" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A512" s="2" t="s">
+      <c r="O512" s="2"/>
+    </row>
+    <row r="513" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A513" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="B512" s="2" t="s">
+      <c r="B513" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="O512" s="2" t="s">
+      <c r="O513" s="2" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="513" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O513" s="2"/>
-    </row>
     <row r="514" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A514" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="B514" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="O514" s="2" t="s">
-        <v>857</v>
-      </c>
+      <c r="O514" s="2"/>
     </row>
     <row r="515" spans="1:15" ht="24.95" customHeight="1">
       <c r="A515" s="2" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="O515" s="2" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="516" spans="1:15" ht="24.95" customHeight="1">
       <c r="A516" s="2" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="O516" s="2" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="517" spans="1:15" ht="24.95" customHeight="1">
       <c r="A517" s="2" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="O517" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="518" spans="1:15" ht="24.95" customHeight="1">
       <c r="A518" s="2" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="O518" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="519" spans="1:15" ht="24.95" customHeight="1">
       <c r="A519" s="2" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>652</v>
+        <v>868</v>
       </c>
       <c r="O519" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="520" spans="1:15" ht="24.95" customHeight="1">
       <c r="A520" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="O520" s="2" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="521" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A521" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="B520" s="2" t="s">
+      <c r="B521" s="2" t="s">
         <v>1846</v>
       </c>
-      <c r="O520" s="2" t="s">
+      <c r="O521" s="2" t="s">
         <v>1845</v>
       </c>
     </row>
-    <row r="521" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O521" s="2"/>
-    </row>
     <row r="522" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A522" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="B522" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="O522" s="2" t="s">
-        <v>875</v>
-      </c>
+      <c r="O522" s="2"/>
     </row>
     <row r="523" spans="1:15" ht="24.95" customHeight="1">
       <c r="A523" s="2" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="O523" s="2" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="524" spans="1:15" ht="24.95" customHeight="1">
       <c r="A524" s="2" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="O524" s="2" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="525" spans="1:15" ht="24.95" customHeight="1">
       <c r="A525" s="2" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="O525" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="526" spans="1:15" ht="24.95" customHeight="1">
       <c r="A526" s="2" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="O526" s="2" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="527" spans="1:15" ht="24.95" customHeight="1">
       <c r="A527" s="2" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="O527" s="2" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="528" spans="1:15" ht="24.95" customHeight="1">
       <c r="A528" s="2" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="O528" s="2" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="529" spans="1:15" ht="24.95" customHeight="1">
       <c r="A529" s="2" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="O529" s="2" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="530" spans="1:15" ht="24.95" customHeight="1">
       <c r="A530" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="O530" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="531" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A531" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="B530" s="2" t="s">
+      <c r="B531" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="O530" s="2" t="s">
+      <c r="O531" s="2" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="531" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O531" s="2"/>
-    </row>
     <row r="532" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A532" s="2" t="s">
-        <v>1831</v>
-      </c>
-      <c r="B532" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="O532" s="2" t="s">
-        <v>901</v>
-      </c>
+      <c r="O532" s="2"/>
     </row>
     <row r="533" spans="1:15" ht="24.95" customHeight="1">
       <c r="A533" s="2" t="s">
-        <v>1832</v>
+        <v>1831</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>900</v>
       </c>
       <c r="O533" s="2" t="s">
-        <v>1833</v>
+        <v>901</v>
       </c>
     </row>
     <row r="534" spans="1:15" ht="24.95" customHeight="1">
       <c r="A534" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="B534" s="2" t="s">
-        <v>903</v>
+        <v>1832</v>
       </c>
       <c r="O534" s="2" t="s">
-        <v>904</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="535" spans="1:15" ht="24.95" customHeight="1">
       <c r="A535" s="2" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="O535" s="2" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="536" spans="1:15" ht="24.95" customHeight="1">
       <c r="A536" s="2" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="O536" s="2" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="537" spans="1:15" ht="24.95" customHeight="1">
       <c r="A537" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="O537" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="538" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A538" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="B537" s="2" t="s">
+      <c r="B538" s="2" t="s">
         <v>1826</v>
       </c>
-      <c r="O537" s="2" t="s">
+      <c r="O538" s="2" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="538" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O538" s="2"/>
-    </row>
     <row r="539" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A539" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="B539" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="O539" s="2" t="s">
-        <v>915</v>
-      </c>
+      <c r="O539" s="2"/>
     </row>
     <row r="540" spans="1:15" ht="24.95" customHeight="1">
       <c r="A540" s="2" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="O540" s="2" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="541" spans="1:15" ht="24.95" customHeight="1">
       <c r="A541" s="2" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="O541" s="2" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="542" spans="1:15" ht="24.95" customHeight="1">
       <c r="A542" s="2" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="O542" s="2" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="543" spans="1:15" ht="24.95" customHeight="1">
       <c r="A543" s="2" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="O543" s="2" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="544" spans="1:15" ht="24.95" customHeight="1">
       <c r="A544" s="2" t="s">
-        <v>2342</v>
+        <v>925</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>944</v>
+        <v>926</v>
       </c>
       <c r="O544" s="2" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="545" spans="1:15" ht="24.95" customHeight="1">
       <c r="A545" s="2" t="s">
-        <v>928</v>
+        <v>2342</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>929</v>
+        <v>944</v>
       </c>
       <c r="O545" s="2" t="s">
-        <v>2343</v>
+        <v>930</v>
       </c>
     </row>
     <row r="546" spans="1:15" ht="24.95" customHeight="1">
       <c r="A546" s="2" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="O546" s="2" t="s">
-        <v>933</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="547" spans="1:15" ht="24.95" customHeight="1">
       <c r="A547" s="2" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="O547" s="2" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="548" spans="1:15" ht="24.95" customHeight="1">
       <c r="A548" s="2" t="s">
-        <v>1834</v>
+        <v>934</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="O548" s="2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="549" spans="1:15" ht="24.95" customHeight="1">
       <c r="A549" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="B549" s="3" t="s">
-        <v>2344</v>
+        <v>1834</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>937</v>
       </c>
       <c r="O549" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="550" spans="1:15" ht="24.95" customHeight="1">
       <c r="A550" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="B550" s="2" t="s">
-        <v>942</v>
+        <v>939</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>2344</v>
       </c>
       <c r="O550" s="2" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="551" spans="1:15" ht="24.95" customHeight="1">
       <c r="A551" s="2" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>909</v>
+        <v>942</v>
       </c>
       <c r="O551" s="2" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="552" spans="1:15" ht="24.95" customHeight="1">
       <c r="A552" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="O552" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="553" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A553" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="B552" s="2" t="s">
+      <c r="B553" s="2" t="s">
         <v>2345</v>
       </c>
-      <c r="O552" s="2" t="s">
+      <c r="O553" s="2" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="553" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O553" s="2"/>
-    </row>
     <row r="554" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A554" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="B554" s="2" t="s">
-        <v>954</v>
-      </c>
-      <c r="O554" s="2" t="s">
-        <v>955</v>
-      </c>
+      <c r="O554" s="2"/>
     </row>
     <row r="555" spans="1:15" ht="24.95" customHeight="1">
       <c r="A555" s="2" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="O555" s="2" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="556" spans="1:15" ht="24.95" customHeight="1">
       <c r="A556" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="O556" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="557" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A557" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="B556" s="2" t="s">
+      <c r="B557" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="O556" s="2" t="s">
+      <c r="O557" s="2" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="557" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O557" s="2"/>
-    </row>
     <row r="558" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A558" s="2" t="s">
-        <v>1726</v>
-      </c>
-      <c r="B558" s="2" t="s">
-        <v>962</v>
-      </c>
-      <c r="O558" s="2" t="s">
-        <v>963</v>
-      </c>
+      <c r="O558" s="2"/>
     </row>
     <row r="559" spans="1:15" ht="24.95" customHeight="1">
       <c r="A559" s="2" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="O559" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="560" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A560" s="2" t="s">
         <v>1727</v>
       </c>
-      <c r="B559" s="2" t="s">
+      <c r="B560" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="O559" s="2" t="s">
+      <c r="O560" s="2" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="560" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O560" s="2"/>
-    </row>
     <row r="561" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A561" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="B561" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="O561" s="2" t="s">
-        <v>786</v>
-      </c>
+      <c r="O561" s="2"/>
     </row>
     <row r="562" spans="1:15" ht="24.95" customHeight="1">
       <c r="A562" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="O562" s="2" t="s">
-        <v>970</v>
+        <v>786</v>
       </c>
     </row>
     <row r="563" spans="1:15" ht="24.95" customHeight="1">
       <c r="A563" s="2" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="O563" s="2" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="564" spans="1:15" ht="24.95" customHeight="1">
       <c r="A564" s="2" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="O564" s="2" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="565" spans="1:15" ht="24.95" customHeight="1">
       <c r="A565" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="O565" s="2" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="566" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A566" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="B565" s="2" t="s">
+      <c r="B566" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="O565" s="2" t="s">
+      <c r="O566" s="2" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="566" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O566" s="2"/>
-    </row>
     <row r="567" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A567" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="B567" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="O567" s="2" t="s">
-        <v>992</v>
-      </c>
+      <c r="O567" s="2"/>
     </row>
     <row r="568" spans="1:15" ht="24.95" customHeight="1">
       <c r="A568" s="2" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="O568" s="2" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="569" spans="1:15" ht="24.95" customHeight="1">
       <c r="A569" s="2" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="O569" s="2" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="570" spans="1:15" ht="24.95" customHeight="1">
       <c r="A570" s="2" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="O570" s="2" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="571" spans="1:15" ht="24.95" customHeight="1">
       <c r="A571" s="2" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="O571" s="2" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="572" spans="1:15" ht="24.95" customHeight="1">
       <c r="A572" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="O572" s="2" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="573" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A573" s="2" t="s">
         <v>1005</v>
       </c>
-      <c r="B572" s="2" t="s">
+      <c r="B573" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="O572" s="2" t="s">
+      <c r="O573" s="2" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="573" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O573" s="2"/>
-    </row>
     <row r="574" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A574" s="2" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B574" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="O574" s="2" t="s">
-        <v>1010</v>
-      </c>
+      <c r="O574" s="2"/>
     </row>
     <row r="575" spans="1:15" ht="24.95" customHeight="1">
       <c r="A575" s="2" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="O575" s="2" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="576" spans="1:15" ht="24.95" customHeight="1">
       <c r="A576" s="2" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="O576" s="2" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="577" spans="1:15" ht="24.95" customHeight="1">
       <c r="A577" s="2" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="O577" s="2" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="578" spans="1:15" ht="24.95" customHeight="1">
       <c r="A578" s="2" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>978</v>
+        <v>1018</v>
       </c>
       <c r="O578" s="2" t="s">
-        <v>979</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="579" spans="1:15" ht="24.95" customHeight="1">
       <c r="A579" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="O579" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="580" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A580" s="2" t="s">
         <v>1021</v>
       </c>
-      <c r="B579" s="2" t="s">
+      <c r="B580" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="O579" s="2" t="s">
+      <c r="O580" s="2" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="580" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O580" s="2"/>
-    </row>
     <row r="581" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A581" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B581" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="O581" s="2" t="s">
-        <v>634</v>
-      </c>
+      <c r="O581" s="2"/>
     </row>
     <row r="582" spans="1:15" ht="24.95" customHeight="1">
       <c r="A582" s="2" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="O582" s="2" t="s">
-        <v>1028</v>
+        <v>634</v>
       </c>
     </row>
     <row r="583" spans="1:15" ht="24.95" customHeight="1">
       <c r="A583" s="2" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="O583" s="2" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="584" spans="1:15" ht="24.95" customHeight="1">
       <c r="A584" s="2" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="O584" s="2" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="585" spans="1:15" ht="24.95" customHeight="1">
       <c r="A585" s="2" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="O585" s="2" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="586" spans="1:15" ht="24.95" customHeight="1">
       <c r="A586" s="2" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="O586" s="2" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="587" spans="1:15" ht="24.95" customHeight="1">
       <c r="A587" s="2" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="O587" s="2" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="588" spans="1:15" ht="24.95" customHeight="1">
       <c r="A588" s="2" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="O588" s="2" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="589" spans="1:15" ht="24.95" customHeight="1">
       <c r="A589" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="O589" s="2" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="590" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A590" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="B589" s="2" t="s">
+      <c r="B590" s="2" t="s">
         <v>1048</v>
       </c>
-      <c r="O589" s="2" t="s">
+      <c r="O590" s="2" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="590" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O590" s="2"/>
-    </row>
     <row r="591" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A591" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B591" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="O591" s="2" t="s">
-        <v>1052</v>
-      </c>
+      <c r="O591" s="2"/>
     </row>
     <row r="592" spans="1:15" ht="24.95" customHeight="1">
       <c r="A592" s="2" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="O592" s="2" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="593" spans="1:15" ht="24.95" customHeight="1">
       <c r="A593" s="2" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="O593" s="2" t="s">
-        <v>2346</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="594" spans="1:15" ht="24.95" customHeight="1">
       <c r="A594" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="O594" s="2" t="s">
-        <v>1060</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="595" spans="1:15" ht="24.95" customHeight="1">
       <c r="A595" s="2" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="O595" s="2" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="596" spans="1:15" ht="24.95" customHeight="1">
       <c r="A596" s="2" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>66</v>
+        <v>1062</v>
       </c>
       <c r="O596" s="2" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="597" spans="1:15" ht="24.95" customHeight="1">
       <c r="A597" s="2" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>1067</v>
+        <v>66</v>
       </c>
       <c r="O597" s="2" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="598" spans="1:15" ht="24.95" customHeight="1">
       <c r="A598" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="O598" s="2" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="599" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A599" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="B598" s="2" t="s">
+      <c r="B599" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="O598" s="2" t="s">
+      <c r="O599" s="2" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="599" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O599" s="2"/>
-    </row>
     <row r="600" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A600" s="2" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B600" s="2" t="s">
-        <v>1815</v>
-      </c>
-      <c r="O600" s="2" t="s">
-        <v>1073</v>
-      </c>
+      <c r="O600" s="2"/>
     </row>
     <row r="601" spans="1:15" ht="24.95" customHeight="1">
       <c r="A601" s="2" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="O601" s="2" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="602" spans="1:15" ht="24.95" customHeight="1">
       <c r="A602" s="2" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>1824</v>
+        <v>1816</v>
       </c>
       <c r="O602" s="2" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="603" spans="1:15" ht="24.95" customHeight="1">
       <c r="A603" s="2" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="O603" s="2" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="604" spans="1:15" ht="24.95" customHeight="1">
       <c r="A604" s="2" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="O604" s="2" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="605" spans="1:15" ht="24.95" customHeight="1">
       <c r="A605" s="2" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="O605" s="2" t="s">
-        <v>1761</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="606" spans="1:15" ht="24.95" customHeight="1">
       <c r="A606" s="2" t="s">
-        <v>1820</v>
+        <v>1082</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="O606" s="2" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="607" spans="1:15" ht="24.95" customHeight="1">
       <c r="A607" s="2" t="s">
-        <v>1083</v>
+        <v>1820</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>1817</v>
+        <v>1821</v>
       </c>
       <c r="O607" s="2" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="608" spans="1:15" ht="24.95" customHeight="1">
       <c r="A608" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>1817</v>
+      </c>
+      <c r="O608" s="2" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="609" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A609" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="B608" s="2" t="s">
+      <c r="B609" s="2" t="s">
         <v>1818</v>
       </c>
-      <c r="O608" s="2" t="s">
+      <c r="O609" s="2" t="s">
         <v>1758</v>
       </c>
     </row>
-    <row r="609" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O609" s="2"/>
-    </row>
     <row r="610" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A610" s="2" t="s">
-        <v>1886</v>
-      </c>
-      <c r="B610" s="2" t="s">
-        <v>1876</v>
-      </c>
-      <c r="O610" s="2" t="s">
-        <v>1893</v>
-      </c>
+      <c r="O610" s="2"/>
     </row>
     <row r="611" spans="1:15" ht="24.95" customHeight="1">
       <c r="A611" s="2" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>1889</v>
+        <v>1876</v>
       </c>
       <c r="O611" s="2" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="612" spans="1:15" ht="24.95" customHeight="1">
       <c r="A612" s="2" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="O612" s="2" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="613" spans="1:15" ht="24.95" customHeight="1">
       <c r="A613" s="2" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>1890</v>
+      </c>
+      <c r="O613" s="2" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="614" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A614" s="2" t="s">
         <v>1894</v>
       </c>
-      <c r="B613" s="2" t="s">
+      <c r="B614" s="2" t="s">
         <v>1895</v>
       </c>
-      <c r="O613" s="2" t="s">
+      <c r="O614" s="2" t="s">
         <v>1896</v>
       </c>
     </row>
-    <row r="614" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O614" s="2"/>
-    </row>
     <row r="615" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A615" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B615" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="O615" s="2" t="s">
-        <v>1087</v>
-      </c>
+      <c r="O615" s="2"/>
     </row>
     <row r="616" spans="1:15" ht="24.95" customHeight="1">
       <c r="A616" s="2" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="O616" s="2" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="617" spans="1:15" ht="24.95" customHeight="1">
       <c r="A617" s="2" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="O617" s="2" t="s">
-        <v>775</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="618" spans="1:15" ht="24.95" customHeight="1">
       <c r="A618" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="O618" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="619" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A619" s="2" t="s">
         <v>1093</v>
       </c>
-      <c r="B618" s="2" t="s">
+      <c r="B619" s="2" t="s">
         <v>1094</v>
       </c>
-      <c r="O618" s="2" t="s">
+      <c r="O619" s="2" t="s">
         <v>1810</v>
       </c>
     </row>
-    <row r="619" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O619" s="2"/>
-    </row>
     <row r="620" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A620" s="2" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B620" s="2" t="s">
-        <v>1096</v>
-      </c>
-      <c r="O620" s="2" t="s">
-        <v>1097</v>
-      </c>
+      <c r="O620" s="2"/>
     </row>
     <row r="621" spans="1:15" ht="24.95" customHeight="1">
       <c r="A621" s="2" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="O621" s="2" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="622" spans="1:15" ht="24.95" customHeight="1">
       <c r="A622" s="2" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="O622" s="2" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="623" spans="1:15" ht="24.95" customHeight="1">
       <c r="A623" s="2" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="O623" s="2" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="624" spans="1:15" ht="24.95" customHeight="1">
       <c r="A624" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="O624" s="2" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="625" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A625" s="2" t="s">
         <v>1107</v>
       </c>
-      <c r="B624" s="2" t="s">
+      <c r="B625" s="2" t="s">
         <v>1108</v>
       </c>
-      <c r="O624" s="2" t="s">
+      <c r="O625" s="2" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="625" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O625" s="2"/>
-    </row>
     <row r="626" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A626" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B626" s="2" t="s">
-        <v>1111</v>
-      </c>
-      <c r="O626" s="2" t="s">
-        <v>1112</v>
-      </c>
+      <c r="O626" s="2"/>
     </row>
     <row r="627" spans="1:15" ht="24.95" customHeight="1">
       <c r="A627" s="2" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="O627" s="2" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="628" spans="1:15" ht="24.95" customHeight="1">
       <c r="A628" s="2" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="O628" s="2" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="629" spans="1:15" ht="24.95" customHeight="1">
       <c r="A629" s="2" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="O629" s="2" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="630" spans="1:15" ht="24.95" customHeight="1">
       <c r="A630" s="2" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="O630" s="2" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="631" spans="1:15" ht="24.95" customHeight="1">
       <c r="A631" s="2" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="O631" s="2" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="632" spans="1:15" ht="24.95" customHeight="1">
       <c r="A632" s="2" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>978</v>
+        <v>1126</v>
       </c>
       <c r="O632" s="2" t="s">
-        <v>979</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="633" spans="1:15" ht="24.95" customHeight="1">
       <c r="A633" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B633" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="O633" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="634" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A634" s="2" t="s">
         <v>1129</v>
       </c>
-      <c r="B633" s="2" t="s">
+      <c r="B634" s="2" t="s">
         <v>1130</v>
       </c>
-      <c r="O633" s="2" t="s">
+      <c r="O634" s="2" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="634" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O634" s="2"/>
-    </row>
     <row r="635" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A635" s="2" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B635" s="2" t="s">
-        <v>1133</v>
-      </c>
-      <c r="O635" s="2" t="s">
-        <v>1134</v>
-      </c>
+      <c r="O635" s="2"/>
     </row>
     <row r="636" spans="1:15" ht="24.95" customHeight="1">
       <c r="A636" s="2" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="O636" s="2" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="637" spans="1:15" ht="24.95" customHeight="1">
       <c r="A637" s="2" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="O637" s="2" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="638" spans="1:15" ht="24.95" customHeight="1">
       <c r="A638" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="O638" s="2" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="639" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A639" s="2" t="s">
         <v>1141</v>
       </c>
-      <c r="B638" s="2" t="s">
+      <c r="B639" s="2" t="s">
         <v>1142</v>
       </c>
-      <c r="O638" s="2" t="s">
+      <c r="O639" s="2" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="639" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O639" s="2"/>
-    </row>
     <row r="640" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A640" s="2" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B640" s="2" t="s">
-        <v>1145</v>
-      </c>
-      <c r="O640" s="2" t="s">
-        <v>1146</v>
-      </c>
+      <c r="O640" s="2"/>
     </row>
     <row r="641" spans="1:15" ht="24.95" customHeight="1">
       <c r="A641" s="2" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>600</v>
+        <v>1145</v>
       </c>
       <c r="O641" s="2" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="642" spans="1:15" ht="24.95" customHeight="1">
       <c r="A642" s="2" t="s">
-        <v>2517</v>
+        <v>1147</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O642" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="643" spans="1:15" ht="24.95" customHeight="1">
       <c r="A643" s="2" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="O643" s="2" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="644" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A644" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="B643" s="2" t="s">
+      <c r="B644" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="O643" s="2" t="s">
+      <c r="O644" s="2" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="644" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O644" s="2"/>
-    </row>
     <row r="645" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A645" s="2" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B645" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="O645" s="2" t="s">
-        <v>933</v>
-      </c>
+      <c r="O645" s="2"/>
     </row>
     <row r="646" spans="1:15" ht="24.95" customHeight="1">
       <c r="A646" s="2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>1153</v>
+        <v>932</v>
       </c>
       <c r="O646" s="2" t="s">
-        <v>998</v>
+        <v>933</v>
       </c>
     </row>
     <row r="647" spans="1:15" ht="24.95" customHeight="1">
       <c r="A647" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="O647" s="2" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="648" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A648" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="O647" s="2" t="s">
+      <c r="O648" s="2" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="648" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O648" s="2"/>
-    </row>
     <row r="649" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A649" s="2" t="s">
-        <v>2583</v>
-      </c>
-      <c r="O649" s="2" t="s">
-        <v>2585</v>
-      </c>
+      <c r="O649" s="2"/>
     </row>
     <row r="650" spans="1:15" ht="24.95" customHeight="1">
       <c r="A650" s="2" t="s">
+        <v>2583</v>
+      </c>
+      <c r="O650" s="2" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="651" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A651" s="2" t="s">
         <v>2584</v>
       </c>
-      <c r="O650" s="2" t="s">
+      <c r="O651" s="2" t="s">
         <v>2586</v>
       </c>
     </row>
-    <row r="651" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O651" s="2"/>
-    </row>
     <row r="652" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A652" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B652" s="2" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O652" s="2" t="s">
-        <v>1158</v>
-      </c>
+      <c r="O652" s="2"/>
     </row>
     <row r="653" spans="1:15" ht="24.95" customHeight="1">
       <c r="A653" s="2" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="O653" s="2" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="654" spans="1:15" ht="24.95" customHeight="1">
       <c r="A654" s="2" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>978</v>
+        <v>1160</v>
       </c>
       <c r="O654" s="2" t="s">
-        <v>979</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="655" spans="1:15" ht="24.95" customHeight="1">
       <c r="A655" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>1164</v>
+        <v>978</v>
       </c>
       <c r="O655" s="2" t="s">
-        <v>1165</v>
+        <v>979</v>
       </c>
     </row>
     <row r="656" spans="1:15" ht="24.95" customHeight="1">
       <c r="A656" s="2" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="O656" s="2" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="657" spans="1:15" ht="24.95" customHeight="1">
       <c r="A657" s="2" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>1875</v>
+        <v>1167</v>
       </c>
       <c r="O657" s="2" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="658" spans="1:15" ht="24.95" customHeight="1">
       <c r="A658" s="2" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>1172</v>
+        <v>1875</v>
       </c>
       <c r="O658" s="2" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="659" spans="1:15" ht="24.95" customHeight="1">
       <c r="A659" s="2" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="O659" s="2" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="660" spans="1:15" ht="24.95" customHeight="1">
       <c r="A660" s="2" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="O660" s="2" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="661" spans="1:15" ht="24.95" customHeight="1">
       <c r="A661" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B661" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="O661" s="2" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="662" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A662" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="B661" s="2" t="s">
+      <c r="B662" s="2" t="s">
         <v>1181</v>
       </c>
-      <c r="O661" s="2" t="s">
+      <c r="O662" s="2" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="662" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O662" s="2"/>
-    </row>
     <row r="663" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A663" s="2" t="s">
+      <c r="O663" s="2"/>
+    </row>
+    <row r="664" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A664" s="2" t="s">
         <v>1183</v>
       </c>
-      <c r="B663" s="2" t="s">
+      <c r="B664" s="2" t="s">
         <v>1812</v>
       </c>
-      <c r="O663" s="2" t="s">
+      <c r="O664" s="2" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="664" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O664" s="2"/>
-    </row>
     <row r="665" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A665" s="2" t="s">
+      <c r="O665" s="2"/>
+    </row>
+    <row r="666" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A666" s="2" t="s">
         <v>1185</v>
       </c>
-      <c r="B665" s="2" t="s">
+      <c r="B666" s="2" t="s">
         <v>1186</v>
       </c>
-      <c r="O665" s="2" t="s">
+      <c r="O666" s="2" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="666" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O666" s="2"/>
-    </row>
     <row r="667" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A667" s="2" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B667" s="2" t="s">
-        <v>1189</v>
-      </c>
-      <c r="O667" s="2" t="s">
-        <v>1190</v>
-      </c>
+      <c r="O667" s="2"/>
     </row>
     <row r="668" spans="1:15" ht="24.95" customHeight="1">
       <c r="A668" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B668" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="O668" s="2" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="669" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A669" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="B668" s="2" t="s">
+      <c r="B669" s="2" t="s">
         <v>1192</v>
       </c>
-      <c r="O668" s="2" t="s">
+      <c r="O669" s="2" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="669" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O669" s="2"/>
-    </row>
     <row r="670" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A670" s="2" t="s">
+      <c r="O670" s="2"/>
+    </row>
+    <row r="671" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A671" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="B670" s="2" t="s">
+      <c r="B671" s="2" t="s">
         <v>1195</v>
       </c>
-      <c r="O670" s="2" t="s">
+      <c r="O671" s="2" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="671" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O671" s="2"/>
-    </row>
     <row r="672" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A672" s="2" t="s">
-        <v>1197</v>
-      </c>
-      <c r="O672" s="2" t="s">
-        <v>1198</v>
-      </c>
+      <c r="O672" s="2"/>
     </row>
     <row r="673" spans="1:15" ht="24.95" customHeight="1">
       <c r="A673" s="2" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B673" s="2" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="O673" s="2" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="674" spans="1:15" ht="24.95" customHeight="1">
       <c r="A674" s="2" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="O674" s="2" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="675" spans="1:15" ht="24.95" customHeight="1">
       <c r="A675" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B675" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="O675" s="2" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="676" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A676" s="2" t="s">
         <v>1205</v>
       </c>
-      <c r="B675" s="2" t="s">
+      <c r="B676" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="O675" s="2" t="s">
+      <c r="O676" s="2" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="676" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O676" s="2"/>
-    </row>
     <row r="677" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A677" s="2" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B677" s="2" t="s">
-        <v>1209</v>
-      </c>
-      <c r="O677" s="2" t="s">
-        <v>1210</v>
-      </c>
+      <c r="O677" s="2"/>
     </row>
     <row r="678" spans="1:15" ht="24.95" customHeight="1">
       <c r="A678" s="2" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="O678" s="2" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="679" spans="1:15" ht="24.95" customHeight="1">
       <c r="A679" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B679" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="O679" s="2" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="680" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A680" s="2" t="s">
         <v>1214</v>
       </c>
-      <c r="B679" s="2" t="s">
+      <c r="B680" s="2" t="s">
         <v>1215</v>
       </c>
-      <c r="O679" s="2" t="s">
+      <c r="O680" s="2" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="680" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O680" s="2"/>
-    </row>
     <row r="681" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A681" s="2" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B681" s="2" t="s">
-        <v>1218</v>
-      </c>
-      <c r="O681" s="2" t="s">
-        <v>1219</v>
-      </c>
+      <c r="O681" s="2"/>
     </row>
     <row r="682" spans="1:15" ht="24.95" customHeight="1">
       <c r="A682" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="O682" s="2" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="683" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A683" s="2" t="s">
         <v>1220</v>
       </c>
-      <c r="B682" s="2" t="s">
+      <c r="B683" s="2" t="s">
         <v>1221</v>
       </c>
-      <c r="O682" s="2" t="s">
+      <c r="O683" s="2" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="683" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O683" s="2"/>
-    </row>
     <row r="684" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A684" s="2" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B684" s="2" t="s">
-        <v>1224</v>
-      </c>
-      <c r="O684" s="2" t="s">
-        <v>1225</v>
-      </c>
+      <c r="O684" s="2"/>
     </row>
     <row r="685" spans="1:15" ht="24.95" customHeight="1">
       <c r="A685" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B685" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="O685" s="2" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="686" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A686" s="2" t="s">
         <v>1226</v>
       </c>
-      <c r="B685" s="2" t="s">
+      <c r="B686" s="2" t="s">
         <v>1227</v>
       </c>
-      <c r="O685" s="2" t="s">
+      <c r="O686" s="2" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="686" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O686" s="2"/>
-    </row>
-    <row r="687" spans="1:15" ht="33">
-      <c r="A687" s="2" t="s">
-        <v>3032</v>
-      </c>
-      <c r="O687" s="3" t="s">
-        <v>3033</v>
-      </c>
-    </row>
-    <row r="688" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O688" s="2"/>
+    <row r="687" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O687" s="2"/>
+    </row>
+    <row r="688" spans="1:15" ht="33">
+      <c r="A688" s="2" t="s">
+        <v>3030</v>
+      </c>
+      <c r="O688" s="3" t="s">
+        <v>3031</v>
+      </c>
     </row>
     <row r="689" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A689" s="2" t="s">
+      <c r="O689" s="2"/>
+    </row>
+    <row r="690" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A690" s="2" t="s">
         <v>1229</v>
       </c>
-      <c r="O689" s="2" t="s">
+      <c r="O690" s="2" t="s">
         <v>1825</v>
       </c>
     </row>
-    <row r="690" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O690" s="2"/>
-    </row>
     <row r="691" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A691" s="2" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B691" s="2" t="s">
-        <v>1231</v>
-      </c>
-      <c r="O691" s="2" t="s">
-        <v>1232</v>
-      </c>
+      <c r="O691" s="2"/>
     </row>
     <row r="692" spans="1:15" ht="24.95" customHeight="1">
       <c r="A692" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B692" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="O692" s="2" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="693" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A693" s="2" t="s">
         <v>1233</v>
       </c>
-      <c r="B692" s="2" t="s">
+      <c r="B693" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="O692" s="2" t="s">
+      <c r="O693" s="2" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="693" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O693" s="2"/>
-    </row>
     <row r="694" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A694" s="2" t="s">
+      <c r="O694" s="2"/>
+    </row>
+    <row r="695" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A695" s="2" t="s">
         <v>1236</v>
       </c>
-      <c r="B694" s="2" t="s">
+      <c r="B695" s="2" t="s">
         <v>1237</v>
       </c>
-      <c r="O694" s="2" t="s">
+      <c r="O695" s="2" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="695" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O695" s="2"/>
-    </row>
     <row r="696" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A696" s="2" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B696" s="2" t="s">
-        <v>1240</v>
-      </c>
-      <c r="O696" s="2" t="s">
-        <v>1241</v>
-      </c>
+      <c r="O696" s="2"/>
     </row>
     <row r="697" spans="1:15" ht="24.95" customHeight="1">
       <c r="A697" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B697" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="O697" s="2" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="698" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A698" s="2" t="s">
         <v>1242</v>
       </c>
-      <c r="B697" s="2" t="s">
+      <c r="B698" s="2" t="s">
         <v>1243</v>
       </c>
-      <c r="O697" s="2" t="s">
+      <c r="O698" s="2" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="698" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O698" s="2"/>
-    </row>
     <row r="699" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A699" s="2" t="s">
+      <c r="O699" s="2"/>
+    </row>
+    <row r="700" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A700" s="2" t="s">
         <v>1245</v>
       </c>
-      <c r="B699" s="2" t="s">
+      <c r="B700" s="2" t="s">
         <v>1814</v>
       </c>
-      <c r="O699" s="2" t="s">
+      <c r="O700" s="2" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="700" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O700" s="2"/>
-    </row>
     <row r="701" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A701" s="2" t="s">
+      <c r="O701" s="2"/>
+    </row>
+    <row r="702" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A702" s="2" t="s">
         <v>1247</v>
       </c>
-      <c r="O701" s="2" t="s">
+      <c r="O702" s="2" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="702" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O702" s="2"/>
-    </row>
     <row r="703" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A703" s="2" t="s">
+      <c r="O703" s="2"/>
+    </row>
+    <row r="704" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A704" s="2" t="s">
         <v>1248</v>
       </c>
-      <c r="B703" s="2" t="s">
+      <c r="B704" s="2" t="s">
         <v>1813</v>
       </c>
-      <c r="O703" s="2" t="s">
+      <c r="O704" s="2" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="704" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O704" s="2"/>
-    </row>
     <row r="705" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A705" s="2" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B705" s="2" t="s">
-        <v>1251</v>
-      </c>
-      <c r="O705" s="2" t="s">
-        <v>1252</v>
-      </c>
+      <c r="O705" s="2"/>
     </row>
     <row r="706" spans="1:15" ht="24.95" customHeight="1">
       <c r="A706" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B706" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="O706" s="2" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="707" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A707" s="2" t="s">
         <v>1253</v>
       </c>
-      <c r="B706" s="2" t="s">
+      <c r="B707" s="2" t="s">
         <v>1254</v>
       </c>
-      <c r="O706" s="2" t="s">
+      <c r="O707" s="2" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="707" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O707" s="2"/>
-    </row>
     <row r="708" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A708" s="2" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B708" s="2" t="s">
-        <v>1257</v>
-      </c>
-      <c r="O708" s="2" t="s">
-        <v>1258</v>
-      </c>
+      <c r="O708" s="2"/>
     </row>
     <row r="709" spans="1:15" ht="24.95" customHeight="1">
       <c r="A709" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B709" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="O709" s="2" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="710" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A710" s="2" t="s">
         <v>1259</v>
       </c>
-      <c r="B709" s="2" t="s">
+      <c r="B710" s="2" t="s">
         <v>1260</v>
       </c>
-      <c r="O709" s="2" t="s">
+      <c r="O710" s="2" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="710" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O710" s="2"/>
-    </row>
     <row r="711" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A711" s="2" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B711" s="2" t="s">
-        <v>1263</v>
-      </c>
-      <c r="O711" s="2" t="s">
-        <v>1264</v>
-      </c>
+      <c r="O711" s="2"/>
     </row>
     <row r="712" spans="1:15" ht="24.95" customHeight="1">
       <c r="A712" s="2" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="O712" s="2" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="713" spans="1:15" ht="24.95" customHeight="1">
       <c r="A713" s="2" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="O713" s="2" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="714" spans="1:15" ht="24.95" customHeight="1">
       <c r="A714" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B714" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="O714" s="2" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="715" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A715" s="2" t="s">
         <v>1271</v>
       </c>
-      <c r="B714" s="2" t="s">
+      <c r="B715" s="2" t="s">
         <v>1272</v>
       </c>
-      <c r="O714" s="2" t="s">
+      <c r="O715" s="2" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="715" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O715" s="2"/>
-    </row>
     <row r="716" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A716" s="2" t="s">
-        <v>1637</v>
-      </c>
-      <c r="O716" s="2" t="s">
-        <v>1639</v>
-      </c>
+      <c r="O716" s="2"/>
     </row>
     <row r="717" spans="1:15" ht="24.95" customHeight="1">
       <c r="A717" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="O717" s="2" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="718" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A718" s="2" t="s">
         <v>1638</v>
       </c>
-      <c r="O717" s="3" t="s">
+      <c r="O718" s="3" t="s">
         <v>1640</v>
       </c>
-    </row>
-    <row r="718" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O718" s="2"/>
     </row>
     <row r="719" spans="1:15" ht="24.95" customHeight="1">
       <c r="O719" s="2"/>
@@ -18429,8 +18513,8 @@
     <row r="814" spans="15:15" ht="24.95" customHeight="1">
       <c r="O814" s="2"/>
     </row>
-    <row r="816" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O816" s="2"/>
+    <row r="815" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O815" s="2"/>
     </row>
     <row r="817" spans="15:15" ht="24.95" customHeight="1">
       <c r="O817" s="2"/>
@@ -19609,23 +19693,23 @@
       <c r="O1208" s="2"/>
     </row>
     <row r="1209" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A1209" s="5"/>
-      <c r="B1209" s="5"/>
-      <c r="D1209" s="5"/>
-      <c r="E1209" s="5"/>
-      <c r="F1209" s="5"/>
-      <c r="G1209" s="5"/>
-      <c r="H1209" s="5"/>
-      <c r="I1209" s="5"/>
-      <c r="J1209" s="5"/>
-      <c r="K1209" s="5"/>
-      <c r="L1209" s="5"/>
-      <c r="M1209" s="5"/>
-      <c r="N1209" s="5"/>
-      <c r="O1209" s="6"/>
+      <c r="O1209" s="2"/>
     </row>
     <row r="1210" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O1210" s="2"/>
+      <c r="A1210" s="5"/>
+      <c r="B1210" s="5"/>
+      <c r="D1210" s="5"/>
+      <c r="E1210" s="5"/>
+      <c r="F1210" s="5"/>
+      <c r="G1210" s="5"/>
+      <c r="H1210" s="5"/>
+      <c r="I1210" s="5"/>
+      <c r="J1210" s="5"/>
+      <c r="K1210" s="5"/>
+      <c r="L1210" s="5"/>
+      <c r="M1210" s="5"/>
+      <c r="N1210" s="5"/>
+      <c r="O1210" s="6"/>
     </row>
     <row r="1211" spans="1:15" ht="24.95" customHeight="1">
       <c r="O1211" s="2"/>
@@ -21139,8 +21223,11 @@
     <row r="1714" spans="15:15" ht="24.95" customHeight="1">
       <c r="O1714" s="2"/>
     </row>
+    <row r="1715" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1715" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="O1:O1417" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="O1:O1418" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -21152,8 +21239,8 @@
   <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O83" sqref="O83"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1"/>
@@ -21689,7 +21776,7 @@
         <v>2964</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>2982</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="24.95" customHeight="1">
@@ -21749,178 +21836,178 @@
     </row>
     <row r="62" spans="1:15" ht="24.95" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="24.95" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="24.95" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="24.95" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="24.95" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="24.95" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="24.95" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="24.95" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="24.95" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="24.95" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="24.95" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="24.95" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="24.95" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="24.95" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="24.95" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="24.95" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="24.95" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="24.95" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="24.95" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="24.95" customHeight="1">
       <c r="A81" s="1" t="s">
+        <v>3021</v>
+      </c>
+      <c r="O81" s="1" t="s">
         <v>3022</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>3023</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="24.95" customHeight="1">
       <c r="A82" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="O82" s="1" t="s">
         <v>3024</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>3025</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="24.95" customHeight="1">
       <c r="A83" s="1" t="s">
+        <v>3025</v>
+      </c>
+      <c r="O83" s="1" t="s">
         <v>3026</v>
-      </c>
-      <c r="O83" s="1" t="s">
-        <v>3027</v>
       </c>
     </row>
   </sheetData>
@@ -23545,11 +23632,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Q415"/>
+  <dimension ref="A1:Q423"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O236" sqref="O236"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A306" sqref="A306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -23690,2764 +23777,2812 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="7" t="s">
-        <v>1931</v>
+        <v>3034</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1931</v>
+        <v>3033</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>1932</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="7" t="s">
-        <v>1933</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>1934</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="7" t="s">
-        <v>1935</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>2677</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="7" t="s">
-        <v>1936</v>
+        <v>1931</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1936</v>
+        <v>1931</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>1937</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="7" t="s">
-        <v>1938</v>
+        <v>1933</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>2806</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="7" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>1757</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="7" t="s">
-        <v>1940</v>
+        <v>1936</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1940</v>
+        <v>1936</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>1941</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="7" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>2678</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="7" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>2679</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="7" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>2680</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="7" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>2681</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="7" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>2682</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="7" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>1948</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="7" t="s">
-        <v>1949</v>
+        <v>1945</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>1950</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="7" t="s">
-        <v>1951</v>
+        <v>1946</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="7" t="s">
-        <v>1855</v>
+        <v>1947</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1855</v>
+        <v>1947</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>1858</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="7" t="s">
-        <v>1856</v>
+        <v>1949</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>2674</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="7" t="s">
-        <v>1857</v>
+        <v>1951</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>1859</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="7" t="s">
-        <v>1952</v>
+        <v>1855</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1952</v>
+        <v>1855</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>1953</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="7" t="s">
-        <v>1954</v>
+        <v>1856</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>1955</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="7" t="s">
-        <v>1956</v>
+        <v>1857</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>1957</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="7" t="s">
-        <v>1958</v>
+        <v>1952</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1958</v>
+        <v>1952</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>1959</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="7" t="s">
-        <v>1960</v>
+        <v>1954</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>2684</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="7" t="s">
-        <v>1961</v>
+        <v>1956</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>2685</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="7" t="s">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>1963</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="7" t="s">
-        <v>1964</v>
+        <v>1960</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="7" t="s">
-        <v>1965</v>
+        <v>1961</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>2805</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="7" t="s">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="7" t="s">
-        <v>1968</v>
+        <v>1964</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="7" t="s">
-        <v>1969</v>
+        <v>1965</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>1970</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="7" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>1972</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="7" t="s">
-        <v>1973</v>
+        <v>1968</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="7" t="s">
-        <v>1974</v>
+        <v>1969</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>2689</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="7" t="s">
-        <v>1975</v>
+        <v>1971</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1975</v>
+        <v>1971</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>1976</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="7" t="s">
-        <v>1977</v>
+        <v>1973</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>2804</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="7" t="s">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="7" t="s">
-        <v>1979</v>
+        <v>1975</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1979</v>
+        <v>1975</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="7" t="s">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>2673</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="7" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="7" t="s">
-        <v>1983</v>
+        <v>1979</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1983</v>
+        <v>1979</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="7" t="s">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>2692</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="7" t="s">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="7" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>2694</v>
+        <v>1983</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>2695</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="7" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>1990</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="7" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>1990</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="7" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>1991</v>
+        <v>2694</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>1992</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="7" t="s">
-        <v>1993</v>
+        <v>1988</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>2696</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="7" t="s">
-        <v>1994</v>
+        <v>1989</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>2697</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="7" t="s">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>1996</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="7" t="s">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="7" t="s">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>1999</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="7" t="s">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>2001</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="7" t="s">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="7" t="s">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>2700</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="7" t="s">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>2005</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="7" t="s">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="7" t="s">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="7" t="s">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>2010</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="7" t="s">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="7" t="s">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="7" t="s">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>2705</v>
+        <v>2009</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>2706</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="7" t="s">
-        <v>1744</v>
+        <v>2011</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>2672</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="7" t="s">
-        <v>1746</v>
+        <v>2012</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>2707</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="7" t="s">
-        <v>1898</v>
+        <v>2013</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>1898</v>
+        <v>2705</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>1903</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="7" t="s">
-        <v>1901</v>
+        <v>1744</v>
       </c>
       <c r="O98" s="7" t="s">
-        <v>2708</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="7" t="s">
-        <v>1902</v>
+        <v>1746</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="7" t="s">
-        <v>2649</v>
+        <v>1898</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>2649</v>
+        <v>1898</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>2650</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="7" t="s">
-        <v>2651</v>
+        <v>1901</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>2670</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="7" t="s">
-        <v>2652</v>
+        <v>1902</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>2669</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="7" t="s">
-        <v>1743</v>
+        <v>2649</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>1743</v>
+        <v>2649</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>1748</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="7" t="s">
-        <v>1745</v>
+        <v>2651</v>
       </c>
       <c r="O106" s="7" t="s">
-        <v>2710</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="7" t="s">
-        <v>1747</v>
+        <v>2652</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>1749</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="7" t="s">
-        <v>2014</v>
+        <v>1743</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>2014</v>
+        <v>1743</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>2015</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="7" t="s">
-        <v>2016</v>
+        <v>1745</v>
       </c>
       <c r="O110" s="7" t="s">
-        <v>2017</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="7" t="s">
-        <v>2018</v>
+        <v>1747</v>
       </c>
       <c r="O111" s="7" t="s">
-        <v>2019</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="7" t="s">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="O113" s="7" t="s">
-        <v>2021</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="7" t="s">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="O114" s="7" t="s">
-        <v>2711</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="7" t="s">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="O115" s="7" t="s">
-        <v>2024</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="7" t="s">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="O117" s="7" t="s">
-        <v>2026</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="7" t="s">
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="O118" s="7" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="7" t="s">
-        <v>2028</v>
+        <v>2023</v>
       </c>
       <c r="O119" s="7" t="s">
-        <v>2713</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="7" t="s">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="O121" s="7" t="s">
-        <v>2030</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="7" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
       <c r="O122" s="7" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="7" t="s">
-        <v>2032</v>
+        <v>2028</v>
       </c>
       <c r="O123" s="7" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="7" t="s">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="O125" s="7" t="s">
-        <v>2034</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="7" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
       <c r="O126" s="7" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="7" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="O127" s="7" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="7" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="O129" s="7" t="s">
-        <v>2718</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="7" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="O130" s="7" t="s">
-        <v>2039</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="7" t="s">
-        <v>2040</v>
+        <v>2036</v>
       </c>
       <c r="O131" s="7" t="s">
-        <v>2039</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="7" t="s">
-        <v>2950</v>
+        <v>2037</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>2949</v>
+        <v>2037</v>
       </c>
       <c r="O133" s="7" t="s">
-        <v>2948</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="7" t="s">
-        <v>2951</v>
+        <v>2038</v>
       </c>
       <c r="O134" s="7" t="s">
-        <v>2956</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="7" t="s">
-        <v>2952</v>
+        <v>2040</v>
       </c>
       <c r="O135" s="7" t="s">
-        <v>2957</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="7" t="s">
-        <v>2528</v>
+        <v>2950</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>2527</v>
+        <v>2949</v>
       </c>
       <c r="O137" s="7" t="s">
-        <v>2531</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="7" t="s">
-        <v>2529</v>
+        <v>2951</v>
       </c>
       <c r="O138" s="7" t="s">
-        <v>2532</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="7" t="s">
-        <v>2530</v>
+        <v>2952</v>
       </c>
       <c r="O139" s="7" t="s">
-        <v>2719</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="7" t="s">
-        <v>2041</v>
+        <v>2528</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>2041</v>
+        <v>2527</v>
       </c>
       <c r="O141" s="7" t="s">
-        <v>2042</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="7" t="s">
-        <v>2043</v>
+        <v>2529</v>
       </c>
       <c r="O142" s="7" t="s">
-        <v>2720</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="7" t="s">
-        <v>2044</v>
+        <v>2530</v>
       </c>
       <c r="O143" s="7" t="s">
-        <v>2045</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="7" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="O145" s="7" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="7" t="s">
-        <v>2048</v>
+        <v>2043</v>
       </c>
       <c r="O146" s="7" t="s">
-        <v>2049</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="7" t="s">
-        <v>2050</v>
+        <v>2044</v>
       </c>
       <c r="O147" s="7" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="7" t="s">
-        <v>2051</v>
+        <v>2046</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>1753</v>
+        <v>2046</v>
       </c>
       <c r="O149" s="7" t="s">
-        <v>2052</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="7" t="s">
-        <v>2053</v>
+        <v>2048</v>
       </c>
       <c r="O150" s="7" t="s">
-        <v>2054</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="7" t="s">
-        <v>2055</v>
+        <v>2050</v>
       </c>
       <c r="O151" s="7" t="s">
-        <v>2056</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="7" t="s">
-        <v>2057</v>
+        <v>2051</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="O153" s="7" t="s">
-        <v>2058</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="7" t="s">
-        <v>2059</v>
+        <v>2053</v>
       </c>
       <c r="O154" s="7" t="s">
-        <v>2060</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="7" t="s">
-        <v>2061</v>
+        <v>2055</v>
       </c>
       <c r="O155" s="7" t="s">
-        <v>2060</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="7" t="s">
-        <v>2062</v>
+        <v>2057</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>2062</v>
+        <v>1754</v>
       </c>
       <c r="O157" s="7" t="s">
-        <v>2721</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="7" t="s">
-        <v>2063</v>
+        <v>2059</v>
       </c>
       <c r="O158" s="7" t="s">
-        <v>2722</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="7" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="O159" s="7" t="s">
-        <v>2722</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="161" spans="1:15">
       <c r="A161" s="7" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="O161" s="7" t="s">
-        <v>2723</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="162" spans="1:15">
       <c r="A162" s="7" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="O162" s="7" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="7" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="O163" s="7" t="s">
-        <v>2725</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="7" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="O165" s="7" t="s">
-        <v>2069</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="7" t="s">
-        <v>2070</v>
+        <v>2066</v>
       </c>
       <c r="O166" s="7" t="s">
-        <v>2071</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="7" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="O167" s="7" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="7" t="s">
-        <v>2073</v>
+        <v>2068</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>2073</v>
+        <v>2068</v>
       </c>
       <c r="O169" s="7" t="s">
-        <v>2727</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="170" spans="1:15">
       <c r="A170" s="7" t="s">
-        <v>2074</v>
+        <v>2070</v>
       </c>
       <c r="O170" s="7" t="s">
-        <v>2728</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="171" spans="1:15">
       <c r="A171" s="7" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="O171" s="7" t="s">
-        <v>2076</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="7" t="s">
-        <v>2077</v>
+        <v>2073</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>2077</v>
+        <v>2073</v>
       </c>
       <c r="O173" s="7" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="174" spans="1:15">
       <c r="A174" s="7" t="s">
-        <v>2078</v>
+        <v>2074</v>
       </c>
       <c r="O174" s="7" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="175" spans="1:15">
       <c r="A175" s="7" t="s">
-        <v>2079</v>
+        <v>2075</v>
       </c>
       <c r="O175" s="7" t="s">
-        <v>2080</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="177" spans="1:15">
       <c r="A177" s="7" t="s">
-        <v>2081</v>
+        <v>2077</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>2081</v>
+        <v>2077</v>
       </c>
       <c r="O177" s="7" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="7" t="s">
-        <v>2082</v>
+        <v>2078</v>
       </c>
       <c r="O178" s="7" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="7" t="s">
-        <v>2083</v>
+        <v>2079</v>
       </c>
       <c r="O179" s="7" t="s">
-        <v>2733</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="7" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="O181" s="7" t="s">
-        <v>2085</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="182" spans="1:15">
       <c r="A182" s="7" t="s">
-        <v>2086</v>
+        <v>2082</v>
       </c>
       <c r="O182" s="7" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="7" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
       <c r="O183" s="7" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="7" t="s">
-        <v>2088</v>
+        <v>2084</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>2088</v>
+        <v>2084</v>
       </c>
       <c r="O185" s="7" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="7" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
       <c r="O186" s="7" t="s">
-        <v>2091</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="7" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="O187" s="7" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="7" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="O189" s="7" t="s">
-        <v>2094</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="7" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
       <c r="O190" s="7" t="s">
-        <v>2737</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="7" t="s">
-        <v>2096</v>
+        <v>2092</v>
       </c>
       <c r="O191" s="7" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="193" spans="1:15">
       <c r="A193" s="7" t="s">
-        <v>2097</v>
+        <v>2093</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>2097</v>
+        <v>2093</v>
       </c>
       <c r="O193" s="7" t="s">
-        <v>2098</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="7" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
       <c r="O194" s="7" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="7" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
       <c r="O195" s="7" t="s">
-        <v>2101</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="7" t="s">
-        <v>2102</v>
+        <v>2097</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>2102</v>
+        <v>2097</v>
       </c>
       <c r="O197" s="7" t="s">
-        <v>2103</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="7" t="s">
-        <v>2104</v>
+        <v>2099</v>
       </c>
       <c r="O198" s="7" t="s">
-        <v>2105</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="7" t="s">
-        <v>2106</v>
+        <v>2100</v>
       </c>
       <c r="O199" s="7" t="s">
-        <v>2107</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="7" t="s">
-        <v>2108</v>
+        <v>2102</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>2108</v>
+        <v>2102</v>
       </c>
       <c r="O201" s="7" t="s">
-        <v>2109</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="202" spans="1:15">
       <c r="A202" s="7" t="s">
-        <v>2110</v>
+        <v>2104</v>
       </c>
       <c r="O202" s="7" t="s">
-        <v>2740</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="7" t="s">
-        <v>2111</v>
+        <v>2106</v>
       </c>
       <c r="O203" s="7" t="s">
-        <v>2741</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="7" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="O205" s="7" t="s">
-        <v>2742</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="206" spans="1:15">
       <c r="A206" s="7" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="O206" s="7" t="s">
-        <v>2743</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="7" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="O207" s="7" t="s">
-        <v>2115</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="209" spans="1:15">
       <c r="A209" s="7" t="s">
-        <v>2116</v>
+        <v>2112</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>2116</v>
+        <v>2112</v>
       </c>
       <c r="O209" s="7" t="s">
-        <v>2117</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="210" spans="1:15">
       <c r="A210" s="7" t="s">
-        <v>2118</v>
+        <v>2113</v>
       </c>
       <c r="O210" s="7" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="7" t="s">
-        <v>2119</v>
+        <v>2114</v>
       </c>
       <c r="O211" s="7" t="s">
-        <v>2745</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="213" spans="1:15">
       <c r="A213" s="7" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
       <c r="O213" s="7" t="s">
-        <v>2121</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="214" spans="1:15">
       <c r="A214" s="7" t="s">
-        <v>2122</v>
+        <v>2118</v>
       </c>
       <c r="O214" s="7" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="7" t="s">
-        <v>2123</v>
+        <v>2119</v>
       </c>
       <c r="O215" s="7" t="s">
-        <v>2124</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="7" t="s">
-        <v>2125</v>
+        <v>2120</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>2125</v>
+        <v>2120</v>
       </c>
       <c r="O217" s="7" t="s">
-        <v>2126</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="7" t="s">
-        <v>2127</v>
+        <v>2122</v>
       </c>
       <c r="O218" s="7" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="7" t="s">
-        <v>2128</v>
+        <v>2123</v>
       </c>
       <c r="O219" s="7" t="s">
-        <v>2747</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="7" t="s">
-        <v>2129</v>
+        <v>2125</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>2129</v>
+        <v>2125</v>
       </c>
       <c r="O221" s="7" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="7" t="s">
-        <v>2131</v>
+        <v>2127</v>
       </c>
       <c r="O222" s="7" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="7" t="s">
-        <v>2132</v>
+        <v>2128</v>
       </c>
       <c r="O223" s="7" t="s">
-        <v>2690</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="225" spans="1:15">
       <c r="A225" s="7" t="s">
-        <v>2133</v>
+        <v>2129</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>2134</v>
+        <v>2129</v>
       </c>
       <c r="O225" s="7" t="s">
-        <v>2749</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="226" spans="1:15">
       <c r="A226" s="7" t="s">
-        <v>2135</v>
+        <v>2131</v>
       </c>
       <c r="O226" s="7" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="7" t="s">
-        <v>2136</v>
+        <v>2132</v>
       </c>
       <c r="O227" s="7" t="s">
-        <v>2751</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="229" spans="1:15">
       <c r="A229" s="7" t="s">
-        <v>2137</v>
+        <v>2133</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>2138</v>
+        <v>2134</v>
       </c>
       <c r="O229" s="7" t="s">
-        <v>2752</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="230" spans="1:15">
       <c r="A230" s="7" t="s">
-        <v>2139</v>
+        <v>2135</v>
       </c>
       <c r="O230" s="7" t="s">
-        <v>2140</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="231" spans="1:15">
       <c r="A231" s="7" t="s">
-        <v>2141</v>
+        <v>2136</v>
       </c>
       <c r="O231" s="7" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="233" spans="1:15">
       <c r="A233" s="7" t="s">
-        <v>1725</v>
+        <v>2137</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>1725</v>
+        <v>2138</v>
       </c>
       <c r="O233" s="7" t="s">
-        <v>2142</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="234" spans="1:15">
       <c r="A234" s="7" t="s">
-        <v>2754</v>
+        <v>2139</v>
       </c>
       <c r="O234" s="7" t="s">
-        <v>2755</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="7" t="s">
-        <v>2756</v>
+        <v>2141</v>
       </c>
       <c r="O235" s="7" t="s">
-        <v>2757</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="237" spans="1:15">
       <c r="A237" s="7" t="s">
-        <v>2143</v>
+        <v>1725</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>2143</v>
+        <v>1725</v>
       </c>
       <c r="O237" s="7" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="238" spans="1:15">
       <c r="A238" s="7" t="s">
-        <v>2145</v>
+        <v>2754</v>
       </c>
       <c r="O238" s="7" t="s">
-        <v>2146</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="7" t="s">
-        <v>2147</v>
+        <v>2756</v>
       </c>
       <c r="O239" s="7" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="241" spans="1:15">
       <c r="A241" s="7" t="s">
-        <v>2148</v>
+        <v>2143</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>2148</v>
+        <v>2143</v>
       </c>
       <c r="O241" s="7" t="s">
-        <v>2149</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="242" spans="1:15">
       <c r="A242" s="7" t="s">
-        <v>2150</v>
+        <v>2145</v>
       </c>
       <c r="O242" s="7" t="s">
-        <v>2759</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="243" spans="1:15">
       <c r="A243" s="7" t="s">
-        <v>2151</v>
+        <v>2147</v>
       </c>
       <c r="O243" s="7" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="245" spans="1:15">
       <c r="A245" s="7" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="O245" s="7" t="s">
-        <v>2153</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="246" spans="1:15">
       <c r="A246" s="7" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
       <c r="O246" s="7" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="247" spans="1:15">
       <c r="A247" s="7" t="s">
-        <v>2155</v>
+        <v>2151</v>
       </c>
       <c r="O247" s="7" t="s">
-        <v>2156</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="249" spans="1:15">
       <c r="A249" s="7" t="s">
-        <v>2157</v>
+        <v>2152</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>2157</v>
+        <v>2152</v>
       </c>
       <c r="O249" s="7" t="s">
-        <v>2158</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="250" spans="1:15">
       <c r="A250" s="7" t="s">
-        <v>2159</v>
+        <v>2154</v>
       </c>
       <c r="O250" s="7" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="7" t="s">
-        <v>2160</v>
+        <v>2155</v>
       </c>
       <c r="O251" s="7" t="s">
-        <v>2763</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="253" spans="1:15">
       <c r="A253" s="7" t="s">
-        <v>2161</v>
+        <v>2157</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>2161</v>
+        <v>2157</v>
       </c>
       <c r="O253" s="7" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="254" spans="1:15">
       <c r="A254" s="7" t="s">
-        <v>2163</v>
+        <v>2159</v>
       </c>
       <c r="O254" s="7" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="255" spans="1:15">
       <c r="A255" s="7" t="s">
-        <v>2164</v>
+        <v>2160</v>
       </c>
       <c r="O255" s="7" t="s">
-        <v>2165</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="257" spans="1:15">
       <c r="A257" s="7" t="s">
-        <v>2166</v>
+        <v>2161</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>2166</v>
+        <v>2161</v>
       </c>
       <c r="O257" s="7" t="s">
-        <v>2167</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="258" spans="1:15">
       <c r="A258" s="7" t="s">
-        <v>2168</v>
+        <v>2163</v>
       </c>
       <c r="O258" s="7" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="259" spans="1:15">
       <c r="A259" s="7" t="s">
-        <v>2169</v>
+        <v>2164</v>
       </c>
       <c r="O259" s="7" t="s">
-        <v>2766</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="261" spans="1:15">
       <c r="A261" s="7" t="s">
-        <v>2170</v>
+        <v>2166</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>2170</v>
+        <v>2166</v>
       </c>
       <c r="O261" s="7" t="s">
-        <v>2171</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="262" spans="1:15">
       <c r="A262" s="7" t="s">
-        <v>2172</v>
+        <v>2168</v>
       </c>
       <c r="O262" s="7" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="263" spans="1:15">
       <c r="A263" s="7" t="s">
-        <v>2173</v>
+        <v>2169</v>
       </c>
       <c r="O263" s="7" t="s">
-        <v>2174</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="265" spans="1:15">
       <c r="A265" s="7" t="s">
-        <v>2175</v>
+        <v>2170</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>2175</v>
+        <v>2170</v>
       </c>
       <c r="O265" s="7" t="s">
-        <v>2176</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="266" spans="1:15">
       <c r="A266" s="7" t="s">
-        <v>2177</v>
+        <v>2172</v>
       </c>
       <c r="O266" s="7" t="s">
-        <v>2178</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="267" spans="1:15">
       <c r="A267" s="7" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
       <c r="O267" s="7" t="s">
-        <v>2768</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="269" spans="1:15">
       <c r="A269" s="7" t="s">
-        <v>2180</v>
+        <v>2175</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>2180</v>
+        <v>2175</v>
       </c>
       <c r="O269" s="7" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="270" spans="1:15">
       <c r="A270" s="7" t="s">
-        <v>2182</v>
+        <v>2177</v>
       </c>
       <c r="O270" s="7" t="s">
-        <v>2183</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="271" spans="1:15">
       <c r="A271" s="7" t="s">
-        <v>2184</v>
+        <v>2179</v>
       </c>
       <c r="O271" s="7" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="273" spans="1:15">
       <c r="A273" s="7" t="s">
-        <v>2185</v>
+        <v>2180</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>2185</v>
+        <v>2180</v>
       </c>
       <c r="O273" s="7" t="s">
-        <v>2186</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="274" spans="1:15">
       <c r="A274" s="7" t="s">
-        <v>2187</v>
+        <v>2182</v>
       </c>
       <c r="O274" s="7" t="s">
-        <v>2770</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="275" spans="1:15">
       <c r="A275" s="7" t="s">
-        <v>2188</v>
+        <v>2184</v>
       </c>
       <c r="O275" s="7" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="277" spans="1:15">
       <c r="A277" s="7" t="s">
-        <v>2189</v>
+        <v>2185</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>2189</v>
+        <v>2185</v>
       </c>
       <c r="O277" s="7" t="s">
-        <v>2190</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="278" spans="1:15">
       <c r="A278" s="7" t="s">
-        <v>1880</v>
+        <v>2187</v>
       </c>
       <c r="O278" s="7" t="s">
-        <v>2191</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="279" spans="1:15">
       <c r="A279" s="7" t="s">
-        <v>1882</v>
+        <v>2188</v>
       </c>
       <c r="O279" s="7" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="7" t="s">
-        <v>1877</v>
+        <v>2189</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>1878</v>
+        <v>2189</v>
       </c>
       <c r="O281" s="7" t="s">
-        <v>1879</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="282" spans="1:15">
       <c r="A282" s="7" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="O282" s="7" t="s">
-        <v>1885</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="283" spans="1:15">
       <c r="A283" s="7" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="O283" s="7" t="s">
-        <v>1884</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="285" spans="1:15">
       <c r="A285" s="7" t="s">
-        <v>2578</v>
+        <v>1877</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>2578</v>
+        <v>1878</v>
       </c>
       <c r="O285" s="7" t="s">
-        <v>2581</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="286" spans="1:15">
       <c r="A286" s="7" t="s">
-        <v>2579</v>
+        <v>1881</v>
       </c>
       <c r="O286" s="7" t="s">
-        <v>2671</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="7" t="s">
-        <v>2580</v>
+        <v>1883</v>
       </c>
       <c r="O287" s="7" t="s">
-        <v>2582</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="289" spans="1:15">
       <c r="A289" s="7" t="s">
-        <v>2192</v>
+        <v>2578</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>2192</v>
+        <v>2578</v>
       </c>
       <c r="O289" s="7" t="s">
-        <v>2193</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="290" spans="1:15">
       <c r="A290" s="7" t="s">
-        <v>2194</v>
+        <v>2579</v>
       </c>
       <c r="O290" s="7" t="s">
-        <v>2773</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="291" spans="1:15">
       <c r="A291" s="7" t="s">
-        <v>2195</v>
+        <v>2580</v>
       </c>
       <c r="O291" s="7" t="s">
-        <v>2196</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="293" spans="1:15">
       <c r="A293" s="7" t="s">
-        <v>2197</v>
+        <v>2192</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>2774</v>
+        <v>2192</v>
       </c>
       <c r="O293" s="7" t="s">
-        <v>2198</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="294" spans="1:15">
       <c r="A294" s="7" t="s">
-        <v>2199</v>
+        <v>2194</v>
       </c>
       <c r="O294" s="7" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="295" spans="1:15">
       <c r="A295" s="7" t="s">
-        <v>2200</v>
+        <v>2195</v>
       </c>
       <c r="O295" s="7" t="s">
-        <v>2776</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="297" spans="1:15">
       <c r="A297" s="7" t="s">
-        <v>2201</v>
+        <v>2197</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>2201</v>
+        <v>2774</v>
       </c>
       <c r="O297" s="7" t="s">
-        <v>2202</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="298" spans="1:15">
       <c r="A298" s="7" t="s">
-        <v>2203</v>
+        <v>2199</v>
       </c>
       <c r="O298" s="7" t="s">
-        <v>2204</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="7" t="s">
-        <v>2205</v>
+        <v>2200</v>
       </c>
       <c r="O299" s="7" t="s">
-        <v>2206</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="301" spans="1:15">
       <c r="A301" s="7" t="s">
-        <v>2207</v>
+        <v>2201</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>2207</v>
+        <v>2201</v>
       </c>
       <c r="O301" s="7" t="s">
-        <v>2208</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="302" spans="1:15">
       <c r="A302" s="7" t="s">
-        <v>2209</v>
+        <v>2203</v>
       </c>
       <c r="O302" s="7" t="s">
-        <v>2210</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="303" spans="1:15">
       <c r="A303" s="7" t="s">
-        <v>2211</v>
+        <v>2205</v>
       </c>
       <c r="O303" s="7" t="s">
-        <v>2777</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="305" spans="1:15">
       <c r="A305" s="7" t="s">
-        <v>2212</v>
+        <v>3042</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>2212</v>
+        <v>3041</v>
       </c>
       <c r="O305" s="7" t="s">
-        <v>2213</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="306" spans="1:15">
       <c r="A306" s="7" t="s">
-        <v>2214</v>
+        <v>3051</v>
       </c>
       <c r="O306" s="7" t="s">
-        <v>2825</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="307" spans="1:15">
       <c r="A307" s="7" t="s">
-        <v>2215</v>
+        <v>3052</v>
       </c>
       <c r="O307" s="7" t="s">
-        <v>2825</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="309" spans="1:15">
       <c r="A309" s="7" t="s">
-        <v>2216</v>
+        <v>2207</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>2216</v>
+        <v>2207</v>
       </c>
       <c r="O309" s="7" t="s">
-        <v>2217</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="310" spans="1:15">
       <c r="A310" s="7" t="s">
-        <v>2218</v>
+        <v>2209</v>
       </c>
       <c r="O310" s="7" t="s">
-        <v>2778</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="311" spans="1:15">
       <c r="A311" s="7" t="s">
-        <v>2219</v>
+        <v>2211</v>
       </c>
       <c r="O311" s="7" t="s">
-        <v>2220</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="313" spans="1:15">
       <c r="A313" s="7" t="s">
-        <v>2221</v>
+        <v>2212</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>2221</v>
+        <v>2212</v>
       </c>
       <c r="O313" s="7" t="s">
-        <v>2222</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="314" spans="1:15">
       <c r="A314" s="7" t="s">
-        <v>2223</v>
+        <v>2214</v>
       </c>
       <c r="O314" s="7" t="s">
-        <v>2779</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="315" spans="1:15">
       <c r="A315" s="7" t="s">
-        <v>2224</v>
+        <v>2215</v>
       </c>
       <c r="O315" s="7" t="s">
-        <v>2780</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="317" spans="1:15">
       <c r="A317" s="7" t="s">
-        <v>2225</v>
+        <v>2216</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>2225</v>
+        <v>2216</v>
       </c>
       <c r="O317" s="7" t="s">
-        <v>2226</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="318" spans="1:15">
       <c r="A318" s="7" t="s">
-        <v>2227</v>
+        <v>2218</v>
       </c>
       <c r="O318" s="7" t="s">
-        <v>2228</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="319" spans="1:15">
       <c r="A319" s="7" t="s">
-        <v>2229</v>
+        <v>2219</v>
       </c>
       <c r="O319" s="7" t="s">
-        <v>2230</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="321" spans="1:15">
       <c r="A321" s="7" t="s">
-        <v>2231</v>
+        <v>2221</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>2231</v>
+        <v>2221</v>
       </c>
       <c r="O321" s="7" t="s">
-        <v>2232</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="322" spans="1:15">
       <c r="A322" s="7" t="s">
-        <v>2233</v>
+        <v>2223</v>
       </c>
       <c r="O322" s="7" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="323" spans="1:15">
       <c r="A323" s="7" t="s">
-        <v>2234</v>
+        <v>2224</v>
       </c>
       <c r="O323" s="7" t="s">
-        <v>2235</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="325" spans="1:15">
       <c r="A325" s="7" t="s">
-        <v>2236</v>
+        <v>2225</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>2236</v>
+        <v>2225</v>
       </c>
       <c r="O325" s="7" t="s">
-        <v>2237</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="326" spans="1:15">
       <c r="A326" s="7" t="s">
-        <v>2238</v>
+        <v>2227</v>
       </c>
       <c r="O326" s="7" t="s">
-        <v>2239</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="327" spans="1:15">
       <c r="A327" s="7" t="s">
-        <v>2240</v>
+        <v>2229</v>
       </c>
       <c r="O327" s="7" t="s">
-        <v>2782</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="329" spans="1:15">
       <c r="A329" s="7" t="s">
-        <v>2241</v>
+        <v>2231</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>2241</v>
+        <v>2231</v>
       </c>
       <c r="O329" s="7" t="s">
-        <v>2242</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="330" spans="1:15">
       <c r="A330" s="7" t="s">
-        <v>2243</v>
+        <v>2233</v>
       </c>
       <c r="O330" s="7" t="s">
-        <v>2244</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="331" spans="1:15">
       <c r="A331" s="7" t="s">
-        <v>2245</v>
+        <v>2234</v>
       </c>
       <c r="O331" s="7" t="s">
-        <v>2783</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="333" spans="1:15">
       <c r="A333" s="7" t="s">
-        <v>2246</v>
+        <v>2236</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>2246</v>
+        <v>2236</v>
       </c>
       <c r="O333" s="7" t="s">
-        <v>2247</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="334" spans="1:15">
       <c r="A334" s="7" t="s">
-        <v>2248</v>
+        <v>2238</v>
       </c>
       <c r="O334" s="7" t="s">
-        <v>2784</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="335" spans="1:15">
       <c r="A335" s="7" t="s">
-        <v>2249</v>
+        <v>2240</v>
       </c>
       <c r="O335" s="7" t="s">
-        <v>2250</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="337" spans="1:15">
       <c r="A337" s="7" t="s">
-        <v>2251</v>
+        <v>2241</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>2251</v>
+        <v>2241</v>
       </c>
       <c r="O337" s="7" t="s">
-        <v>2252</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="338" spans="1:15">
       <c r="A338" s="7" t="s">
-        <v>2253</v>
+        <v>2243</v>
       </c>
       <c r="O338" s="7" t="s">
-        <v>2254</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="339" spans="1:15">
       <c r="A339" s="7" t="s">
-        <v>2255</v>
+        <v>2245</v>
       </c>
       <c r="O339" s="7" t="s">
-        <v>2254</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="341" spans="1:15">
       <c r="A341" s="7" t="s">
-        <v>2256</v>
+        <v>2246</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>2256</v>
+        <v>2246</v>
       </c>
       <c r="O341" s="7" t="s">
-        <v>2257</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="342" spans="1:15">
       <c r="A342" s="7" t="s">
-        <v>2258</v>
+        <v>2248</v>
       </c>
       <c r="O342" s="7" t="s">
-        <v>2259</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="343" spans="1:15">
       <c r="A343" s="7" t="s">
-        <v>2260</v>
+        <v>2249</v>
       </c>
       <c r="O343" s="7" t="s">
-        <v>2785</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="345" spans="1:15">
       <c r="A345" s="7" t="s">
-        <v>2261</v>
+        <v>2251</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>2261</v>
+        <v>2251</v>
       </c>
       <c r="O345" s="7" t="s">
-        <v>2262</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="346" spans="1:15">
       <c r="A346" s="7" t="s">
-        <v>2263</v>
+        <v>2253</v>
       </c>
       <c r="O346" s="7" t="s">
-        <v>2786</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="347" spans="1:15">
       <c r="A347" s="7" t="s">
-        <v>2264</v>
+        <v>2255</v>
       </c>
       <c r="O347" s="7" t="s">
-        <v>2265</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="349" spans="1:15">
       <c r="A349" s="7" t="s">
-        <v>2266</v>
+        <v>2256</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>2267</v>
-      </c>
-      <c r="C349" s="7" t="s">
-        <v>2267</v>
-      </c>
-      <c r="D349" s="7" t="s">
-        <v>2267</v>
-      </c>
-      <c r="E349" s="7" t="s">
-        <v>2267</v>
-      </c>
-      <c r="F349" s="7" t="s">
-        <v>2267</v>
-      </c>
-      <c r="G349" s="7" t="s">
-        <v>2267</v>
-      </c>
-      <c r="H349" s="7" t="s">
-        <v>2267</v>
-      </c>
-      <c r="I349" s="7" t="s">
-        <v>2267</v>
-      </c>
-      <c r="J349" s="7" t="s">
-        <v>2267</v>
-      </c>
-      <c r="K349" s="7" t="s">
-        <v>2267</v>
-      </c>
-      <c r="L349" s="7" t="s">
-        <v>2267</v>
-      </c>
-      <c r="M349" s="7" t="s">
-        <v>2267</v>
-      </c>
-      <c r="N349" s="7" t="s">
-        <v>2267</v>
+        <v>2256</v>
       </c>
       <c r="O349" s="7" t="s">
-        <v>2267</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="350" spans="1:15">
       <c r="A350" s="7" t="s">
-        <v>2268</v>
+        <v>2258</v>
       </c>
       <c r="O350" s="7" t="s">
-        <v>2269</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="351" spans="1:15">
       <c r="A351" s="7" t="s">
-        <v>2270</v>
+        <v>2260</v>
       </c>
       <c r="O351" s="7" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="353" spans="1:15">
       <c r="A353" s="7" t="s">
-        <v>2271</v>
+        <v>2261</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>2271</v>
+        <v>2261</v>
       </c>
       <c r="O353" s="7" t="s">
-        <v>2272</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="354" spans="1:15">
       <c r="A354" s="7" t="s">
-        <v>2273</v>
+        <v>2263</v>
       </c>
       <c r="O354" s="7" t="s">
-        <v>2788</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="355" spans="1:15">
       <c r="A355" s="7" t="s">
-        <v>2274</v>
+        <v>2264</v>
       </c>
       <c r="O355" s="7" t="s">
-        <v>2789</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="357" spans="1:15">
       <c r="A357" s="7" t="s">
-        <v>2275</v>
+        <v>2266</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>2275</v>
+        <v>2267</v>
+      </c>
+      <c r="C357" s="7" t="s">
+        <v>2267</v>
+      </c>
+      <c r="D357" s="7" t="s">
+        <v>2267</v>
+      </c>
+      <c r="E357" s="7" t="s">
+        <v>2267</v>
+      </c>
+      <c r="F357" s="7" t="s">
+        <v>2267</v>
+      </c>
+      <c r="G357" s="7" t="s">
+        <v>2267</v>
+      </c>
+      <c r="H357" s="7" t="s">
+        <v>2267</v>
+      </c>
+      <c r="I357" s="7" t="s">
+        <v>2267</v>
+      </c>
+      <c r="J357" s="7" t="s">
+        <v>2267</v>
+      </c>
+      <c r="K357" s="7" t="s">
+        <v>2267</v>
+      </c>
+      <c r="L357" s="7" t="s">
+        <v>2267</v>
+      </c>
+      <c r="M357" s="7" t="s">
+        <v>2267</v>
+      </c>
+      <c r="N357" s="7" t="s">
+        <v>2267</v>
       </c>
       <c r="O357" s="7" t="s">
-        <v>2276</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="358" spans="1:15">
       <c r="A358" s="7" t="s">
-        <v>2277</v>
+        <v>2268</v>
       </c>
       <c r="O358" s="7" t="s">
-        <v>2278</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="359" spans="1:15">
       <c r="A359" s="7" t="s">
-        <v>2279</v>
+        <v>2270</v>
       </c>
       <c r="O359" s="7" t="s">
-        <v>2790</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="361" spans="1:15">
       <c r="A361" s="7" t="s">
-        <v>2280</v>
+        <v>2271</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>2280</v>
+        <v>2271</v>
       </c>
       <c r="O361" s="7" t="s">
-        <v>2281</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="362" spans="1:15">
       <c r="A362" s="7" t="s">
-        <v>2282</v>
+        <v>2273</v>
       </c>
       <c r="O362" s="7" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="363" spans="1:15">
       <c r="A363" s="7" t="s">
-        <v>2283</v>
+        <v>2274</v>
       </c>
       <c r="O363" s="7" t="s">
-        <v>2284</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="365" spans="1:15">
       <c r="A365" s="7" t="s">
-        <v>2285</v>
+        <v>2275</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>2285</v>
+        <v>2275</v>
       </c>
       <c r="O365" s="7" t="s">
-        <v>2286</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="366" spans="1:15">
       <c r="A366" s="7" t="s">
-        <v>2287</v>
+        <v>2277</v>
       </c>
       <c r="O366" s="7" t="s">
-        <v>2792</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="367" spans="1:15">
       <c r="A367" s="7" t="s">
-        <v>2288</v>
+        <v>2279</v>
       </c>
       <c r="O367" s="7" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="369" spans="1:15">
       <c r="A369" s="7" t="s">
-        <v>1874</v>
+        <v>2280</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>1874</v>
+        <v>2280</v>
       </c>
       <c r="O369" s="7" t="s">
-        <v>2289</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="370" spans="1:15">
       <c r="A370" s="7" t="s">
-        <v>2290</v>
+        <v>2282</v>
       </c>
       <c r="O370" s="7" t="s">
-        <v>2291</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="371" spans="1:15">
       <c r="A371" s="7" t="s">
-        <v>2292</v>
+        <v>2283</v>
       </c>
       <c r="O371" s="7" t="s">
-        <v>2794</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="373" spans="1:15">
       <c r="A373" s="7" t="s">
-        <v>2293</v>
+        <v>2285</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>2293</v>
+        <v>2285</v>
       </c>
       <c r="O373" s="7" t="s">
-        <v>2294</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="374" spans="1:15">
       <c r="A374" s="7" t="s">
-        <v>2295</v>
+        <v>2287</v>
       </c>
       <c r="O374" s="7" t="s">
-        <v>2296</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="375" spans="1:15">
       <c r="A375" s="7" t="s">
-        <v>2297</v>
+        <v>2288</v>
       </c>
       <c r="O375" s="7" t="s">
-        <v>2795</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="377" spans="1:15">
       <c r="A377" s="7" t="s">
-        <v>2298</v>
+        <v>1874</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>2298</v>
+        <v>1874</v>
       </c>
       <c r="O377" s="7" t="s">
-        <v>2299</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="378" spans="1:15">
       <c r="A378" s="7" t="s">
-        <v>2300</v>
+        <v>2290</v>
       </c>
       <c r="O378" s="7" t="s">
-        <v>2796</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="379" spans="1:15">
       <c r="A379" s="7" t="s">
-        <v>2301</v>
+        <v>2292</v>
       </c>
       <c r="O379" s="7" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="381" spans="1:15">
       <c r="A381" s="7" t="s">
-        <v>2302</v>
+        <v>2293</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>2302</v>
+        <v>2293</v>
       </c>
       <c r="O381" s="7" t="s">
-        <v>2303</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="382" spans="1:15">
       <c r="A382" s="7" t="s">
-        <v>2304</v>
+        <v>2295</v>
       </c>
       <c r="O382" s="7" t="s">
-        <v>2305</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="383" spans="1:15">
       <c r="A383" s="7" t="s">
-        <v>2306</v>
+        <v>2297</v>
       </c>
       <c r="O383" s="7" t="s">
-        <v>2307</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="385" spans="1:15">
       <c r="A385" s="7" t="s">
-        <v>2308</v>
+        <v>2298</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>2798</v>
+        <v>2298</v>
       </c>
       <c r="O385" s="7" t="s">
-        <v>2309</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="386" spans="1:15">
       <c r="A386" s="7" t="s">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="O386" s="7" t="s">
-        <v>2799</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="387" spans="1:15">
       <c r="A387" s="7" t="s">
-        <v>2311</v>
+        <v>2301</v>
       </c>
       <c r="O387" s="7" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="389" spans="1:15">
       <c r="A389" s="7" t="s">
-        <v>2312</v>
+        <v>2302</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>2312</v>
+        <v>2302</v>
       </c>
       <c r="O389" s="7" t="s">
-        <v>2313</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="390" spans="1:15">
       <c r="A390" s="7" t="s">
-        <v>2314</v>
+        <v>2304</v>
       </c>
       <c r="O390" s="7" t="s">
-        <v>2800</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="391" spans="1:15">
       <c r="A391" s="7" t="s">
-        <v>2315</v>
+        <v>2306</v>
       </c>
       <c r="O391" s="7" t="s">
-        <v>2316</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="393" spans="1:15">
       <c r="A393" s="7" t="s">
-        <v>2317</v>
+        <v>2308</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>2317</v>
+        <v>2798</v>
       </c>
       <c r="O393" s="7" t="s">
-        <v>2318</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="394" spans="1:15">
       <c r="A394" s="7" t="s">
-        <v>2319</v>
+        <v>2310</v>
       </c>
       <c r="O394" s="7" t="s">
-        <v>2320</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="395" spans="1:15">
       <c r="A395" s="7" t="s">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="O395" s="7" t="s">
-        <v>2322</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="397" spans="1:15">
       <c r="A397" s="7" t="s">
-        <v>2926</v>
+        <v>2312</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>2926</v>
+        <v>2312</v>
       </c>
       <c r="O397" s="7" t="s">
-        <v>2929</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="398" spans="1:15">
       <c r="A398" s="7" t="s">
-        <v>2927</v>
+        <v>2314</v>
       </c>
       <c r="O398" s="7" t="s">
-        <v>2930</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="399" spans="1:15">
       <c r="A399" s="7" t="s">
-        <v>2928</v>
+        <v>2315</v>
       </c>
       <c r="O399" s="7" t="s">
-        <v>2930</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="401" spans="1:15">
       <c r="A401" s="7" t="s">
-        <v>2936</v>
+        <v>2317</v>
       </c>
       <c r="B401" s="7" t="s">
-        <v>2936</v>
+        <v>2317</v>
       </c>
       <c r="O401" s="7" t="s">
-        <v>2939</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="402" spans="1:15">
       <c r="A402" s="7" t="s">
-        <v>2937</v>
+        <v>2319</v>
       </c>
       <c r="O402" s="7" t="s">
-        <v>2940</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="403" spans="1:15">
       <c r="A403" s="7" t="s">
-        <v>2938</v>
+        <v>2321</v>
       </c>
       <c r="O403" s="7" t="s">
-        <v>2940</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="405" spans="1:15">
       <c r="A405" s="7" t="s">
-        <v>2323</v>
+        <v>2926</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>2323</v>
+        <v>2926</v>
       </c>
       <c r="O405" s="7" t="s">
-        <v>2324</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="406" spans="1:15">
       <c r="A406" s="7" t="s">
-        <v>2325</v>
+        <v>2927</v>
       </c>
       <c r="O406" s="7" t="s">
-        <v>2801</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="407" spans="1:15">
       <c r="A407" s="7" t="s">
-        <v>2326</v>
+        <v>2928</v>
       </c>
       <c r="O407" s="7" t="s">
-        <v>2801</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="409" spans="1:15">
       <c r="A409" s="7" t="s">
-        <v>2327</v>
+        <v>2936</v>
       </c>
       <c r="B409" s="7" t="s">
-        <v>2327</v>
+        <v>2936</v>
       </c>
       <c r="O409" s="7" t="s">
-        <v>2328</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="410" spans="1:15">
       <c r="A410" s="7" t="s">
-        <v>2329</v>
+        <v>2937</v>
       </c>
       <c r="O410" s="7" t="s">
-        <v>2802</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="411" spans="1:15">
       <c r="A411" s="7" t="s">
-        <v>2330</v>
+        <v>2938</v>
       </c>
       <c r="O411" s="7" t="s">
-        <v>2802</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="413" spans="1:15">
       <c r="A413" s="7" t="s">
-        <v>2331</v>
+        <v>2323</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>2331</v>
+        <v>2323</v>
       </c>
       <c r="O413" s="7" t="s">
-        <v>2328</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="414" spans="1:15">
       <c r="A414" s="7" t="s">
-        <v>2332</v>
+        <v>2325</v>
       </c>
       <c r="O414" s="7" t="s">
-        <v>2803</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="415" spans="1:15">
       <c r="A415" s="7" t="s">
+        <v>2326</v>
+      </c>
+      <c r="O415" s="7" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="417" spans="1:15">
+      <c r="A417" s="7" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B417" s="7" t="s">
+        <v>2327</v>
+      </c>
+      <c r="O417" s="7" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="418" spans="1:15">
+      <c r="A418" s="7" t="s">
+        <v>2329</v>
+      </c>
+      <c r="O418" s="7" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="419" spans="1:15">
+      <c r="A419" s="7" t="s">
+        <v>2330</v>
+      </c>
+      <c r="O419" s="7" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="421" spans="1:15">
+      <c r="A421" s="7" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B421" s="7" t="s">
+        <v>2331</v>
+      </c>
+      <c r="O421" s="7" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="422" spans="1:15">
+      <c r="A422" s="7" t="s">
+        <v>2332</v>
+      </c>
+      <c r="O422" s="7" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="423" spans="1:15">
+      <c r="A423" s="7" t="s">
         <v>2333</v>
       </c>
-      <c r="O415" s="7" t="s">
+      <c r="O423" s="7" t="s">
         <v>2803</v>
       </c>
     </row>
@@ -26460,11 +26595,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Q105"/>
+  <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="60" customHeight="1"/>
@@ -26546,793 +26681,809 @@
     </row>
     <row r="4" spans="1:17" ht="60" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>2371</v>
+        <v>3048</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>2836</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="60" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>3034</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="60" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>1860</v>
+        <v>2373</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>2824</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="60" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>2374</v>
+        <v>1860</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>2823</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="60" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>2365</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="60" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="60" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>2838</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="60" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="60" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>2822</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="60" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>2821</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="60" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>2840</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="60" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="60" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="60" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="60" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>2379</v>
+        <v>2384</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="60" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>2385</v>
+        <v>2379</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="60" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>2367</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="60" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>2977</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="60" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>2846</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="60" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="60" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>1899</v>
+        <v>2389</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="60" customHeight="1">
       <c r="A26" s="8" t="s">
+        <v>1899</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="60" customHeight="1">
+      <c r="A27" s="8" t="s">
         <v>1900</v>
       </c>
-      <c r="O26" s="9" t="s">
+      <c r="O27" s="9" t="s">
         <v>2849</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="60" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>1756</v>
-      </c>
-      <c r="O28" s="9" t="s">
-        <v>2850</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="60" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>2572</v>
+        <v>1756</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>2571</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="60" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>1755</v>
+        <v>2572</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>2851</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="60" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>2390</v>
+        <v>1755</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="60" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>2368</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="60" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>2853</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="60" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="60" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="60" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="60" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="60" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="60" customHeight="1">
       <c r="A39" s="8" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="60" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="60" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>3031</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="60" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>2861</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="60" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="60" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="60" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="60" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="60" customHeight="1">
       <c r="A47" s="8" t="s">
+        <v>2405</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="60" customHeight="1">
+      <c r="A48" s="8" t="s">
         <v>2965</v>
       </c>
-      <c r="O47" s="9" t="s">
+      <c r="O48" s="9" t="s">
         <v>2975</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="60" customHeight="1">
-      <c r="A49" s="8" t="s">
-        <v>2406</v>
-      </c>
-      <c r="O49" s="9" t="s">
-        <v>2866</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="60" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="60" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>2820</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="60" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="O52" s="9" t="s">
-        <v>2868</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="60" customHeight="1">
       <c r="A53" s="8" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="60" customHeight="1">
       <c r="A54" s="8" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="O54" s="9" t="s">
-        <v>2819</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="60" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="O55" s="9" t="s">
-        <v>2870</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="60" customHeight="1">
       <c r="A56" s="8" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="60" customHeight="1">
       <c r="A57" s="8" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="O57" s="9" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="60" customHeight="1">
       <c r="A58" s="8" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="60" customHeight="1">
       <c r="A59" s="8" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="60" customHeight="1">
       <c r="A60" s="8" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="O60" s="9" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="60" customHeight="1">
       <c r="A61" s="8" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="O61" s="9" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="60" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>2911</v>
+        <v>2418</v>
       </c>
       <c r="O62" s="9" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="60" customHeight="1">
       <c r="A63" s="8" t="s">
-        <v>2419</v>
+        <v>2911</v>
       </c>
       <c r="O63" s="9" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="60" customHeight="1">
       <c r="A64" s="8" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="O64" s="9" t="s">
-        <v>2916</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="60" customHeight="1">
       <c r="A65" s="8" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="O65" s="9" t="s">
-        <v>2879</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="60" customHeight="1">
       <c r="A66" s="8" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="O66" s="9" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="60" customHeight="1">
       <c r="A67" s="8" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="O67" s="9" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="60" customHeight="1">
       <c r="A68" s="8" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="O68" s="9" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="60" customHeight="1">
       <c r="A69" s="8" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="O69" s="9" t="s">
-        <v>1762</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="60" customHeight="1">
       <c r="A70" s="8" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="O70" s="9" t="s">
-        <v>2883</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="60" customHeight="1">
       <c r="A71" s="8" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="O71" s="9" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="60" customHeight="1">
       <c r="A72" s="8" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="O72" s="9" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="60" customHeight="1">
       <c r="A73" s="8" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="O73" s="9" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="60" customHeight="1">
       <c r="A74" s="8" t="s">
-        <v>1897</v>
+        <v>2429</v>
       </c>
       <c r="O74" s="9" t="s">
-        <v>2920</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="60" customHeight="1">
       <c r="A75" s="8" t="s">
+        <v>1897</v>
+      </c>
+      <c r="O75" s="9" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="60" customHeight="1">
+      <c r="A76" s="8" t="s">
         <v>2615</v>
       </c>
-      <c r="O75" s="9" t="s">
+      <c r="O76" s="9" t="s">
         <v>2614</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="60" customHeight="1">
-      <c r="A77" s="8" t="s">
-        <v>2430</v>
-      </c>
-      <c r="O77" s="9" t="s">
-        <v>2887</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="60" customHeight="1">
       <c r="A78" s="8" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="O78" s="9" t="s">
-        <v>2832</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="60" customHeight="1">
       <c r="A79" s="8" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="O79" s="9" t="s">
-        <v>2888</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="60" customHeight="1">
       <c r="A80" s="8" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="O80" s="9" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="60" customHeight="1">
       <c r="A81" s="8" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="O81" s="9" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="60" customHeight="1">
       <c r="A82" s="8" t="s">
-        <v>2435</v>
+        <v>3044</v>
       </c>
       <c r="O82" s="9" t="s">
-        <v>2891</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="60" customHeight="1">
       <c r="A83" s="8" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="O83" s="9" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="60" customHeight="1">
       <c r="A84" s="8" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="O84" s="9" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="60" customHeight="1">
       <c r="A85" s="8" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="O85" s="9" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="60" customHeight="1">
       <c r="A86" s="8" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="O86" s="9" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="60" customHeight="1">
       <c r="A87" s="8" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="O87" s="9" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="60" customHeight="1">
       <c r="A88" s="8" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="O88" s="9" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="60" customHeight="1">
       <c r="A89" s="8" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="O89" s="9" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="60" customHeight="1">
       <c r="A90" s="8" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="O90" s="9" t="s">
-        <v>2833</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="60" customHeight="1">
       <c r="A91" s="8" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="O91" s="9" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="60" customHeight="1">
       <c r="A92" s="8" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="O92" s="9" t="s">
-        <v>2900</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="60" customHeight="1">
       <c r="A93" s="8" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="O93" s="9" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="60" customHeight="1">
       <c r="A94" s="8" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="O94" s="9" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="60" customHeight="1">
       <c r="A95" s="8" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="O95" s="9" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="60" customHeight="1">
       <c r="A96" s="8" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="O96" s="9" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="60" customHeight="1">
       <c r="A97" s="8" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="O97" s="9" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="60" customHeight="1">
       <c r="A98" s="8" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="O98" s="9" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="60" customHeight="1">
       <c r="A99" s="8" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="O99" s="9" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="60" customHeight="1">
       <c r="A100" s="8" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="O100" s="9" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="60" customHeight="1">
       <c r="A101" s="8" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="O101" s="9" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="60" customHeight="1">
       <c r="A102" s="8" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="O102" s="9" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="60" customHeight="1">
       <c r="A103" s="8" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="O103" s="9" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="60" customHeight="1">
       <c r="A104" s="8" t="s">
-        <v>2931</v>
+        <v>2455</v>
       </c>
       <c r="O104" s="9" t="s">
-        <v>2932</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="60" customHeight="1">
       <c r="A105" s="8" t="s">
+        <v>2456</v>
+      </c>
+      <c r="O105" s="9" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="60" customHeight="1">
+      <c r="A106" s="8" t="s">
+        <v>2931</v>
+      </c>
+      <c r="O106" s="9" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="60" customHeight="1">
+      <c r="A107" s="8" t="s">
         <v>2941</v>
       </c>
-      <c r="O105" s="9" t="s">
+      <c r="O107" s="9" t="s">
         <v>2958</v>
       </c>
     </row>
